--- a/Processed_data/All_Bag_Site_Info.xlsx
+++ b/Processed_data/All_Bag_Site_Info.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ96"/>
+  <dimension ref="A1:BR96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,35 +682,40 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
+          <t>Site_Pair</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
           <t>mean_yield</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>sd_yield</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>z_score</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>is_outlier_Z</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>log10_myc_bag_yield_est</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>log10_Second_Weight_bag_yield_est</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Days_Installed</t>
         </is>
@@ -918,25 +923,30 @@
       <c r="BJ2">
         <v>2</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL2">
         <v>2.8745</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>-1.234118238513349</v>
       </c>
-      <c r="BN2" t="b">
+      <c r="BO2" t="b">
         <v>0</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>0.1541195255158467</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>-0.2814983111327257</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>140</v>
       </c>
     </row>
@@ -1142,25 +1152,30 @@
       <c r="BJ3">
         <v>2</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL3">
         <v>2.8745</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>-0.4459800941756867</v>
       </c>
-      <c r="BN3" t="b">
+      <c r="BO3" t="b">
         <v>0</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>0.3919930722597129</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>-0.00261361560268669</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>140</v>
       </c>
     </row>
@@ -1371,25 +1386,30 @@
       <c r="BJ4">
         <v>2</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL4">
         <v>2.8745</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <v>-0.4687148483392733</v>
       </c>
-      <c r="BN4" t="b">
+      <c r="BO4" t="b">
         <v>0</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>0.3866772839608377</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>-0.08092190762392612</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>140</v>
       </c>
     </row>
@@ -1595,25 +1615,30 @@
       <c r="BJ5">
         <v>2</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL5">
         <v>2.8745</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <v>1.133327495054783</v>
       </c>
-      <c r="BN5" t="b">
+      <c r="BO5" t="b">
         <v>0</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>0.6580113966571124</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>-0.1857524042680798</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>140</v>
       </c>
     </row>
@@ -1824,25 +1849,30 @@
       <c r="BJ6">
         <v>2</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL6">
         <v>2.8745</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <v>-0.8006422591276348</v>
       </c>
-      <c r="BN6" t="b">
+      <c r="BO6" t="b">
         <v>0</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>0.3005954838899635</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>-0.02826040911222176</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>142</v>
       </c>
     </row>
@@ -2053,25 +2083,30 @@
       <c r="BJ7">
         <v>2</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL7">
         <v>2.8745</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <v>-0.1943821480986638</v>
       </c>
-      <c r="BN7" t="b">
+      <c r="BO7" t="b">
         <v>0</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>0.4468477101558088</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>0.1251558295805301</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>142</v>
       </c>
     </row>
@@ -2277,25 +2312,30 @@
       <c r="BJ8">
         <v>2</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL8">
         <v>2.8745</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <v>1.738071955806182</v>
       </c>
-      <c r="BN8" t="b">
+      <c r="BO8" t="b">
         <v>0</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <v>0.7281913985899467</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>0.4101020766428606</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>142</v>
       </c>
     </row>
@@ -2506,25 +2546,30 @@
       <c r="BJ9">
         <v>2</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL9">
         <v>2.8745</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>1.319565621169114</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <v>0.272438137393644</v>
       </c>
-      <c r="BN9" t="b">
+      <c r="BO9" t="b">
         <v>0</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <v>0.5332635167787149</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>-0.1694113313148557</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>142</v>
       </c>
     </row>
@@ -2735,25 +2780,30 @@
       <c r="BJ10">
         <v>5</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL10">
         <v>2.99</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <v>2.287788718562198</v>
       </c>
-      <c r="BN10" t="b">
+      <c r="BO10" t="b">
         <v>1</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <v>0.9339931638312423</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>0.6249006022044902</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>142</v>
       </c>
     </row>
@@ -2959,25 +3009,30 @@
       <c r="BJ11">
         <v>5</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL11">
         <v>2.99</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <v>0.2017643925226441</v>
       </c>
-      <c r="BN11" t="b">
+      <c r="BO11" t="b">
         <v>0</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>0.5620548296563785</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>0.3741982579290827</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>142</v>
       </c>
     </row>
@@ -3183,25 +3238,30 @@
       <c r="BJ12">
         <v>5</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL12">
         <v>2.99</v>
       </c>
-      <c r="BL12">
+      <c r="BM12">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM12">
+      <c r="BN12">
         <v>-0.5310033594005986</v>
       </c>
-      <c r="BN12" t="b">
+      <c r="BO12" t="b">
         <v>0</v>
       </c>
-      <c r="BO12">
+      <c r="BP12">
         <v>0.2814878879400812</v>
       </c>
-      <c r="BP12">
+      <c r="BQ12">
         <v>-0.2006594505464183</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>142</v>
       </c>
     </row>
@@ -3407,25 +3467,30 @@
       <c r="BJ13">
         <v>5</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL13">
         <v>2.99</v>
       </c>
-      <c r="BL13">
+      <c r="BM13">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM13">
+      <c r="BN13">
         <v>-0.4499599213998713</v>
       </c>
-      <c r="BN13" t="b">
+      <c r="BO13" t="b">
         <v>0</v>
       </c>
-      <c r="BO13">
+      <c r="BP13">
         <v>0.3230457354817015</v>
       </c>
-      <c r="BP13">
+      <c r="BQ13">
         <v>-0.2160964207272651</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>142</v>
       </c>
     </row>
@@ -3636,25 +3701,30 @@
       <c r="BJ14">
         <v>5</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL14">
         <v>2.99</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM14">
+      <c r="BN14">
         <v>-0.1907897602933789</v>
       </c>
-      <c r="BN14" t="b">
+      <c r="BO14" t="b">
         <v>0</v>
       </c>
-      <c r="BO14">
+      <c r="BP14">
         <v>0.4342494523964755</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>0.1504494094608806</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>142</v>
       </c>
     </row>
@@ -3860,25 +3930,30 @@
       <c r="BJ15">
         <v>5</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL15">
         <v>2.99</v>
       </c>
-      <c r="BL15">
+      <c r="BM15">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM15">
+      <c r="BN15">
         <v>0.1983875826059471</v>
       </c>
-      <c r="BN15" t="b">
+      <c r="BO15" t="b">
         <v>0</v>
       </c>
-      <c r="BO15">
+      <c r="BP15">
         <v>0.561101383649056</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>0.3741982579290827</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>142</v>
       </c>
     </row>
@@ -4084,25 +4159,30 @@
       <c r="BJ16">
         <v>5</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL16">
         <v>2.99</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM16">
+      <c r="BN16">
         <v>-0.6694525659851744</v>
       </c>
-      <c r="BN16" t="b">
+      <c r="BO16" t="b">
         <v>0</v>
       </c>
-      <c r="BO16">
+      <c r="BP16">
         <v>0.1997551772534747</v>
       </c>
-      <c r="BP16">
+      <c r="BQ16">
         <v>-0.1319436381769584</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>142</v>
       </c>
     </row>
@@ -4308,25 +4388,30 @@
       <c r="BJ17">
         <v>5</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL17">
         <v>2.99</v>
       </c>
-      <c r="BL17">
+      <c r="BM17">
         <v>2.369099889349178</v>
       </c>
-      <c r="BM17">
+      <c r="BN17">
         <v>-0.8467350866117654</v>
       </c>
-      <c r="BN17" t="b">
+      <c r="BO17" t="b">
         <v>0</v>
       </c>
-      <c r="BO17">
+      <c r="BP17">
         <v>0.06595298031386965</v>
       </c>
-      <c r="BP17">
+      <c r="BQ17">
         <v>-0.27083521030723</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>142</v>
       </c>
     </row>
@@ -4532,25 +4617,30 @@
       <c r="BJ18">
         <v>6</v>
       </c>
-      <c r="BK18">
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL18">
         <v>2.1635</v>
       </c>
-      <c r="BL18">
+      <c r="BM18">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM18">
+      <c r="BN18">
         <v>1.338698699102125</v>
       </c>
-      <c r="BN18" t="b">
+      <c r="BO18" t="b">
         <v>0</v>
       </c>
-      <c r="BO18">
+      <c r="BP18">
         <v>0.6129956560323475</v>
       </c>
-      <c r="BP18">
+      <c r="BQ18">
         <v>0.2743887955503789</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>163</v>
       </c>
     </row>
@@ -4756,25 +4846,30 @@
       <c r="BJ19">
         <v>6</v>
       </c>
-      <c r="BK19">
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL19">
         <v>2.1635</v>
       </c>
-      <c r="BL19">
+      <c r="BM19">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM19">
+      <c r="BN19">
         <v>-1.255719934130768</v>
       </c>
-      <c r="BN19" t="b">
+      <c r="BO19" t="b">
         <v>0</v>
       </c>
-      <c r="BO19">
+      <c r="BP19">
         <v>-0.1586405295451451</v>
       </c>
-      <c r="BP19">
+      <c r="BQ19">
         <v>-0.5044556624535514</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>163</v>
       </c>
     </row>
@@ -4980,25 +5075,30 @@
       <c r="BJ20">
         <v>6</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL20">
         <v>2.1635</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM20">
+      <c r="BN20">
         <v>-1.318144326127568</v>
       </c>
-      <c r="BN20" t="b">
+      <c r="BO20" t="b">
         <v>0</v>
       </c>
-      <c r="BO20">
+      <c r="BP20">
         <v>-0.2132485778544388</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>-0.543633966870957</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>163</v>
       </c>
     </row>
@@ -5204,25 +5304,30 @@
       <c r="BJ21">
         <v>6</v>
       </c>
-      <c r="BK21">
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL21">
         <v>2.1635</v>
       </c>
-      <c r="BL21">
+      <c r="BM21">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM21">
+      <c r="BN21">
         <v>-0.209730731647788</v>
       </c>
-      <c r="BN21" t="b">
+      <c r="BO21" t="b">
         <v>0</v>
       </c>
-      <c r="BO21">
+      <c r="BP21">
         <v>0.3155505344219049</v>
       </c>
-      <c r="BP21">
+      <c r="BQ21">
         <v>0.0273496077747566</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>163</v>
       </c>
     </row>
@@ -5428,25 +5533,30 @@
       <c r="BJ22">
         <v>6</v>
       </c>
-      <c r="BK22">
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL22">
         <v>2.1635</v>
       </c>
-      <c r="BL22">
+      <c r="BM22">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM22">
+      <c r="BN22">
         <v>-0.1716670779912024</v>
       </c>
-      <c r="BN22" t="b">
+      <c r="BO22" t="b">
         <v>0</v>
       </c>
-      <c r="BO22">
+      <c r="BP22">
         <v>0.3259259557714662</v>
       </c>
-      <c r="BP22">
+      <c r="BQ22">
         <v>-0.1062382379420566</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>163</v>
       </c>
     </row>
@@ -5652,25 +5762,30 @@
       <c r="BJ23">
         <v>6</v>
       </c>
-      <c r="BK23">
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL23">
         <v>2.1635</v>
       </c>
-      <c r="BL23">
+      <c r="BM23">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM23">
+      <c r="BN23">
         <v>-0.2417042007193201</v>
       </c>
-      <c r="BN23" t="b">
+      <c r="BO23" t="b">
         <v>0</v>
       </c>
-      <c r="BO23">
+      <c r="BP23">
         <v>0.3066394410242617</v>
       </c>
-      <c r="BP23">
+      <c r="BQ23">
         <v>-0.0695604052332999</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>163</v>
       </c>
     </row>
@@ -5881,25 +5996,30 @@
       <c r="BJ24">
         <v>6</v>
       </c>
-      <c r="BK24">
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL24">
         <v>2.1635</v>
       </c>
-      <c r="BL24">
+      <c r="BM24">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM24">
+      <c r="BN24">
         <v>0.7966722710323421</v>
       </c>
-      <c r="BN24" t="b">
+      <c r="BO24" t="b">
         <v>0</v>
       </c>
-      <c r="BO24">
+      <c r="BP24">
         <v>0.5301996982030822</v>
       </c>
-      <c r="BP24">
+      <c r="BQ24">
         <v>0.02612451674545028</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>163</v>
       </c>
     </row>
@@ -6110,25 +6230,30 @@
       <c r="BJ25">
         <v>6</v>
       </c>
-      <c r="BK25">
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL25">
         <v>2.1635</v>
       </c>
-      <c r="BL25">
+      <c r="BM25">
         <v>1.31358908556454</v>
       </c>
-      <c r="BM25">
+      <c r="BN25">
         <v>1.06159530048218</v>
       </c>
-      <c r="BN25" t="b">
+      <c r="BO25" t="b">
         <v>0</v>
       </c>
-      <c r="BO25">
+      <c r="BP25">
         <v>0.5726392970428132</v>
       </c>
-      <c r="BP25">
+      <c r="BQ25">
         <v>0.1245042248342823</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>163</v>
       </c>
     </row>
@@ -6334,25 +6459,30 @@
       <c r="BJ26">
         <v>4</v>
       </c>
-      <c r="BK26">
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL26">
         <v>3.31025</v>
       </c>
-      <c r="BL26">
+      <c r="BM26">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM26">
+      <c r="BN26">
         <v>-0.06425173526088594</v>
       </c>
-      <c r="BN26" t="b">
+      <c r="BO26" t="b">
         <v>0</v>
       </c>
-      <c r="BO26">
+      <c r="BP26">
         <v>0.5286596452349899</v>
       </c>
-      <c r="BP26">
+      <c r="BQ26">
         <v>0.2035767749779726</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>160</v>
       </c>
     </row>
@@ -6558,25 +6688,30 @@
       <c r="BJ27">
         <v>4</v>
       </c>
-      <c r="BK27">
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL27">
         <v>3.31025</v>
       </c>
-      <c r="BL27">
+      <c r="BM27">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM27">
+      <c r="BN27">
         <v>-0.08829247362130643</v>
       </c>
-      <c r="BN27" t="b">
+      <c r="BO27" t="b">
         <v>0</v>
       </c>
-      <c r="BO27">
+      <c r="BP27">
         <v>0.5232260419657011</v>
       </c>
-      <c r="BP27">
+      <c r="BQ27">
         <v>0.2105860249051565</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>160</v>
       </c>
     </row>
@@ -6787,25 +6922,30 @@
       <c r="BJ28">
         <v>4</v>
       </c>
-      <c r="BK28">
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL28">
         <v>3.31025</v>
       </c>
-      <c r="BL28">
+      <c r="BM28">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM28">
+      <c r="BN28">
         <v>-0.2840527716990169</v>
       </c>
-      <c r="BN28" t="b">
+      <c r="BO28" t="b">
         <v>0</v>
       </c>
-      <c r="BO28">
+      <c r="BP28">
         <v>0.4762517960070336</v>
       </c>
-      <c r="BP28">
+      <c r="BQ28">
         <v>0.1664301138432826</v>
       </c>
-      <c r="BQ28">
+      <c r="BR28">
         <v>160</v>
       </c>
     </row>
@@ -7011,25 +7151,30 @@
       <c r="BJ29">
         <v>4</v>
       </c>
-      <c r="BK29">
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL29">
         <v>3.31025</v>
       </c>
-      <c r="BL29">
+      <c r="BM29">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM29">
+      <c r="BN29">
         <v>0.1509701129181171</v>
       </c>
-      <c r="BN29" t="b">
+      <c r="BO29" t="b">
         <v>0</v>
       </c>
-      <c r="BO29">
+      <c r="BP29">
         <v>0.5744942682853275</v>
       </c>
-      <c r="BP29">
+      <c r="BQ29">
         <v>0.06107532362979181</v>
       </c>
-      <c r="BQ29">
+      <c r="BR29">
         <v>160</v>
       </c>
     </row>
@@ -7235,25 +7380,30 @@
       <c r="BJ30">
         <v>4</v>
       </c>
-      <c r="BK30">
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL30">
         <v>3.31025</v>
       </c>
-      <c r="BL30">
+      <c r="BM30">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM30">
+      <c r="BN30">
         <v>-1.106017064212445</v>
       </c>
-      <c r="BN30" t="b">
+      <c r="BO30" t="b">
         <v>0</v>
       </c>
-      <c r="BO30">
+      <c r="BP30">
         <v>0.1925674533365456</v>
       </c>
-      <c r="BP30">
+      <c r="BQ30">
         <v>-0.2612194415156308</v>
       </c>
-      <c r="BQ30">
+      <c r="BR30">
         <v>160</v>
       </c>
     </row>
@@ -7459,25 +7609,30 @@
       <c r="BJ31">
         <v>4</v>
       </c>
-      <c r="BK31">
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL31">
         <v>3.31025</v>
       </c>
-      <c r="BL31">
+      <c r="BM31">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM31">
+      <c r="BN31">
         <v>-0.1077540237225994</v>
       </c>
-      <c r="BN31" t="b">
+      <c r="BO31" t="b">
         <v>0</v>
       </c>
-      <c r="BO31">
+      <c r="BP31">
         <v>0.5187770689267749</v>
       </c>
-      <c r="BP31">
+      <c r="BQ31">
         <v>0.1607685618611281</v>
       </c>
-      <c r="BQ31">
+      <c r="BR31">
         <v>160</v>
       </c>
     </row>
@@ -7688,25 +7843,30 @@
       <c r="BJ32">
         <v>4</v>
       </c>
-      <c r="BK32">
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL32">
         <v>3.31025</v>
       </c>
-      <c r="BL32">
+      <c r="BM32">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM32">
+      <c r="BN32">
         <v>-0.7545643653243912</v>
       </c>
-      <c r="BN32" t="b">
+      <c r="BO32" t="b">
         <v>0</v>
       </c>
-      <c r="BO32">
+      <c r="BP32">
         <v>0.3368598209168094</v>
       </c>
-      <c r="BP32">
+      <c r="BQ32">
         <v>-0.06701917807680184</v>
       </c>
-      <c r="BQ32">
+      <c r="BR32">
         <v>160</v>
       </c>
     </row>
@@ -7912,25 +8072,30 @@
       <c r="BJ33">
         <v>4</v>
       </c>
-      <c r="BK33">
+      <c r="BK33" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL33">
         <v>3.31025</v>
       </c>
-      <c r="BL33">
+      <c r="BM33">
         <v>1.747034528238392</v>
       </c>
-      <c r="BM33">
+      <c r="BN33">
         <v>2.253962320922527</v>
       </c>
-      <c r="BN33" t="b">
+      <c r="BO33" t="b">
         <v>1</v>
       </c>
-      <c r="BO33">
+      <c r="BP33">
         <v>0.8708718950677428</v>
       </c>
-      <c r="BP33">
+      <c r="BQ33">
         <v>0.549125926758111</v>
       </c>
-      <c r="BQ33">
+      <c r="BR33">
         <v>160</v>
       </c>
     </row>
@@ -8146,25 +8311,30 @@
       <c r="BJ34">
         <v>5</v>
       </c>
-      <c r="BK34">
+      <c r="BK34" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL34">
         <v>2.042625</v>
       </c>
-      <c r="BL34">
+      <c r="BM34">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM34">
+      <c r="BN34">
         <v>1.726326042453487</v>
       </c>
-      <c r="BN34" t="b">
+      <c r="BO34" t="b">
         <v>0</v>
       </c>
-      <c r="BO34">
+      <c r="BP34">
         <v>0.78632543439007</v>
       </c>
-      <c r="BP34">
+      <c r="BQ34">
         <v>0.4371160930480787</v>
       </c>
-      <c r="BQ34">
+      <c r="BR34">
         <v>131</v>
       </c>
     </row>
@@ -8385,25 +8555,30 @@
       <c r="BJ35">
         <v>5</v>
       </c>
-      <c r="BK35">
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL35">
         <v>2.042625</v>
       </c>
-      <c r="BL35">
+      <c r="BM35">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM35">
+      <c r="BN35">
         <v>-0.5690093964734585</v>
       </c>
-      <c r="BN35" t="b">
+      <c r="BO35" t="b">
         <v>0</v>
       </c>
-      <c r="BO35">
+      <c r="BP35">
         <v>-0.02687214640030136</v>
       </c>
-      <c r="BP35">
+      <c r="BQ35">
         <v>-0.3946949538588905</v>
       </c>
-      <c r="BQ35">
+      <c r="BR35">
         <v>131</v>
       </c>
     </row>
@@ -8604,13 +8779,18 @@
       <c r="BJ36">
         <v>5</v>
       </c>
-      <c r="BL36">
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BM36">
         <v>2.254136764611107</v>
       </c>
-      <c r="BO36">
+      <c r="BP36">
         <v>-0.744727494896694</v>
       </c>
-      <c r="BQ36">
+      <c r="BR36">
         <v>131</v>
       </c>
     </row>
@@ -8821,25 +9001,30 @@
       <c r="BJ37">
         <v>5</v>
       </c>
-      <c r="BK37">
+      <c r="BK37" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL37">
         <v>2.042625</v>
       </c>
-      <c r="BL37">
+      <c r="BM37">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM37">
+      <c r="BN37">
         <v>-0.4731855745159362</v>
       </c>
-      <c r="BN37" t="b">
+      <c r="BO37" t="b">
         <v>0</v>
       </c>
-      <c r="BO37">
+      <c r="BP37">
         <v>0.06295783408451022</v>
       </c>
-      <c r="BP37">
+      <c r="BQ37">
         <v>-0.2456516642889812</v>
       </c>
-      <c r="BQ37">
+      <c r="BR37">
         <v>131</v>
       </c>
     </row>
@@ -9055,25 +9240,30 @@
       <c r="BJ38">
         <v>5</v>
       </c>
-      <c r="BK38">
+      <c r="BK38" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL38">
         <v>2.042625</v>
       </c>
-      <c r="BL38">
+      <c r="BM38">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM38">
+      <c r="BN38">
         <v>1.41889128033977</v>
       </c>
-      <c r="BN38" t="b">
+      <c r="BO38" t="b">
         <v>0</v>
       </c>
-      <c r="BO38">
+      <c r="BP38">
         <v>0.7340794072805943</v>
       </c>
-      <c r="BP38">
+      <c r="BQ38">
         <v>-0.1295960947209729</v>
       </c>
-      <c r="BQ38">
+      <c r="BR38">
         <v>131</v>
       </c>
     </row>
@@ -9284,25 +9474,30 @@
       <c r="BJ39">
         <v>5</v>
       </c>
-      <c r="BK39">
+      <c r="BK39" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL39">
         <v>2.042625</v>
       </c>
-      <c r="BL39">
+      <c r="BM39">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM39">
+      <c r="BN39">
         <v>-0.3272316975528582</v>
       </c>
-      <c r="BN39" t="b">
+      <c r="BO39" t="b">
         <v>0</v>
       </c>
-      <c r="BO39">
+      <c r="BP39">
         <v>0.1717264536532312</v>
       </c>
-      <c r="BP39">
+      <c r="BQ39">
         <v>-0.1237821594083578</v>
       </c>
-      <c r="BQ39">
+      <c r="BR39">
         <v>131</v>
       </c>
     </row>
@@ -9513,25 +9708,30 @@
       <c r="BJ40">
         <v>5</v>
       </c>
-      <c r="BK40">
+      <c r="BK40" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL40">
         <v>2.042625</v>
       </c>
-      <c r="BL40">
+      <c r="BM40">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM40">
+      <c r="BN40">
         <v>-0.7109706141883063</v>
       </c>
-      <c r="BN40" t="b">
+      <c r="BO40" t="b">
         <v>0</v>
       </c>
-      <c r="BO40">
+      <c r="BP40">
         <v>-0.2076083105017461</v>
       </c>
-      <c r="BP40">
+      <c r="BQ40">
         <v>-0.3233063903751334</v>
       </c>
-      <c r="BQ40">
+      <c r="BR40">
         <v>131</v>
       </c>
     </row>
@@ -9752,25 +9952,30 @@
       <c r="BJ41">
         <v>5</v>
       </c>
-      <c r="BK41">
+      <c r="BK41" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="BL41">
         <v>2.042625</v>
       </c>
-      <c r="BL41">
+      <c r="BM41">
         <v>2.254136764611107</v>
       </c>
-      <c r="BM41">
+      <c r="BN41">
         <v>-0.1586527515164765</v>
       </c>
-      <c r="BN41" t="b">
+      <c r="BO41" t="b">
         <v>0</v>
       </c>
-      <c r="BO41">
+      <c r="BP41">
         <v>0.2706788361447064</v>
       </c>
-      <c r="BP41">
+      <c r="BQ41">
         <v>-0.1643094285075745</v>
       </c>
-      <c r="BQ41">
+      <c r="BR41">
         <v>131</v>
       </c>
     </row>
@@ -9991,25 +10196,30 @@
       <c r="BJ42">
         <v>6</v>
       </c>
-      <c r="BK42">
+      <c r="BK42" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL42">
         <v>5.123</v>
       </c>
-      <c r="BL42">
+      <c r="BM42">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM42">
+      <c r="BN42">
         <v>0.5778342304025047</v>
       </c>
-      <c r="BN42" t="b">
+      <c r="BO42" t="b">
         <v>0</v>
       </c>
-      <c r="BO42">
+      <c r="BP42">
         <v>0.8419848045901138</v>
       </c>
-      <c r="BP42">
+      <c r="BQ42">
         <v>0.327767489902729</v>
       </c>
-      <c r="BQ42">
+      <c r="BR42">
         <v>141</v>
       </c>
     </row>
@@ -10225,25 +10435,30 @@
       <c r="BJ43">
         <v>6</v>
       </c>
-      <c r="BK43">
+      <c r="BK43" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL43">
         <v>5.123</v>
       </c>
-      <c r="BL43">
+      <c r="BM43">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM43">
+      <c r="BN43">
         <v>-0.835351124825965</v>
       </c>
-      <c r="BN43" t="b">
+      <c r="BO43" t="b">
         <v>0</v>
       </c>
-      <c r="BO43">
+      <c r="BP43">
         <v>0.465680211598278</v>
       </c>
-      <c r="BP43">
+      <c r="BQ43">
         <v>0.07664044367034181</v>
       </c>
-      <c r="BQ43">
+      <c r="BR43">
         <v>141</v>
       </c>
     </row>
@@ -10449,25 +10664,30 @@
       <c r="BJ44">
         <v>6</v>
       </c>
-      <c r="BK44">
+      <c r="BK44" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL44">
         <v>5.123</v>
       </c>
-      <c r="BL44">
+      <c r="BM44">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM44">
+      <c r="BN44">
         <v>0.2964601849970349</v>
       </c>
-      <c r="BN44" t="b">
+      <c r="BO44" t="b">
         <v>0</v>
       </c>
-      <c r="BO44">
+      <c r="BP44">
         <v>0.7887338588277075</v>
       </c>
-      <c r="BP44">
+      <c r="BQ44">
         <v>0.1238516409670857</v>
       </c>
-      <c r="BQ44">
+      <c r="BR44">
         <v>141</v>
       </c>
     </row>
@@ -10683,25 +10903,30 @@
       <c r="BJ45">
         <v>6</v>
       </c>
-      <c r="BK45">
+      <c r="BK45" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL45">
         <v>5.123</v>
       </c>
-      <c r="BL45">
+      <c r="BM45">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM45">
+      <c r="BN45">
         <v>-0.6487040024372992</v>
       </c>
-      <c r="BN45" t="b">
+      <c r="BO45" t="b">
         <v>0</v>
       </c>
-      <c r="BO45">
+      <c r="BP45">
         <v>0.53832233323144</v>
       </c>
-      <c r="BP45">
+      <c r="BQ45">
         <v>0.04060234011407314</v>
       </c>
-      <c r="BQ45">
+      <c r="BR45">
         <v>141</v>
       </c>
     </row>
@@ -10917,25 +11142,30 @@
       <c r="BJ46">
         <v>6</v>
       </c>
-      <c r="BK46">
+      <c r="BK46" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL46">
         <v>5.123</v>
       </c>
-      <c r="BL46">
+      <c r="BM46">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM46">
+      <c r="BN46">
         <v>1.443708474867218</v>
       </c>
-      <c r="BN46" t="b">
+      <c r="BO46" t="b">
         <v>0</v>
       </c>
-      <c r="BO46">
+      <c r="BP46">
         <v>0.9739586861067037</v>
       </c>
-      <c r="BP46">
+      <c r="BQ46">
         <v>0.5035183127240748</v>
       </c>
-      <c r="BQ46">
+      <c r="BR46">
         <v>141</v>
       </c>
     </row>
@@ -11146,25 +11376,30 @@
       <c r="BJ47">
         <v>6</v>
       </c>
-      <c r="BK47">
+      <c r="BK47" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL47">
         <v>5.123</v>
       </c>
-      <c r="BL47">
+      <c r="BM47">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM47">
+      <c r="BN47">
         <v>-0.8928889595472831</v>
       </c>
-      <c r="BN47" t="b">
+      <c r="BO47" t="b">
         <v>0</v>
       </c>
-      <c r="BO47">
+      <c r="BP47">
         <v>0.440594261839831</v>
       </c>
-      <c r="BP47">
+      <c r="BQ47">
         <v>0.06032002868828518</v>
       </c>
-      <c r="BQ47">
+      <c r="BR47">
         <v>141</v>
       </c>
     </row>
@@ -11370,25 +11605,30 @@
       <c r="BJ48">
         <v>6</v>
       </c>
-      <c r="BK48">
+      <c r="BK48" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL48">
         <v>5.123</v>
       </c>
-      <c r="BL48">
+      <c r="BM48">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM48">
+      <c r="BN48">
         <v>-1.105498275651666</v>
       </c>
-      <c r="BN48" t="b">
+      <c r="BO48" t="b">
         <v>0</v>
       </c>
-      <c r="BO48">
+      <c r="BP48">
         <v>0.3328422669943516</v>
       </c>
-      <c r="BP48">
+      <c r="BQ48">
         <v>-0.1463017882238256</v>
       </c>
-      <c r="BQ48">
+      <c r="BR48">
         <v>141</v>
       </c>
     </row>
@@ -11599,25 +11839,30 @@
       <c r="BJ49">
         <v>6</v>
       </c>
-      <c r="BK49">
+      <c r="BK49" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="BL49">
         <v>5.123</v>
       </c>
-      <c r="BL49">
+      <c r="BM49">
         <v>2.850298430490594</v>
       </c>
-      <c r="BM49">
+      <c r="BN49">
         <v>1.164439472195455</v>
       </c>
-      <c r="BN49" t="b">
+      <c r="BO49" t="b">
         <v>0</v>
       </c>
-      <c r="BO49">
+      <c r="BP49">
         <v>0.9356080185178692</v>
       </c>
-      <c r="BP49">
+      <c r="BQ49">
         <v>0.4827307000799429</v>
       </c>
-      <c r="BQ49">
+      <c r="BR49">
         <v>141</v>
       </c>
     </row>
@@ -11825,25 +12070,30 @@
       <c r="BJ50">
         <v>3</v>
       </c>
-      <c r="BK50">
+      <c r="BK50" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL50">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL50">
+      <c r="BM50">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM50">
+      <c r="BN50">
         <v>1.486109667429014</v>
       </c>
-      <c r="BN50" t="b">
+      <c r="BO50" t="b">
         <v>0</v>
       </c>
-      <c r="BO50">
+      <c r="BP50">
         <v>0.9783631470838828</v>
       </c>
-      <c r="BP50">
+      <c r="BQ50">
         <v>0.5705429398818975</v>
       </c>
-      <c r="BQ50">
+      <c r="BR50">
         <v>162</v>
       </c>
     </row>
@@ -12056,25 +12306,30 @@
       <c r="BJ51">
         <v>3</v>
       </c>
-      <c r="BK51">
+      <c r="BK51" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL51">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL51">
+      <c r="BM51">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM51">
+      <c r="BN51">
         <v>-1.178482968695242</v>
       </c>
-      <c r="BN51" t="b">
+      <c r="BO51" t="b">
         <v>0</v>
       </c>
-      <c r="BO51">
+      <c r="BP51">
         <v>0.2657609167176105</v>
       </c>
-      <c r="BP51">
+      <c r="BQ51">
         <v>-0.07417242537525769</v>
       </c>
-      <c r="BQ51">
+      <c r="BR51">
         <v>162</v>
       </c>
     </row>
@@ -12282,25 +12537,30 @@
       <c r="BJ52">
         <v>3</v>
       </c>
-      <c r="BK52">
+      <c r="BK52" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL52">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL52">
+      <c r="BM52">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM52">
+      <c r="BN52">
         <v>-0.8408057793454664</v>
       </c>
-      <c r="BN52" t="b">
+      <c r="BO52" t="b">
         <v>0</v>
       </c>
-      <c r="BO52">
+      <c r="BP52">
         <v>0.4496326504700747</v>
       </c>
-      <c r="BP52">
+      <c r="BQ52">
         <v>0.09272064468409917</v>
       </c>
-      <c r="BQ52">
+      <c r="BR52">
         <v>162</v>
       </c>
     </row>
@@ -12508,25 +12768,30 @@
       <c r="BJ53">
         <v>3</v>
       </c>
-      <c r="BK53">
+      <c r="BK53" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL53">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL53">
+      <c r="BM53">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM53">
+      <c r="BN53">
         <v>0.2896485150415383</v>
       </c>
-      <c r="BN53" t="b">
+      <c r="BO53" t="b">
         <v>0</v>
       </c>
-      <c r="BO53">
+      <c r="BP53">
         <v>0.7831886910752576</v>
       </c>
-      <c r="BP53">
+      <c r="BQ53">
         <v>0.231214647962601</v>
       </c>
-      <c r="BQ53">
+      <c r="BR53">
         <v>162</v>
       </c>
     </row>
@@ -12732,25 +12997,30 @@
       <c r="BJ54">
         <v>3</v>
       </c>
-      <c r="BK54">
+      <c r="BK54" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL54">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL54">
+      <c r="BM54">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM54">
+      <c r="BN54">
         <v>-0.7449221329868883</v>
       </c>
-      <c r="BN54" t="b">
+      <c r="BO54" t="b">
         <v>0</v>
       </c>
-      <c r="BO54">
+      <c r="BP54">
         <v>0.4902394852462873</v>
       </c>
-      <c r="BP54">
+      <c r="BQ54">
         <v>0.06595298031386965</v>
       </c>
-      <c r="BQ54">
+      <c r="BR54">
         <v>162</v>
       </c>
     </row>
@@ -12966,25 +13236,30 @@
       <c r="BJ55">
         <v>3</v>
       </c>
-      <c r="BK55">
+      <c r="BK55" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL55">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL55">
+      <c r="BM55">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM55">
+      <c r="BN55">
         <v>0.7836577364976911</v>
       </c>
-      <c r="BN55" t="b">
+      <c r="BO55" t="b">
         <v>0</v>
       </c>
-      <c r="BO55">
+      <c r="BP55">
         <v>0.8745977687031997</v>
       </c>
-      <c r="BP55">
+      <c r="BQ55">
         <v>0.3163897510731954</v>
       </c>
-      <c r="BQ55">
+      <c r="BR55">
         <v>162</v>
       </c>
     </row>
@@ -13195,25 +13470,30 @@
       <c r="BJ56">
         <v>3</v>
       </c>
-      <c r="BK56">
+      <c r="BK56" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL56">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL56">
+      <c r="BM56">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM56">
+      <c r="BN56">
         <v>0.9455482408567395</v>
       </c>
-      <c r="BN56" t="b">
+      <c r="BO56" t="b">
         <v>0</v>
       </c>
-      <c r="BO56">
+      <c r="BP56">
         <v>0.9008039348103695</v>
       </c>
-      <c r="BP56">
+      <c r="BQ56">
         <v>0.3096301674258988</v>
       </c>
-      <c r="BQ56">
+      <c r="BR56">
         <v>162</v>
       </c>
     </row>
@@ -13424,25 +13704,30 @@
       <c r="BJ57">
         <v>3</v>
       </c>
-      <c r="BK57">
+      <c r="BK57" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL57">
         <v>5.056249999999999</v>
       </c>
-      <c r="BL57">
+      <c r="BM57">
         <v>2.878488777615286</v>
       </c>
-      <c r="BM57">
+      <c r="BN57">
         <v>-0.740753278797385</v>
       </c>
-      <c r="BN57" t="b">
+      <c r="BO57" t="b">
         <v>0</v>
       </c>
-      <c r="BO57">
+      <c r="BP57">
         <v>0.4919217125861509</v>
       </c>
-      <c r="BP57">
+      <c r="BQ57">
         <v>0.1024337056813363</v>
       </c>
-      <c r="BQ57">
+      <c r="BR57">
         <v>162</v>
       </c>
     </row>
@@ -13663,25 +13948,30 @@
       <c r="BJ58">
         <v>1</v>
       </c>
-      <c r="BK58">
+      <c r="BK58" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL58">
         <v>3.147</v>
       </c>
-      <c r="BL58">
+      <c r="BM58">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM58">
+      <c r="BN58">
         <v>-1.165461470468113</v>
       </c>
-      <c r="BN58" t="b">
+      <c r="BO58" t="b">
         <v>0</v>
       </c>
-      <c r="BO58">
+      <c r="BP58">
         <v>-0.05060999335508726</v>
       </c>
-      <c r="BP58">
+      <c r="BQ58">
         <v>-0.3045183235098026</v>
       </c>
-      <c r="BQ58">
+      <c r="BR58">
         <v>141</v>
       </c>
     </row>
@@ -13897,25 +14187,30 @@
       <c r="BJ59">
         <v>1</v>
       </c>
-      <c r="BK59">
+      <c r="BK59" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL59">
         <v>3.147</v>
       </c>
-      <c r="BL59">
+      <c r="BM59">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM59">
+      <c r="BN59">
         <v>1.003817655524239</v>
       </c>
-      <c r="BN59" t="b">
+      <c r="BO59" t="b">
         <v>0</v>
       </c>
-      <c r="BO59">
+      <c r="BP59">
         <v>0.7344797894255773</v>
       </c>
-      <c r="BP59">
+      <c r="BQ59">
         <v>0.4007106367732314</v>
       </c>
-      <c r="BQ59">
+      <c r="BR59">
         <v>141</v>
       </c>
     </row>
@@ -14136,25 +14431,30 @@
       <c r="BJ60">
         <v>1</v>
       </c>
-      <c r="BK60">
+      <c r="BK60" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL60">
         <v>3.147</v>
       </c>
-      <c r="BL60">
+      <c r="BM60">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM60">
+      <c r="BN60">
         <v>0.7465266128029235</v>
       </c>
-      <c r="BN60" t="b">
+      <c r="BO60" t="b">
         <v>0</v>
       </c>
-      <c r="BO60">
+      <c r="BP60">
         <v>0.6891311972344978</v>
       </c>
-      <c r="BP60">
+      <c r="BQ60">
         <v>0.1504494094608806</v>
       </c>
-      <c r="BQ60">
+      <c r="BR60">
         <v>141</v>
       </c>
     </row>
@@ -14360,25 +14660,30 @@
       <c r="BJ61">
         <v>1</v>
       </c>
-      <c r="BK61">
+      <c r="BK61" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL61">
         <v>3.147</v>
       </c>
-      <c r="BL61">
+      <c r="BM61">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM61">
+      <c r="BN61">
         <v>-1.128159051634911</v>
       </c>
-      <c r="BN61" t="b">
+      <c r="BO61" t="b">
         <v>0</v>
       </c>
-      <c r="BO61">
+      <c r="BP61">
         <v>-0.01412464269160634</v>
       </c>
-      <c r="BP61">
+      <c r="BQ61">
         <v>-0.4259687322722812</v>
       </c>
-      <c r="BQ61">
+      <c r="BR61">
         <v>141</v>
       </c>
     </row>
@@ -14594,25 +14899,30 @@
       <c r="BJ62">
         <v>1</v>
       </c>
-      <c r="BK62">
+      <c r="BK62" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL62">
         <v>3.147</v>
       </c>
-      <c r="BL62">
+      <c r="BM62">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM62">
+      <c r="BN62">
         <v>0.2453351392491351</v>
       </c>
-      <c r="BN62" t="b">
+      <c r="BO62" t="b">
         <v>0</v>
       </c>
-      <c r="BO62">
+      <c r="BP62">
         <v>0.5843312243675308</v>
       </c>
-      <c r="BP62">
+      <c r="BQ62">
         <v>0.1983821300082942</v>
       </c>
-      <c r="BQ62">
+      <c r="BR62">
         <v>141</v>
       </c>
     </row>
@@ -14833,25 +15143,30 @@
       <c r="BJ63">
         <v>1</v>
       </c>
-      <c r="BK63">
+      <c r="BK63" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL63">
         <v>3.147</v>
       </c>
-      <c r="BL63">
+      <c r="BM63">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM63">
+      <c r="BN63">
         <v>1.070770714968446</v>
       </c>
-      <c r="BN63" t="b">
+      <c r="BO63" t="b">
         <v>0</v>
       </c>
-      <c r="BO63">
+      <c r="BP63">
         <v>0.745543201998024</v>
       </c>
-      <c r="BP63">
+      <c r="BQ63">
         <v>-0.008330992620051547</v>
       </c>
-      <c r="BQ63">
+      <c r="BR63">
         <v>141</v>
       </c>
     </row>
@@ -15062,25 +15377,30 @@
       <c r="BJ64">
         <v>1</v>
       </c>
-      <c r="BK64">
+      <c r="BK64" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL64">
         <v>3.147</v>
       </c>
-      <c r="BL64">
+      <c r="BM64">
         <v>2.091017216571877</v>
       </c>
-      <c r="BM64">
+      <c r="BN64">
         <v>-0.7728296004417194</v>
       </c>
-      <c r="BN64" t="b">
+      <c r="BO64" t="b">
         <v>0</v>
       </c>
-      <c r="BO64">
+      <c r="BP64">
         <v>0.2332500095411002</v>
       </c>
-      <c r="BP64">
+      <c r="BQ64">
         <v>0.1344958558346735</v>
       </c>
-      <c r="BQ64">
+      <c r="BR64">
         <v>141</v>
       </c>
     </row>
@@ -15291,25 +15611,30 @@
       <c r="BJ65">
         <v>1</v>
       </c>
-      <c r="BK65">
+      <c r="BK65" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL65">
         <v>4.013625</v>
       </c>
-      <c r="BL65">
+      <c r="BM65">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM65">
+      <c r="BN65">
         <v>-0.2539807050592459</v>
       </c>
-      <c r="BN65" t="b">
+      <c r="BO65" t="b">
         <v>0</v>
       </c>
-      <c r="BO65">
+      <c r="BP65">
         <v>0.5092025223311029</v>
       </c>
-      <c r="BP65">
+      <c r="BQ65">
         <v>0.1565491513317813</v>
       </c>
-      <c r="BQ65">
+      <c r="BR65">
         <v>143</v>
       </c>
     </row>
@@ -15520,25 +15845,30 @@
       <c r="BJ66">
         <v>1</v>
       </c>
-      <c r="BK66">
+      <c r="BK66" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL66">
         <v>4.013625</v>
       </c>
-      <c r="BL66">
+      <c r="BM66">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM66">
+      <c r="BN66">
         <v>-0.8528071799790605</v>
       </c>
-      <c r="BN66" t="b">
+      <c r="BO66" t="b">
         <v>0</v>
       </c>
-      <c r="BO66">
+      <c r="BP66">
         <v>-0.0186344909214556</v>
       </c>
-      <c r="BP66">
+      <c r="BQ66">
         <v>-0.721246399047171</v>
       </c>
-      <c r="BQ66">
+      <c r="BR66">
         <v>143</v>
       </c>
     </row>
@@ -15744,25 +16074,30 @@
       <c r="BJ67">
         <v>1</v>
       </c>
-      <c r="BK67">
+      <c r="BK67" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL67">
         <v>4.013625</v>
       </c>
-      <c r="BL67">
+      <c r="BM67">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM67">
+      <c r="BN67">
         <v>0.6864298858359561</v>
       </c>
-      <c r="BN67" t="b">
+      <c r="BO67" t="b">
         <v>0</v>
       </c>
-      <c r="BO67">
+      <c r="BP67">
         <v>0.8323811602470409</v>
       </c>
-      <c r="BP67">
+      <c r="BQ67">
         <v>0.5291736032617229</v>
       </c>
-      <c r="BQ67">
+      <c r="BR67">
         <v>143</v>
       </c>
     </row>
@@ -15978,25 +16313,30 @@
       <c r="BJ68">
         <v>1</v>
       </c>
-      <c r="BK68">
+      <c r="BK68" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL68">
         <v>4.013625</v>
       </c>
-      <c r="BL68">
+      <c r="BM68">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM68">
+      <c r="BN68">
         <v>1.981602992242633</v>
       </c>
-      <c r="BN68" t="b">
+      <c r="BO68" t="b">
         <v>0</v>
       </c>
-      <c r="BO68">
+      <c r="BP68">
         <v>1.068631063714317</v>
       </c>
-      <c r="BP68">
+      <c r="BQ68">
         <v>0.540454613671412</v>
       </c>
-      <c r="BQ68">
+      <c r="BR68">
         <v>143</v>
       </c>
     </row>
@@ -16202,25 +16542,30 @@
       <c r="BJ69">
         <v>1</v>
       </c>
-      <c r="BK69">
+      <c r="BK69" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL69">
         <v>4.013625</v>
       </c>
-      <c r="BL69">
+      <c r="BM69">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM69">
+      <c r="BN69">
         <v>-0.5475954467232746</v>
       </c>
-      <c r="BN69" t="b">
+      <c r="BO69" t="b">
         <v>0</v>
       </c>
-      <c r="BO69">
+      <c r="BP69">
         <v>0.3255156633631482</v>
       </c>
-      <c r="BP69">
+      <c r="BQ69">
         <v>-0.1924649719311468</v>
       </c>
-      <c r="BQ69">
+      <c r="BR69">
         <v>143</v>
       </c>
     </row>
@@ -16426,25 +16771,30 @@
       <c r="BJ70">
         <v>1</v>
       </c>
-      <c r="BK70">
+      <c r="BK70" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL70">
         <v>4.013625</v>
       </c>
-      <c r="BL70">
+      <c r="BM70">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM70">
+      <c r="BN70">
         <v>-0.9642964400543605</v>
       </c>
-      <c r="BN70" t="b">
+      <c r="BO70" t="b">
         <v>0</v>
       </c>
-      <c r="BO70">
+      <c r="BP70">
         <v>-0.2716462179787716</v>
       </c>
-      <c r="BP70">
+      <c r="BQ70">
         <v>-0.4282911681913124</v>
       </c>
-      <c r="BQ70">
+      <c r="BR70">
         <v>143</v>
       </c>
     </row>
@@ -16650,25 +17000,30 @@
       <c r="BJ71">
         <v>1</v>
       </c>
-      <c r="BK71">
+      <c r="BK71" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL71">
         <v>4.013625</v>
       </c>
-      <c r="BL71">
+      <c r="BM71">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM71">
+      <c r="BN71">
         <v>-0.5628823901851361</v>
       </c>
-      <c r="BN71" t="b">
+      <c r="BO71" t="b">
         <v>0</v>
       </c>
-      <c r="BO71">
+      <c r="BP71">
         <v>0.3134453704264141</v>
       </c>
-      <c r="BP71">
+      <c r="BQ71">
         <v>-0.1163385648463824</v>
       </c>
-      <c r="BQ71">
+      <c r="BR71">
         <v>143</v>
       </c>
     </row>
@@ -16879,25 +17234,30 @@
       <c r="BJ72">
         <v>1</v>
       </c>
-      <c r="BK72">
+      <c r="BK72" t="inlineStr">
+        <is>
+          <t>49-5</t>
+        </is>
+      </c>
+      <c r="BL72">
         <v>4.013625</v>
       </c>
-      <c r="BL72">
+      <c r="BM72">
         <v>3.794087427921804</v>
       </c>
-      <c r="BM72">
+      <c r="BN72">
         <v>0.5135292839224884</v>
       </c>
-      <c r="BN72" t="b">
+      <c r="BO72" t="b">
         <v>0</v>
       </c>
-      <c r="BO72">
+      <c r="BP72">
         <v>0.7883098121070501</v>
       </c>
-      <c r="BP72">
+      <c r="BQ72">
         <v>0.1065308538223814</v>
       </c>
-      <c r="BQ72">
+      <c r="BR72">
         <v>143</v>
       </c>
     </row>
@@ -17108,25 +17468,30 @@
       <c r="BJ73">
         <v>2</v>
       </c>
-      <c r="BK73">
+      <c r="BK73" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL73">
         <v>3.77175</v>
       </c>
-      <c r="BL73">
+      <c r="BM73">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM73">
+      <c r="BN73">
         <v>-0.1000229318338194</v>
       </c>
-      <c r="BN73" t="b">
+      <c r="BO73" t="b">
         <v>0</v>
       </c>
-      <c r="BO73">
+      <c r="BP73">
         <v>0.5548524343720544</v>
       </c>
-      <c r="BP73">
+      <c r="BQ73">
         <v>0.1322596895310445</v>
       </c>
-      <c r="BQ73">
+      <c r="BR73">
         <v>141</v>
       </c>
     </row>
@@ -17317,13 +17682,18 @@
       <c r="BJ74">
         <v>2</v>
       </c>
-      <c r="BL74">
+      <c r="BK74" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BM74">
         <v>3.636666045785814</v>
       </c>
-      <c r="BO74">
+      <c r="BP74">
         <v>-0.744727494896694</v>
       </c>
-      <c r="BQ74">
+      <c r="BR74">
         <v>141</v>
       </c>
     </row>
@@ -17544,25 +17914,30 @@
       <c r="BJ75">
         <v>2</v>
       </c>
-      <c r="BK75">
+      <c r="BK75" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL75">
         <v>3.77175</v>
       </c>
-      <c r="BL75">
+      <c r="BM75">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM75">
+      <c r="BN75">
         <v>1.949656611504434</v>
       </c>
-      <c r="BN75" t="b">
+      <c r="BO75" t="b">
         <v>0</v>
       </c>
-      <c r="BO75">
+      <c r="BP75">
         <v>1.043047742804119</v>
       </c>
-      <c r="BP75">
+      <c r="BQ75">
         <v>0.4958217533859058</v>
       </c>
-      <c r="BQ75">
+      <c r="BR75">
         <v>141</v>
       </c>
     </row>
@@ -17778,25 +18153,30 @@
       <c r="BJ76">
         <v>2</v>
       </c>
-      <c r="BK76">
+      <c r="BK76" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL76">
         <v>3.77175</v>
       </c>
-      <c r="BL76">
+      <c r="BM76">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM76">
+      <c r="BN76">
         <v>-0.484440962634313</v>
       </c>
-      <c r="BN76" t="b">
+      <c r="BO76" t="b">
         <v>0</v>
       </c>
-      <c r="BO76">
+      <c r="BP76">
         <v>0.3404441148401183</v>
       </c>
-      <c r="BP76">
+      <c r="BQ76">
         <v>0.00518051250378041</v>
       </c>
-      <c r="BQ76">
+      <c r="BR76">
         <v>141</v>
       </c>
     </row>
@@ -18007,25 +18387,30 @@
       <c r="BJ77">
         <v>2</v>
       </c>
-      <c r="BK77">
+      <c r="BK77" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL77">
         <v>3.77175</v>
       </c>
-      <c r="BL77">
+      <c r="BM77">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM77">
+      <c r="BN77">
         <v>-0.1775664831111722</v>
       </c>
-      <c r="BN77" t="b">
+      <c r="BO77" t="b">
         <v>0</v>
       </c>
-      <c r="BO77">
+      <c r="BP77">
         <v>0.5193028492354287</v>
       </c>
-      <c r="BP77">
+      <c r="BQ77">
         <v>0.1682027468426309</v>
       </c>
-      <c r="BQ77">
+      <c r="BR77">
         <v>141</v>
       </c>
     </row>
@@ -18231,25 +18616,30 @@
       <c r="BJ78">
         <v>2</v>
       </c>
-      <c r="BK78">
+      <c r="BK78" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL78">
         <v>3.77175</v>
       </c>
-      <c r="BL78">
+      <c r="BM78">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM78">
+      <c r="BN78">
         <v>-0.4360449873690148</v>
       </c>
-      <c r="BN78" t="b">
+      <c r="BO78" t="b">
         <v>0</v>
       </c>
-      <c r="BO78">
+      <c r="BP78">
         <v>0.3740147402919116</v>
       </c>
-      <c r="BP78">
+      <c r="BQ78">
         <v>0.03422726077055057</v>
       </c>
-      <c r="BQ78">
+      <c r="BR78">
         <v>141</v>
       </c>
     </row>
@@ -18460,25 +18850,30 @@
       <c r="BJ79">
         <v>2</v>
       </c>
-      <c r="BK79">
+      <c r="BK79" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL79">
         <v>3.77175</v>
       </c>
-      <c r="BL79">
+      <c r="BM79">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM79">
+      <c r="BN79">
         <v>1.041682121015715</v>
       </c>
-      <c r="BN79" t="b">
+      <c r="BO79" t="b">
         <v>0</v>
       </c>
-      <c r="BO79">
+      <c r="BP79">
         <v>0.8887409606828925</v>
       </c>
-      <c r="BP79">
+      <c r="BQ79">
         <v>-0.3746875490383261</v>
       </c>
-      <c r="BQ79">
+      <c r="BR79">
         <v>141</v>
       </c>
     </row>
@@ -18684,25 +19079,30 @@
       <c r="BJ80">
         <v>2</v>
       </c>
-      <c r="BK80">
+      <c r="BK80" t="inlineStr">
+        <is>
+          <t>10-56</t>
+        </is>
+      </c>
+      <c r="BL80">
         <v>3.77175</v>
       </c>
-      <c r="BL80">
+      <c r="BM80">
         <v>3.636666045785814</v>
       </c>
-      <c r="BM80">
+      <c r="BN80">
         <v>-0.7561183692372367</v>
       </c>
-      <c r="BN80" t="b">
+      <c r="BO80" t="b">
         <v>0</v>
       </c>
-      <c r="BO80">
+      <c r="BP80">
         <v>0.0799044676667207</v>
       </c>
-      <c r="BP80">
+      <c r="BQ80">
         <v>-0.2765443279648142</v>
       </c>
-      <c r="BQ80">
+      <c r="BR80">
         <v>141</v>
       </c>
     </row>
@@ -18913,25 +19313,30 @@
       <c r="BJ81">
         <v>3</v>
       </c>
-      <c r="BK81">
+      <c r="BK81" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL81">
         <v>5.817875</v>
       </c>
-      <c r="BL81">
+      <c r="BM81">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM81">
+      <c r="BN81">
         <v>-0.853034453587993</v>
       </c>
-      <c r="BN81" t="b">
+      <c r="BO81" t="b">
         <v>0</v>
       </c>
-      <c r="BO81">
+      <c r="BP81">
         <v>-0.2048154103175759</v>
       </c>
-      <c r="BP81">
+      <c r="BQ81">
         <v>-0.5157001606532142</v>
       </c>
-      <c r="BQ81">
+      <c r="BR81">
         <v>142</v>
       </c>
     </row>
@@ -19147,25 +19552,30 @@
       <c r="BJ82">
         <v>3</v>
       </c>
-      <c r="BK82">
+      <c r="BK82" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL82">
         <v>5.817875</v>
       </c>
-      <c r="BL82">
+      <c r="BM82">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM82">
+      <c r="BN82">
         <v>-0.3914263605389579</v>
       </c>
-      <c r="BN82" t="b">
+      <c r="BO82" t="b">
         <v>0</v>
       </c>
-      <c r="BO82">
+      <c r="BP82">
         <v>0.548020694905531</v>
       </c>
-      <c r="BP82">
+      <c r="BQ82">
         <v>-0.2487208960166578</v>
       </c>
-      <c r="BQ82">
+      <c r="BR82">
         <v>142</v>
       </c>
     </row>
@@ -19386,25 +19796,30 @@
       <c r="BJ83">
         <v>3</v>
       </c>
-      <c r="BK83">
+      <c r="BK83" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL83">
         <v>5.817875</v>
       </c>
-      <c r="BL83">
+      <c r="BM83">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM83">
+      <c r="BN83">
         <v>0.9959377155437681</v>
       </c>
-      <c r="BN83" t="b">
+      <c r="BO83" t="b">
         <v>0</v>
       </c>
-      <c r="BO83">
+      <c r="BP83">
         <v>1.088915346604906</v>
       </c>
-      <c r="BP83">
+      <c r="BQ83">
         <v>0.5640739789771468</v>
       </c>
-      <c r="BQ83">
+      <c r="BR83">
         <v>142</v>
       </c>
     </row>
@@ -19615,25 +20030,30 @@
       <c r="BJ84">
         <v>3</v>
       </c>
-      <c r="BK84">
+      <c r="BK84" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL84">
         <v>5.817875</v>
       </c>
-      <c r="BL84">
+      <c r="BM84">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM84">
+      <c r="BN84">
         <v>-0.8595426832355206</v>
       </c>
-      <c r="BN84" t="b">
+      <c r="BO84" t="b">
         <v>0</v>
       </c>
-      <c r="BO84">
+      <c r="BP84">
         <v>-0.234331445240986</v>
       </c>
-      <c r="BP84">
+      <c r="BQ84">
         <v>-0.5985994592184559</v>
       </c>
-      <c r="BQ84">
+      <c r="BR84">
         <v>142</v>
       </c>
     </row>
@@ -19841,25 +20261,30 @@
       <c r="BJ85">
         <v>3</v>
       </c>
-      <c r="BK85">
+      <c r="BK85" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL85">
         <v>5.817875</v>
       </c>
-      <c r="BL85">
+      <c r="BM85">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM85">
+      <c r="BN85">
         <v>1.918518952407933</v>
       </c>
-      <c r="BN85" t="b">
+      <c r="BO85" t="b">
         <v>0</v>
       </c>
-      <c r="BO85">
+      <c r="BP85">
         <v>1.257294498362257</v>
       </c>
-      <c r="BP85">
+      <c r="BQ85">
         <v>0.6766936096248666</v>
       </c>
-      <c r="BQ85">
+      <c r="BR85">
         <v>142</v>
       </c>
     </row>
@@ -20062,25 +20487,30 @@
       <c r="BJ86">
         <v>3</v>
       </c>
-      <c r="BK86">
+      <c r="BK86" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL86">
         <v>5.817875</v>
       </c>
-      <c r="BL86">
+      <c r="BM86">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM86">
+      <c r="BN86">
         <v>-0.1882426056893138</v>
       </c>
-      <c r="BN86" t="b">
+      <c r="BO86" t="b">
         <v>0</v>
       </c>
-      <c r="BO86">
+      <c r="BP86">
         <v>0.6823256186678071</v>
       </c>
-      <c r="BP86">
+      <c r="BQ86">
         <v>0.3312247810207324</v>
       </c>
-      <c r="BQ86">
+      <c r="BR86">
         <v>142</v>
       </c>
     </row>
@@ -20283,25 +20713,30 @@
       <c r="BJ87">
         <v>3</v>
       </c>
-      <c r="BK87">
+      <c r="BK87" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL87">
         <v>5.817875</v>
       </c>
-      <c r="BL87">
+      <c r="BM87">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM87">
+      <c r="BN87">
         <v>-0.8003336671738666</v>
       </c>
-      <c r="BN87" t="b">
+      <c r="BO87" t="b">
         <v>0</v>
       </c>
-      <c r="BO87">
+      <c r="BP87">
         <v>-0.01954210772389994</v>
       </c>
-      <c r="BP87">
+      <c r="BQ87">
         <v>-0.4271283977995198</v>
       </c>
-      <c r="BQ87">
+      <c r="BR87">
         <v>142</v>
       </c>
     </row>
@@ -20504,25 +20939,30 @@
       <c r="BJ88">
         <v>3</v>
       </c>
-      <c r="BK88">
+      <c r="BK88" t="inlineStr">
+        <is>
+          <t>34-7</t>
+        </is>
+      </c>
+      <c r="BL88">
         <v>5.817875</v>
       </c>
-      <c r="BL88">
+      <c r="BM88">
         <v>6.299716239357815</v>
       </c>
-      <c r="BM88">
+      <c r="BN88">
         <v>0.1781231022739507</v>
       </c>
-      <c r="BN88" t="b">
+      <c r="BO88" t="b">
         <v>0</v>
       </c>
-      <c r="BO88">
+      <c r="BP88">
         <v>0.8524799936368563</v>
       </c>
-      <c r="BP88">
+      <c r="BQ88">
         <v>0.4717316514800511</v>
       </c>
-      <c r="BQ88">
+      <c r="BR88">
         <v>142</v>
       </c>
     </row>
@@ -20728,25 +21168,30 @@
       <c r="BJ89">
         <v>4</v>
       </c>
-      <c r="BK89">
+      <c r="BK89" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL89">
         <v>2.174875</v>
       </c>
-      <c r="BL89">
+      <c r="BM89">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM89">
+      <c r="BN89">
         <v>0.1433131917120273</v>
       </c>
-      <c r="BN89" t="b">
+      <c r="BO89" t="b">
         <v>0</v>
       </c>
-      <c r="BO89">
+      <c r="BP89">
         <v>0.4139699717480613</v>
       </c>
-      <c r="BP89">
+      <c r="BQ89">
         <v>0.07591176148277752</v>
       </c>
-      <c r="BQ89">
+      <c r="BR89">
         <v>142</v>
       </c>
     </row>
@@ -20952,25 +21397,30 @@
       <c r="BJ90">
         <v>4</v>
       </c>
-      <c r="BK90">
+      <c r="BK90" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL90">
         <v>2.174875</v>
       </c>
-      <c r="BL90">
+      <c r="BM90">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM90">
+      <c r="BN90">
         <v>-1.028363921918975</v>
       </c>
-      <c r="BN90" t="b">
+      <c r="BO90" t="b">
         <v>0</v>
       </c>
-      <c r="BO90">
+      <c r="BP90">
         <v>-0.1944991418415998</v>
       </c>
-      <c r="BP90">
+      <c r="BQ90">
         <v>-0.2924298239020636</v>
       </c>
-      <c r="BQ90">
+      <c r="BR90">
         <v>142</v>
       </c>
     </row>
@@ -21181,25 +21631,30 @@
       <c r="BJ91">
         <v>4</v>
       </c>
-      <c r="BK91">
+      <c r="BK91" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL91">
         <v>2.174875</v>
       </c>
-      <c r="BL91">
+      <c r="BM91">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM91">
+      <c r="BN91">
         <v>1.039900896055751</v>
       </c>
-      <c r="BN91" t="b">
+      <c r="BO91" t="b">
         <v>0</v>
       </c>
-      <c r="BO91">
+      <c r="BP91">
         <v>0.6117233080073418</v>
       </c>
-      <c r="BP91">
+      <c r="BQ91">
         <v>0.250420002308894</v>
       </c>
-      <c r="BQ91">
+      <c r="BR91">
         <v>142</v>
       </c>
     </row>
@@ -21405,25 +21860,30 @@
       <c r="BJ92">
         <v>4</v>
       </c>
-      <c r="BK92">
+      <c r="BK92" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL92">
         <v>2.174875</v>
       </c>
-      <c r="BL92">
+      <c r="BM92">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM92">
+      <c r="BN92">
         <v>1.537339261433619</v>
       </c>
-      <c r="BN92" t="b">
+      <c r="BO92" t="b">
         <v>0</v>
       </c>
-      <c r="BO92">
+      <c r="BP92">
         <v>0.6919651027673603</v>
       </c>
-      <c r="BP92">
+      <c r="BQ92">
         <v>0.2805783703680763</v>
       </c>
-      <c r="BQ92">
+      <c r="BR92">
         <v>142</v>
       </c>
     </row>
@@ -21629,25 +22089,30 @@
       <c r="BJ93">
         <v>4</v>
       </c>
-      <c r="BK93">
+      <c r="BK93" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL93">
         <v>2.174875</v>
       </c>
-      <c r="BL93">
+      <c r="BM93">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM93">
+      <c r="BN93">
         <v>-1.09788542840552</v>
       </c>
-      <c r="BN93" t="b">
+      <c r="BO93" t="b">
         <v>0</v>
       </c>
-      <c r="BO93">
+      <c r="BP93">
         <v>-0.2814983111327257</v>
       </c>
-      <c r="BP93">
+      <c r="BQ93">
         <v>-0.4306260903849541</v>
       </c>
-      <c r="BQ93">
+      <c r="BR93">
         <v>142</v>
       </c>
     </row>
@@ -21853,25 +22318,30 @@
       <c r="BJ94">
         <v>4</v>
       </c>
-      <c r="BK94">
+      <c r="BK94" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL94">
         <v>2.174875</v>
       </c>
-      <c r="BL94">
+      <c r="BM94">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM94">
+      <c r="BN94">
         <v>0.1576969516747609</v>
       </c>
-      <c r="BN94" t="b">
+      <c r="BO94" t="b">
         <v>0</v>
       </c>
-      <c r="BO94">
+      <c r="BP94">
         <v>0.417969642214737</v>
       </c>
-      <c r="BP94">
+      <c r="BQ94">
         <v>0.006466042249231681</v>
       </c>
-      <c r="BQ94">
+      <c r="BR94">
         <v>142</v>
       </c>
     </row>
@@ -22082,25 +22552,30 @@
       <c r="BJ95">
         <v>4</v>
       </c>
-      <c r="BK95">
+      <c r="BK95" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL95">
         <v>2.174875</v>
       </c>
-      <c r="BL95">
+      <c r="BM95">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM95">
+      <c r="BN95">
         <v>0.3183156045919519</v>
       </c>
-      <c r="BN95" t="b">
+      <c r="BO95" t="b">
         <v>0</v>
       </c>
-      <c r="BO95">
+      <c r="BP95">
         <v>0.4602963267574754</v>
       </c>
-      <c r="BP95">
+      <c r="BQ95">
         <v>0.009875633712160119</v>
       </c>
-      <c r="BQ95">
+      <c r="BR95">
         <v>142</v>
       </c>
     </row>
@@ -22306,25 +22781,30 @@
       <c r="BJ96">
         <v>4</v>
       </c>
-      <c r="BK96">
+      <c r="BK96" t="inlineStr">
+        <is>
+          <t>26-8</t>
+        </is>
+      </c>
+      <c r="BL96">
         <v>2.174875</v>
       </c>
-      <c r="BL96">
+      <c r="BM96">
         <v>1.668548422817185</v>
       </c>
-      <c r="BM96">
+      <c r="BN96">
         <v>-1.070316555143614</v>
       </c>
-      <c r="BN96" t="b">
+      <c r="BO96" t="b">
         <v>0</v>
       </c>
-      <c r="BO96">
+      <c r="BP96">
         <v>-0.2448877336049289</v>
       </c>
-      <c r="BP96">
+      <c r="BQ96">
         <v>-0.721246399047171</v>
       </c>
-      <c r="BQ96">
+      <c r="BR96">
         <v>142</v>
       </c>
     </row>

--- a/Processed_data/All_Bag_Site_Info.xlsx
+++ b/Processed_data/All_Bag_Site_Info.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR96"/>
+  <dimension ref="A1:BT96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -707,17 +707,27 @@
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
+          <t>Days_Installed</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
           <t>log10_myc_bag_yield_est</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>log10_Second_Weight_bag_yield_est</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>Days_Installed</t>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass_day</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>log10_biomass_day</t>
         </is>
       </c>
     </row>
@@ -941,13 +951,19 @@
         <v>0</v>
       </c>
       <c r="BP2">
+        <v>140</v>
+      </c>
+      <c r="BQ2">
         <v>0.1541195255158467</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>-0.2814983111327257</v>
       </c>
-      <c r="BR2">
-        <v>140</v>
+      <c r="BS2">
+        <v>0.003057142857142857</v>
+      </c>
+      <c r="BT2">
+        <v>-2.514684266665066</v>
       </c>
     </row>
     <row r="3">
@@ -1170,13 +1186,19 @@
         <v>0</v>
       </c>
       <c r="BP3">
+        <v>140</v>
+      </c>
+      <c r="BQ3">
         <v>0.3919930722597129</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>-0.00261361560268669</v>
       </c>
-      <c r="BR3">
-        <v>140</v>
+      <c r="BS3">
+        <v>0.006421428571428572</v>
+      </c>
+      <c r="BT3">
+        <v>-2.192368343945009</v>
       </c>
     </row>
     <row r="4">
@@ -1404,13 +1426,19 @@
         <v>0</v>
       </c>
       <c r="BP4">
+        <v>140</v>
+      </c>
+      <c r="BQ4">
         <v>0.3866772839608377</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>-0.08092190762392612</v>
       </c>
-      <c r="BR4">
-        <v>140</v>
+      <c r="BS4">
+        <v>0.00525</v>
+      </c>
+      <c r="BT4">
+        <v>-2.279840696594043</v>
       </c>
     </row>
     <row r="5">
@@ -1633,13 +1661,19 @@
         <v>0</v>
       </c>
       <c r="BP5">
+        <v>140</v>
+      </c>
+      <c r="BQ5">
         <v>0.6580113966571124</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>-0.1857524042680798</v>
       </c>
-      <c r="BR5">
-        <v>140</v>
+      <c r="BS5">
+        <v>0.003978571428571429</v>
+      </c>
+      <c r="BT5">
+        <v>-2.400272840504509</v>
       </c>
     </row>
     <row r="6">
@@ -1867,13 +1901,19 @@
         <v>0</v>
       </c>
       <c r="BP6">
+        <v>142</v>
+      </c>
+      <c r="BQ6">
         <v>0.3005954838899635</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>-0.02826040911222176</v>
       </c>
-      <c r="BR6">
-        <v>142</v>
+      <c r="BS6">
+        <v>0.005929577464788732</v>
+      </c>
+      <c r="BT6">
+        <v>-2.226976252883407</v>
       </c>
     </row>
     <row r="7">
@@ -2101,13 +2141,19 @@
         <v>0</v>
       </c>
       <c r="BP7">
+        <v>142</v>
+      </c>
+      <c r="BQ7">
         <v>0.4468477101558088</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>0.1251558295805301</v>
       </c>
-      <c r="BR7">
-        <v>142</v>
+      <c r="BS7">
+        <v>0.008725352112676055</v>
+      </c>
+      <c r="BT7">
+        <v>-2.059217038006993</v>
       </c>
     </row>
     <row r="8">
@@ -2330,13 +2376,19 @@
         <v>0</v>
       </c>
       <c r="BP8">
+        <v>142</v>
+      </c>
+      <c r="BQ8">
         <v>0.7281913985899467</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>0.4101020766428606</v>
       </c>
-      <c r="BR8">
-        <v>142</v>
+      <c r="BS8">
+        <v>0.01743661971830986</v>
+      </c>
+      <c r="BT8">
+        <v>-1.758537704034976</v>
       </c>
     </row>
     <row r="9">
@@ -2564,13 +2616,19 @@
         <v>0</v>
       </c>
       <c r="BP9">
+        <v>142</v>
+      </c>
+      <c r="BQ9">
         <v>0.5332635167787149</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>-0.1694113313148557</v>
       </c>
-      <c r="BR9">
-        <v>142</v>
+      <c r="BS9">
+        <v>0.004098591549295774</v>
+      </c>
+      <c r="BT9">
+        <v>-2.387365359733168</v>
       </c>
     </row>
     <row r="10">
@@ -2798,13 +2856,19 @@
         <v>1</v>
       </c>
       <c r="BP10">
+        <v>142</v>
+      </c>
+      <c r="BQ10">
         <v>0.9339931638312423</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>0.6249006022044902</v>
       </c>
-      <c r="BR10">
-        <v>142</v>
+      <c r="BS10">
+        <v>0.02902112676056338</v>
+      </c>
+      <c r="BT10">
+        <v>-1.537285729858468</v>
       </c>
     </row>
     <row r="11">
@@ -3027,13 +3091,19 @@
         <v>0</v>
       </c>
       <c r="BP11">
+        <v>142</v>
+      </c>
+      <c r="BQ11">
         <v>0.5620548296563785</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>0.3741982579290827</v>
       </c>
-      <c r="BR11">
-        <v>142</v>
+      <c r="BS11">
+        <v>0.016</v>
+      </c>
+      <c r="BT11">
+        <v>-1.795880017344075</v>
       </c>
     </row>
     <row r="12">
@@ -3256,13 +3326,19 @@
         <v>0</v>
       </c>
       <c r="BP12">
+        <v>142</v>
+      </c>
+      <c r="BQ12">
         <v>0.2814878879400812</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>-0.2006594505464183</v>
       </c>
-      <c r="BR12">
-        <v>142</v>
+      <c r="BS12">
+        <v>0.003767605633802817</v>
+      </c>
+      <c r="BT12">
+        <v>-2.423934562361828</v>
       </c>
     </row>
     <row r="13">
@@ -3485,13 +3561,19 @@
         <v>0</v>
       </c>
       <c r="BP13">
+        <v>142</v>
+      </c>
+      <c r="BQ13">
         <v>0.3230457354817015</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>-0.2160964207272651</v>
       </c>
-      <c r="BR13">
-        <v>142</v>
+      <c r="BS13">
+        <v>0.003612676056338028</v>
+      </c>
+      <c r="BT13">
+        <v>-2.44217097927124</v>
       </c>
     </row>
     <row r="14">
@@ -3719,13 +3801,19 @@
         <v>0</v>
       </c>
       <c r="BP14">
+        <v>142</v>
+      </c>
+      <c r="BQ14">
         <v>0.4342494523964755</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>0.1504494094608806</v>
       </c>
-      <c r="BR14">
-        <v>142</v>
+      <c r="BS14">
+        <v>0.009288732394366199</v>
+      </c>
+      <c r="BT14">
+        <v>-2.032043548836691</v>
       </c>
     </row>
     <row r="15">
@@ -3948,13 +4036,19 @@
         <v>0</v>
       </c>
       <c r="BP15">
+        <v>142</v>
+      </c>
+      <c r="BQ15">
         <v>0.561101383649056</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>0.3741982579290827</v>
       </c>
-      <c r="BR15">
-        <v>142</v>
+      <c r="BS15">
+        <v>0.016</v>
+      </c>
+      <c r="BT15">
+        <v>-1.795880017344075</v>
       </c>
     </row>
     <row r="16">
@@ -4177,13 +4271,19 @@
         <v>0</v>
       </c>
       <c r="BP16">
+        <v>142</v>
+      </c>
+      <c r="BQ16">
         <v>0.1997551772534747</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>-0.1319436381769584</v>
       </c>
-      <c r="BR16">
-        <v>142</v>
+      <c r="BS16">
+        <v>0.004528169014084507</v>
+      </c>
+      <c r="BT16">
+        <v>-2.344077371458834</v>
       </c>
     </row>
     <row r="17">
@@ -4406,13 +4506,19 @@
         <v>0</v>
       </c>
       <c r="BP17">
+        <v>142</v>
+      </c>
+      <c r="BQ17">
         <v>0.06595298031386965</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>-0.27083521030723</v>
       </c>
-      <c r="BR17">
-        <v>142</v>
+      <c r="BS17">
+        <v>0.003105633802816902</v>
+      </c>
+      <c r="BT17">
+        <v>-2.507849754915218</v>
       </c>
     </row>
     <row r="18">
@@ -4635,13 +4741,19 @@
         <v>0</v>
       </c>
       <c r="BP18">
+        <v>163</v>
+      </c>
+      <c r="BQ18">
         <v>0.6129956560323475</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>0.2743887955503789</v>
       </c>
-      <c r="BR18">
-        <v>163</v>
+      <c r="BS18">
+        <v>0.01095705521472393</v>
+      </c>
+      <c r="BT18">
+        <v>-1.96030614985143</v>
       </c>
     </row>
     <row r="19">
@@ -4864,13 +4976,19 @@
         <v>0</v>
       </c>
       <c r="BP19">
+        <v>163</v>
+      </c>
+      <c r="BQ19">
         <v>-0.1586405295451451</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>-0.5044556624535514</v>
       </c>
-      <c r="BR19">
-        <v>163</v>
+      <c r="BS19">
+        <v>0.001337423312883436</v>
+      </c>
+      <c r="BT19">
+        <v>-2.873731110799353</v>
       </c>
     </row>
     <row r="20">
@@ -5093,13 +5211,19 @@
         <v>0</v>
       </c>
       <c r="BP20">
+        <v>163</v>
+      </c>
+      <c r="BQ20">
         <v>-0.2132485778544388</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>-0.543633966870957</v>
       </c>
-      <c r="BR20">
-        <v>163</v>
+      <c r="BS20">
+        <v>0.001171779141104294</v>
+      </c>
+      <c r="BT20">
+        <v>-2.93115423715623</v>
       </c>
     </row>
     <row r="21">
@@ -5322,13 +5446,19 @@
         <v>0</v>
       </c>
       <c r="BP21">
+        <v>163</v>
+      </c>
+      <c r="BQ21">
         <v>0.3155505344219049</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>0.0273496077747566</v>
       </c>
-      <c r="BR21">
-        <v>163</v>
+      <c r="BS21">
+        <v>0.005950920245398774</v>
+      </c>
+      <c r="BT21">
+        <v>-2.225415870137713</v>
       </c>
     </row>
     <row r="22">
@@ -5551,13 +5681,19 @@
         <v>0</v>
       </c>
       <c r="BP22">
+        <v>163</v>
+      </c>
+      <c r="BQ22">
         <v>0.3259259557714662</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>-0.1062382379420566</v>
       </c>
-      <c r="BR22">
-        <v>163</v>
+      <c r="BS22">
+        <v>0.004220858895705521</v>
+      </c>
+      <c r="BT22">
+        <v>-2.374599166168446</v>
       </c>
     </row>
     <row r="23">
@@ -5780,13 +5916,19 @@
         <v>0</v>
       </c>
       <c r="BP23">
+        <v>163</v>
+      </c>
+      <c r="BQ23">
         <v>0.3066394410242617</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>-0.0695604052332999</v>
       </c>
-      <c r="BR23">
-        <v>163</v>
+      <c r="BS23">
+        <v>0.004644171779141104</v>
+      </c>
+      <c r="BT23">
+        <v>-2.333091724903885</v>
       </c>
     </row>
     <row r="24">
@@ -6014,13 +6156,19 @@
         <v>0</v>
       </c>
       <c r="BP24">
+        <v>163</v>
+      </c>
+      <c r="BQ24">
         <v>0.5301996982030822</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>0.02612451674545028</v>
       </c>
-      <c r="BR24">
-        <v>163</v>
+      <c r="BS24">
+        <v>0.005932515337423313</v>
+      </c>
+      <c r="BT24">
+        <v>-2.226761130320956</v>
       </c>
     </row>
     <row r="25">
@@ -6248,13 +6396,19 @@
         <v>0</v>
       </c>
       <c r="BP25">
+        <v>163</v>
+      </c>
+      <c r="BQ25">
         <v>0.5726392970428132</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>0.1245042248342823</v>
       </c>
-      <c r="BR25">
-        <v>163</v>
+      <c r="BS25">
+        <v>0.007588957055214725</v>
+      </c>
+      <c r="BT25">
+        <v>-2.119817904774837</v>
       </c>
     </row>
     <row r="26">
@@ -6477,13 +6631,19 @@
         <v>0</v>
       </c>
       <c r="BP26">
+        <v>160</v>
+      </c>
+      <c r="BQ26">
         <v>0.5286596452349899</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>0.2035767749779726</v>
       </c>
-      <c r="BR26">
-        <v>160</v>
+      <c r="BS26">
+        <v>0.009393749999999999</v>
+      </c>
+      <c r="BT26">
+        <v>-2.027161002069017</v>
       </c>
     </row>
     <row r="27">
@@ -6706,13 +6866,19 @@
         <v>0</v>
       </c>
       <c r="BP27">
+        <v>160</v>
+      </c>
+      <c r="BQ27">
         <v>0.5232260419657011</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>0.2105860249051565</v>
       </c>
-      <c r="BR27">
-        <v>160</v>
+      <c r="BS27">
+        <v>0.009556249999999999</v>
+      </c>
+      <c r="BT27">
+        <v>-2.019712497243605</v>
       </c>
     </row>
     <row r="28">
@@ -6940,13 +7106,19 @@
         <v>0</v>
       </c>
       <c r="BP28">
+        <v>160</v>
+      </c>
+      <c r="BQ28">
         <v>0.4762517960070336</v>
       </c>
-      <c r="BQ28">
+      <c r="BR28">
         <v>0.1664301138432826</v>
       </c>
-      <c r="BR28">
-        <v>160</v>
+      <c r="BS28">
+        <v>0.008574999999999999</v>
+      </c>
+      <c r="BT28">
+        <v>-2.066765871285192</v>
       </c>
     </row>
     <row r="29">
@@ -7169,13 +7341,19 @@
         <v>0</v>
       </c>
       <c r="BP29">
+        <v>160</v>
+      </c>
+      <c r="BQ29">
         <v>0.5744942682853275</v>
       </c>
-      <c r="BQ29">
+      <c r="BR29">
         <v>0.06107532362979181</v>
       </c>
-      <c r="BR29">
-        <v>160</v>
+      <c r="BS29">
+        <v>0.0066</v>
+      </c>
+      <c r="BT29">
+        <v>-2.180456064458131</v>
       </c>
     </row>
     <row r="30">
@@ -7398,13 +7576,19 @@
         <v>0</v>
       </c>
       <c r="BP30">
+        <v>160</v>
+      </c>
+      <c r="BQ30">
         <v>0.1925674533365456</v>
       </c>
-      <c r="BQ30">
+      <c r="BR30">
         <v>-0.2612194415156308</v>
       </c>
-      <c r="BR30">
-        <v>160</v>
+      <c r="BS30">
+        <v>0.00283125</v>
+      </c>
+      <c r="BT30">
+        <v>-2.548021780643093</v>
       </c>
     </row>
     <row r="31">
@@ -7627,13 +7811,19 @@
         <v>0</v>
       </c>
       <c r="BP31">
+        <v>160</v>
+      </c>
+      <c r="BQ31">
         <v>0.5187770689267749</v>
       </c>
-      <c r="BQ31">
+      <c r="BR31">
         <v>0.1607685618611281</v>
       </c>
-      <c r="BR31">
-        <v>160</v>
+      <c r="BS31">
+        <v>0.00845625</v>
+      </c>
+      <c r="BT31">
+        <v>-2.072822186058302</v>
       </c>
     </row>
     <row r="32">
@@ -7861,13 +8051,19 @@
         <v>0</v>
       </c>
       <c r="BP32">
+        <v>160</v>
+      </c>
+      <c r="BQ32">
         <v>0.3368598209168094</v>
       </c>
-      <c r="BQ32">
+      <c r="BR32">
         <v>-0.06701917807680184</v>
       </c>
-      <c r="BR32">
-        <v>160</v>
+      <c r="BS32">
+        <v>0.0047625</v>
+      </c>
+      <c r="BT32">
+        <v>-2.322165011316324</v>
       </c>
     </row>
     <row r="33">
@@ -8090,13 +8286,19 @@
         <v>1</v>
       </c>
       <c r="BP33">
+        <v>160</v>
+      </c>
+      <c r="BQ33">
         <v>0.8708718950677428</v>
       </c>
-      <c r="BQ33">
+      <c r="BR33">
         <v>0.549125926758111</v>
       </c>
-      <c r="BR33">
-        <v>160</v>
+      <c r="BS33">
+        <v>0.0215375</v>
+      </c>
+      <c r="BT33">
+        <v>-1.666804709543915</v>
       </c>
     </row>
     <row r="34">
@@ -8329,13 +8531,19 @@
         <v>0</v>
       </c>
       <c r="BP34">
+        <v>131</v>
+      </c>
+      <c r="BQ34">
         <v>0.78632543439007</v>
       </c>
-      <c r="BQ34">
+      <c r="BR34">
         <v>0.4371160930480787</v>
       </c>
-      <c r="BR34">
-        <v>131</v>
+      <c r="BS34">
+        <v>0.02016030534351146</v>
+      </c>
+      <c r="BT34">
+        <v>-1.69550289444884</v>
       </c>
     </row>
     <row r="35">
@@ -8573,13 +8781,19 @@
         <v>0</v>
       </c>
       <c r="BP35">
+        <v>131</v>
+      </c>
+      <c r="BQ35">
         <v>-0.02687214640030136</v>
       </c>
-      <c r="BQ35">
+      <c r="BR35">
         <v>-0.3946949538588905</v>
       </c>
-      <c r="BR35">
-        <v>131</v>
+      <c r="BS35">
+        <v>0.002351145038167939</v>
+      </c>
+      <c r="BT35">
+        <v>-2.62872057915532</v>
       </c>
     </row>
     <row r="36">
@@ -8788,10 +9002,10 @@
         <v>2.254136764611107</v>
       </c>
       <c r="BP36">
+        <v>131</v>
+      </c>
+      <c r="BQ36">
         <v>-0.744727494896694</v>
-      </c>
-      <c r="BR36">
-        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -9019,13 +9233,19 @@
         <v>0</v>
       </c>
       <c r="BP37">
+        <v>131</v>
+      </c>
+      <c r="BQ37">
         <v>0.06295783408451022</v>
       </c>
-      <c r="BQ37">
+      <c r="BR37">
         <v>-0.2456516642889812</v>
       </c>
-      <c r="BR37">
-        <v>131</v>
+      <c r="BS37">
+        <v>0.003610687022900763</v>
+      </c>
+      <c r="BT37">
+        <v>-2.442410154917953</v>
       </c>
     </row>
     <row r="38">
@@ -9258,13 +9478,19 @@
         <v>0</v>
       </c>
       <c r="BP38">
+        <v>131</v>
+      </c>
+      <c r="BQ38">
         <v>0.7340794072805943</v>
       </c>
-      <c r="BQ38">
+      <c r="BR38">
         <v>-0.1295960947209729</v>
       </c>
-      <c r="BR38">
-        <v>131</v>
+      <c r="BS38">
+        <v>0.004938931297709924</v>
+      </c>
+      <c r="BT38">
+        <v>-2.306367014987064</v>
       </c>
     </row>
     <row r="39">
@@ -9492,13 +9718,19 @@
         <v>0</v>
       </c>
       <c r="BP39">
+        <v>131</v>
+      </c>
+      <c r="BQ39">
         <v>0.1717264536532312</v>
       </c>
-      <c r="BQ39">
+      <c r="BR39">
         <v>-0.1237821594083578</v>
       </c>
-      <c r="BR39">
-        <v>131</v>
+      <c r="BS39">
+        <v>0.00501526717557252</v>
+      </c>
+      <c r="BT39">
+        <v>-2.299705926095983</v>
       </c>
     </row>
     <row r="40">
@@ -9726,13 +9958,19 @@
         <v>0</v>
       </c>
       <c r="BP40">
+        <v>131</v>
+      </c>
+      <c r="BQ40">
         <v>-0.2076083105017461</v>
       </c>
-      <c r="BQ40">
+      <c r="BR40">
         <v>-0.3233063903751334</v>
       </c>
-      <c r="BR40">
-        <v>131</v>
+      <c r="BS40">
+        <v>0.002900763358778626</v>
+      </c>
+      <c r="BT40">
+        <v>-2.537487699038954</v>
       </c>
     </row>
     <row r="41">
@@ -9970,13 +10208,19 @@
         <v>0</v>
       </c>
       <c r="BP41">
+        <v>131</v>
+      </c>
+      <c r="BQ41">
         <v>0.2706788361447064</v>
       </c>
-      <c r="BQ41">
+      <c r="BR41">
         <v>-0.1643094285075745</v>
       </c>
-      <c r="BR41">
-        <v>131</v>
+      <c r="BS41">
+        <v>0.00450381679389313</v>
+      </c>
+      <c r="BT41">
+        <v>-2.34641928401362</v>
       </c>
     </row>
     <row r="42">
@@ -10214,13 +10458,19 @@
         <v>0</v>
       </c>
       <c r="BP42">
+        <v>141</v>
+      </c>
+      <c r="BQ42">
         <v>0.8419848045901138</v>
       </c>
-      <c r="BQ42">
+      <c r="BR42">
         <v>0.327767489902729</v>
       </c>
-      <c r="BR42">
-        <v>141</v>
+      <c r="BS42">
+        <v>0.0144113475177305</v>
+      </c>
+      <c r="BT42">
+        <v>-1.841295409043498</v>
       </c>
     </row>
     <row r="43">
@@ -10453,13 +10703,19 @@
         <v>0</v>
       </c>
       <c r="BP43">
+        <v>141</v>
+      </c>
+      <c r="BQ43">
         <v>0.465680211598278</v>
       </c>
-      <c r="BQ43">
+      <c r="BR43">
         <v>0.07664044367034181</v>
       </c>
-      <c r="BR43">
-        <v>141</v>
+      <c r="BS43">
+        <v>0.007787234042553191</v>
+      </c>
+      <c r="BT43">
+        <v>-2.108616772541307</v>
       </c>
     </row>
     <row r="44">
@@ -10682,13 +10938,19 @@
         <v>0</v>
       </c>
       <c r="BP44">
+        <v>141</v>
+      </c>
+      <c r="BQ44">
         <v>0.7887338588277075</v>
       </c>
-      <c r="BQ44">
+      <c r="BR44">
         <v>0.1238516409670857</v>
       </c>
-      <c r="BR44">
-        <v>141</v>
+      <c r="BS44">
+        <v>0.008758865248226949</v>
+      </c>
+      <c r="BT44">
+        <v>-2.057552155059696</v>
       </c>
     </row>
     <row r="45">
@@ -10921,13 +11183,19 @@
         <v>0</v>
       </c>
       <c r="BP45">
+        <v>141</v>
+      </c>
+      <c r="BQ45">
         <v>0.53832233323144</v>
       </c>
-      <c r="BQ45">
+      <c r="BR45">
         <v>0.04060234011407314</v>
       </c>
-      <c r="BR45">
-        <v>141</v>
+      <c r="BS45">
+        <v>0.007113475177304965</v>
+      </c>
+      <c r="BT45">
+        <v>-2.147918179634962</v>
       </c>
     </row>
     <row r="46">
@@ -11160,13 +11428,19 @@
         <v>0</v>
       </c>
       <c r="BP46">
+        <v>141</v>
+      </c>
+      <c r="BQ46">
         <v>0.9739586861067037</v>
       </c>
-      <c r="BQ46">
+      <c r="BR46">
         <v>0.5035183127240748</v>
       </c>
-      <c r="BR46">
-        <v>141</v>
+      <c r="BS46">
+        <v>0.02193617021276596</v>
+      </c>
+      <c r="BT46">
+        <v>-1.658839192652201</v>
       </c>
     </row>
     <row r="47">
@@ -11394,13 +11668,19 @@
         <v>0</v>
       </c>
       <c r="BP47">
+        <v>141</v>
+      </c>
+      <c r="BQ47">
         <v>0.440594261839831</v>
       </c>
-      <c r="BQ47">
+      <c r="BR47">
         <v>0.06032002868828518</v>
       </c>
-      <c r="BR47">
-        <v>141</v>
+      <c r="BS47">
+        <v>0.007475177304964539</v>
+      </c>
+      <c r="BT47">
+        <v>-2.126378501778852</v>
       </c>
     </row>
     <row r="48">
@@ -11623,13 +11903,19 @@
         <v>0</v>
       </c>
       <c r="BP48">
+        <v>141</v>
+      </c>
+      <c r="BQ48">
         <v>0.3328422669943516</v>
       </c>
-      <c r="BQ48">
+      <c r="BR48">
         <v>-0.1463017882238256</v>
       </c>
-      <c r="BR48">
-        <v>141</v>
+      <c r="BS48">
+        <v>0.004390070921985815</v>
+      </c>
+      <c r="BT48">
+        <v>-2.357528463635262</v>
       </c>
     </row>
     <row r="49">
@@ -11857,13 +12143,19 @@
         <v>0</v>
       </c>
       <c r="BP49">
+        <v>141</v>
+      </c>
+      <c r="BQ49">
         <v>0.9356080185178692</v>
       </c>
-      <c r="BQ49">
+      <c r="BR49">
         <v>0.4827307000799429</v>
       </c>
-      <c r="BR49">
-        <v>141</v>
+      <c r="BS49">
+        <v>0.02087943262411348</v>
+      </c>
+      <c r="BT49">
+        <v>-1.680281306989919</v>
       </c>
     </row>
     <row r="50">
@@ -12088,13 +12380,19 @@
         <v>0</v>
       </c>
       <c r="BP50">
+        <v>162</v>
+      </c>
+      <c r="BQ50">
         <v>0.9783631470838828</v>
       </c>
-      <c r="BQ50">
+      <c r="BR50">
         <v>0.5705429398818975</v>
       </c>
-      <c r="BR50">
-        <v>162</v>
+      <c r="BS50">
+        <v>0.02237654320987654</v>
+      </c>
+      <c r="BT50">
+        <v>-1.650207003635618</v>
       </c>
     </row>
     <row r="51">
@@ -12324,13 +12622,19 @@
         <v>0</v>
       </c>
       <c r="BP51">
+        <v>162</v>
+      </c>
+      <c r="BQ51">
         <v>0.2657609167176105</v>
       </c>
-      <c r="BQ51">
+      <c r="BR51">
         <v>-0.07417242537525769</v>
       </c>
-      <c r="BR51">
-        <v>162</v>
+      <c r="BS51">
+        <v>0.004617283950617284</v>
+      </c>
+      <c r="BT51">
+        <v>-2.33561341667817</v>
       </c>
     </row>
     <row r="52">
@@ -12555,13 +12859,19 @@
         <v>0</v>
       </c>
       <c r="BP52">
+        <v>162</v>
+      </c>
+      <c r="BQ52">
         <v>0.4496326504700747</v>
       </c>
-      <c r="BQ52">
+      <c r="BR52">
         <v>0.09272064468409917</v>
       </c>
-      <c r="BR52">
-        <v>162</v>
+      <c r="BS52">
+        <v>0.007055555555555555</v>
+      </c>
+      <c r="BT52">
+        <v>-2.151468784147349</v>
       </c>
     </row>
     <row r="53">
@@ -12786,13 +13096,19 @@
         <v>0</v>
       </c>
       <c r="BP53">
+        <v>162</v>
+      </c>
+      <c r="BQ53">
         <v>0.7831886910752576</v>
       </c>
-      <c r="BQ53">
+      <c r="BR53">
         <v>0.231214647962601</v>
       </c>
-      <c r="BR53">
-        <v>162</v>
+      <c r="BS53">
+        <v>0.009925925925925925</v>
+      </c>
+      <c r="BT53">
+        <v>-2.003228970130198</v>
       </c>
     </row>
     <row r="54">
@@ -13015,13 +13331,19 @@
         <v>0</v>
       </c>
       <c r="BP54">
+        <v>162</v>
+      </c>
+      <c r="BQ54">
         <v>0.4902394852462873</v>
       </c>
-      <c r="BQ54">
+      <c r="BR54">
         <v>0.06595298031386965</v>
       </c>
-      <c r="BR54">
-        <v>162</v>
+      <c r="BS54">
+        <v>0.006598765432098765</v>
+      </c>
+      <c r="BT54">
+        <v>-2.180537309333853</v>
       </c>
     </row>
     <row r="55">
@@ -13254,13 +13576,19 @@
         <v>0</v>
       </c>
       <c r="BP55">
+        <v>162</v>
+      </c>
+      <c r="BQ55">
         <v>0.8745977687031997</v>
       </c>
-      <c r="BQ55">
+      <c r="BR55">
         <v>0.3163897510731954</v>
       </c>
-      <c r="BR55">
-        <v>162</v>
+      <c r="BS55">
+        <v>0.0122037037037037</v>
+      </c>
+      <c r="BT55">
+        <v>-1.913508345228959</v>
       </c>
     </row>
     <row r="56">
@@ -13488,13 +13816,19 @@
         <v>0</v>
       </c>
       <c r="BP56">
+        <v>162</v>
+      </c>
+      <c r="BQ56">
         <v>0.9008039348103695</v>
       </c>
-      <c r="BQ56">
+      <c r="BR56">
         <v>0.3096301674258988</v>
       </c>
-      <c r="BR56">
-        <v>162</v>
+      <c r="BS56">
+        <v>0.01200617283950617</v>
+      </c>
+      <c r="BT56">
+        <v>-1.920595408880904</v>
       </c>
     </row>
     <row r="57">
@@ -13722,13 +14056,19 @@
         <v>0</v>
       </c>
       <c r="BP57">
+        <v>162</v>
+      </c>
+      <c r="BQ57">
         <v>0.4919217125861509</v>
       </c>
-      <c r="BQ57">
+      <c r="BR57">
         <v>0.1024337056813363</v>
       </c>
-      <c r="BR57">
-        <v>162</v>
+      <c r="BS57">
+        <v>0.007228395061728395</v>
+      </c>
+      <c r="BT57">
+        <v>-2.140958119470268</v>
       </c>
     </row>
     <row r="58">
@@ -13966,13 +14306,19 @@
         <v>0</v>
       </c>
       <c r="BP58">
+        <v>141</v>
+      </c>
+      <c r="BQ58">
         <v>-0.05060999335508726</v>
       </c>
-      <c r="BQ58">
+      <c r="BR58">
         <v>-0.3045183235098026</v>
       </c>
-      <c r="BR58">
-        <v>141</v>
+      <c r="BS58">
+        <v>0.002843971631205674</v>
+      </c>
+      <c r="BT58">
+        <v>-2.546074740035198</v>
       </c>
     </row>
     <row r="59">
@@ -14205,13 +14551,19 @@
         <v>0</v>
       </c>
       <c r="BP59">
+        <v>141</v>
+      </c>
+      <c r="BQ59">
         <v>0.7344797894255773</v>
       </c>
-      <c r="BQ59">
+      <c r="BR59">
         <v>0.4007106367732314</v>
       </c>
-      <c r="BR59">
-        <v>141</v>
+      <c r="BS59">
+        <v>0.01717021276595745</v>
+      </c>
+      <c r="BT59">
+        <v>-1.765224323213647</v>
       </c>
     </row>
     <row r="60">
@@ -14449,13 +14801,19 @@
         <v>0</v>
       </c>
       <c r="BP60">
+        <v>141</v>
+      </c>
+      <c r="BQ60">
         <v>0.6891311972344978</v>
       </c>
-      <c r="BQ60">
+      <c r="BR60">
         <v>0.1504494094608806</v>
       </c>
-      <c r="BR60">
-        <v>141</v>
+      <c r="BS60">
+        <v>0.009354609929078014</v>
+      </c>
+      <c r="BT60">
+        <v>-2.028974317109014</v>
       </c>
     </row>
     <row r="61">
@@ -14678,13 +15036,19 @@
         <v>0</v>
       </c>
       <c r="BP61">
+        <v>141</v>
+      </c>
+      <c r="BQ61">
         <v>-0.01412464269160634</v>
       </c>
-      <c r="BQ61">
+      <c r="BR61">
         <v>-0.4259687322722812</v>
       </c>
-      <c r="BR61">
-        <v>141</v>
+      <c r="BS61">
+        <v>0.00198581560283688</v>
+      </c>
+      <c r="BT61">
+        <v>-2.702061081313161</v>
       </c>
     </row>
     <row r="62">
@@ -14917,13 +15281,19 @@
         <v>0</v>
       </c>
       <c r="BP62">
+        <v>141</v>
+      </c>
+      <c r="BQ62">
         <v>0.5843312243675308</v>
       </c>
-      <c r="BQ62">
+      <c r="BR62">
         <v>0.1983821300082942</v>
       </c>
-      <c r="BR62">
-        <v>141</v>
+      <c r="BS62">
+        <v>0.01052482269503546</v>
+      </c>
+      <c r="BT62">
+        <v>-1.977785211712372</v>
       </c>
     </row>
     <row r="63">
@@ -15161,13 +15531,19 @@
         <v>0</v>
       </c>
       <c r="BP63">
+        <v>141</v>
+      </c>
+      <c r="BQ63">
         <v>0.745543201998024</v>
       </c>
-      <c r="BQ63">
+      <c r="BR63">
         <v>-0.008330992620051547</v>
       </c>
-      <c r="BR63">
-        <v>141</v>
+      <c r="BS63">
+        <v>0.00628368794326241</v>
+      </c>
+      <c r="BT63">
+        <v>-2.201785390768329</v>
       </c>
     </row>
     <row r="64">
@@ -15395,13 +15771,19 @@
         <v>0</v>
       </c>
       <c r="BP64">
+        <v>141</v>
+      </c>
+      <c r="BQ64">
         <v>0.2332500095411002</v>
       </c>
-      <c r="BQ64">
+      <c r="BR64">
         <v>0.1344958558346735</v>
       </c>
-      <c r="BR64">
-        <v>141</v>
+      <c r="BS64">
+        <v>0.00899290780141844</v>
+      </c>
+      <c r="BT64">
+        <v>-2.046099859109666</v>
       </c>
     </row>
     <row r="65">
@@ -15629,13 +16011,19 @@
         <v>0</v>
       </c>
       <c r="BP65">
+        <v>143</v>
+      </c>
+      <c r="BQ65">
         <v>0.5092025223311029</v>
       </c>
-      <c r="BQ65">
+      <c r="BR65">
         <v>0.1565491513317813</v>
       </c>
-      <c r="BR65">
-        <v>143</v>
+      <c r="BS65">
+        <v>0.009363636363636364</v>
+      </c>
+      <c r="BT65">
+        <v>-2.028555460453053</v>
       </c>
     </row>
     <row r="66">
@@ -15863,13 +16251,19 @@
         <v>0</v>
       </c>
       <c r="BP66">
+        <v>143</v>
+      </c>
+      <c r="BQ66">
         <v>-0.0186344909214556</v>
       </c>
-      <c r="BQ66">
+      <c r="BR66">
         <v>-0.721246399047171</v>
       </c>
-      <c r="BR66">
-        <v>143</v>
+      <c r="BS66">
+        <v>0.0006643356643356643</v>
+      </c>
+      <c r="BT66">
+        <v>-3.177612432176214</v>
       </c>
     </row>
     <row r="67">
@@ -16092,13 +16486,19 @@
         <v>0</v>
       </c>
       <c r="BP67">
+        <v>143</v>
+      </c>
+      <c r="BQ67">
         <v>0.8323811602470409</v>
       </c>
-      <c r="BQ67">
+      <c r="BR67">
         <v>0.5291736032617229</v>
       </c>
-      <c r="BR67">
-        <v>143</v>
+      <c r="BS67">
+        <v>0.02298601398601399</v>
+      </c>
+      <c r="BT67">
+        <v>-1.638536333383438</v>
       </c>
     </row>
     <row r="68">
@@ -16331,13 +16731,19 @@
         <v>0</v>
       </c>
       <c r="BP68">
+        <v>143</v>
+      </c>
+      <c r="BQ68">
         <v>1.068631063714317</v>
       </c>
-      <c r="BQ68">
+      <c r="BR68">
         <v>0.540454613671412</v>
       </c>
-      <c r="BR68">
-        <v>143</v>
+      <c r="BS68">
+        <v>0.02360839160839161</v>
+      </c>
+      <c r="BT68">
+        <v>-1.626933599511444</v>
       </c>
     </row>
     <row r="69">
@@ -16560,13 +16966,19 @@
         <v>0</v>
       </c>
       <c r="BP69">
+        <v>143</v>
+      </c>
+      <c r="BQ69">
         <v>0.3255156633631482</v>
       </c>
-      <c r="BQ69">
+      <c r="BR69">
         <v>-0.1924649719311468</v>
       </c>
-      <c r="BR69">
-        <v>143</v>
+      <c r="BS69">
+        <v>0.003825174825174824</v>
+      </c>
+      <c r="BT69">
+        <v>-2.417348711131631</v>
       </c>
     </row>
     <row r="70">
@@ -16789,13 +17201,19 @@
         <v>0</v>
       </c>
       <c r="BP70">
+        <v>143</v>
+      </c>
+      <c r="BQ70">
         <v>-0.2716462179787716</v>
       </c>
-      <c r="BQ70">
+      <c r="BR70">
         <v>-0.4282911681913124</v>
       </c>
-      <c r="BR70">
-        <v>143</v>
+      <c r="BS70">
+        <v>0.001944055944055944</v>
+      </c>
+      <c r="BT70">
+        <v>-2.711291241546986</v>
       </c>
     </row>
     <row r="71">
@@ -17018,13 +17436,19 @@
         <v>0</v>
       </c>
       <c r="BP71">
+        <v>143</v>
+      </c>
+      <c r="BQ71">
         <v>0.3134453704264141</v>
       </c>
-      <c r="BQ71">
+      <c r="BR71">
         <v>-0.1163385648463824</v>
       </c>
-      <c r="BR71">
-        <v>143</v>
+      <c r="BS71">
+        <v>0.004685314685314685</v>
+      </c>
+      <c r="BT71">
+        <v>-2.329261234764235</v>
       </c>
     </row>
     <row r="72">
@@ -17252,13 +17676,19 @@
         <v>0</v>
       </c>
       <c r="BP72">
+        <v>143</v>
+      </c>
+      <c r="BQ72">
         <v>0.7883098121070501</v>
       </c>
-      <c r="BQ72">
+      <c r="BR72">
         <v>0.1065308538223814</v>
       </c>
-      <c r="BR72">
-        <v>143</v>
+      <c r="BS72">
+        <v>0.008272727272727274</v>
+      </c>
+      <c r="BT72">
+        <v>-2.082351292837131</v>
       </c>
     </row>
     <row r="73">
@@ -17486,13 +17916,19 @@
         <v>0</v>
       </c>
       <c r="BP73">
+        <v>141</v>
+      </c>
+      <c r="BQ73">
         <v>0.5548524343720544</v>
       </c>
-      <c r="BQ73">
+      <c r="BR73">
         <v>0.1322596895310445</v>
       </c>
-      <c r="BR73">
-        <v>141</v>
+      <c r="BS73">
+        <v>0.008943262411347517</v>
+      </c>
+      <c r="BT73">
+        <v>-2.048504026082298</v>
       </c>
     </row>
     <row r="74">
@@ -17691,10 +18127,10 @@
         <v>3.636666045785814</v>
       </c>
       <c r="BP74">
+        <v>141</v>
+      </c>
+      <c r="BQ74">
         <v>-0.744727494896694</v>
-      </c>
-      <c r="BR74">
-        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -17932,13 +18368,19 @@
         <v>0</v>
       </c>
       <c r="BP75">
+        <v>141</v>
+      </c>
+      <c r="BQ75">
         <v>1.043047742804119</v>
       </c>
-      <c r="BQ75">
+      <c r="BR75">
         <v>0.4958217533859058</v>
       </c>
-      <c r="BR75">
-        <v>141</v>
+      <c r="BS75">
+        <v>0.02153900709219858</v>
+      </c>
+      <c r="BT75">
+        <v>-1.666774320737115</v>
       </c>
     </row>
     <row r="76">
@@ -18171,13 +18613,19 @@
         <v>0</v>
       </c>
       <c r="BP76">
+        <v>141</v>
+      </c>
+      <c r="BQ76">
         <v>0.3404441148401183</v>
       </c>
-      <c r="BQ76">
+      <c r="BR76">
         <v>0.00518051250378041</v>
       </c>
-      <c r="BR76">
-        <v>141</v>
+      <c r="BS76">
+        <v>0.006503546099290781</v>
+      </c>
+      <c r="BT76">
+        <v>-2.186849776985359</v>
       </c>
     </row>
     <row r="77">
@@ -18405,13 +18853,19 @@
         <v>0</v>
       </c>
       <c r="BP77">
+        <v>141</v>
+      </c>
+      <c r="BQ77">
         <v>0.5193028492354287</v>
       </c>
-      <c r="BQ77">
+      <c r="BR77">
         <v>0.1682027468426309</v>
       </c>
-      <c r="BR77">
-        <v>141</v>
+      <c r="BS77">
+        <v>0.009773049645390072</v>
+      </c>
+      <c r="BT77">
+        <v>-2.009969895083773</v>
       </c>
     </row>
     <row r="78">
@@ -18634,13 +19088,19 @@
         <v>0</v>
       </c>
       <c r="BP78">
+        <v>141</v>
+      </c>
+      <c r="BQ78">
         <v>0.3740147402919116</v>
       </c>
-      <c r="BQ78">
+      <c r="BR78">
         <v>0.03422726077055057</v>
       </c>
-      <c r="BR78">
-        <v>141</v>
+      <c r="BS78">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="BT78">
+        <v>-2.154901959985743</v>
       </c>
     </row>
     <row r="79">
@@ -18868,13 +19328,19 @@
         <v>0</v>
       </c>
       <c r="BP79">
+        <v>141</v>
+      </c>
+      <c r="BQ79">
         <v>0.8887409606828925</v>
       </c>
-      <c r="BQ79">
+      <c r="BR79">
         <v>-0.3746875490383261</v>
       </c>
-      <c r="BR79">
-        <v>141</v>
+      <c r="BS79">
+        <v>0.002319148936170213</v>
+      </c>
+      <c r="BT79">
+        <v>-2.634671359995094</v>
       </c>
     </row>
     <row r="80">
@@ -19097,13 +19563,19 @@
         <v>0</v>
       </c>
       <c r="BP80">
+        <v>141</v>
+      </c>
+      <c r="BQ80">
         <v>0.0799044676667207</v>
       </c>
-      <c r="BQ80">
+      <c r="BR80">
         <v>-0.2765443279648142</v>
       </c>
-      <c r="BR80">
-        <v>141</v>
+      <c r="BS80">
+        <v>0.003078014184397163</v>
+      </c>
+      <c r="BT80">
+        <v>-2.511729383142869</v>
       </c>
     </row>
     <row r="81">
@@ -19331,13 +19803,19 @@
         <v>0</v>
       </c>
       <c r="BP81">
+        <v>142</v>
+      </c>
+      <c r="BQ81">
         <v>-0.2048154103175759</v>
       </c>
-      <c r="BQ81">
+      <c r="BR81">
         <v>-0.5157001606532142</v>
       </c>
-      <c r="BR81">
-        <v>142</v>
+      <c r="BS81">
+        <v>0.00147887323943662</v>
+      </c>
+      <c r="BT81">
+        <v>-2.830069049649137</v>
       </c>
     </row>
     <row r="82">
@@ -19570,13 +20048,19 @@
         <v>0</v>
       </c>
       <c r="BP82">
+        <v>142</v>
+      </c>
+      <c r="BQ82">
         <v>0.548020694905531</v>
       </c>
-      <c r="BQ82">
+      <c r="BR82">
         <v>-0.2487208960166578</v>
       </c>
-      <c r="BR82">
-        <v>142</v>
+      <c r="BS82">
+        <v>0.003302816901408451</v>
+      </c>
+      <c r="BT82">
+        <v>-2.481115501667973</v>
       </c>
     </row>
     <row r="83">
@@ -19814,13 +20298,19 @@
         <v>0</v>
       </c>
       <c r="BP83">
+        <v>142</v>
+      </c>
+      <c r="BQ83">
         <v>1.088915346604906</v>
       </c>
-      <c r="BQ83">
+      <c r="BR83">
         <v>0.5640739789771468</v>
       </c>
-      <c r="BR83">
-        <v>142</v>
+      <c r="BS83">
+        <v>0.02514084507042254</v>
+      </c>
+      <c r="BT83">
+        <v>-1.599620128270863</v>
       </c>
     </row>
     <row r="84">
@@ -20048,13 +20538,19 @@
         <v>0</v>
       </c>
       <c r="BP84">
+        <v>142</v>
+      </c>
+      <c r="BQ84">
         <v>-0.234331445240986</v>
       </c>
-      <c r="BQ84">
+      <c r="BR84">
         <v>-0.5985994592184559</v>
       </c>
-      <c r="BR84">
-        <v>142</v>
+      <c r="BS84">
+        <v>0.001105633802816901</v>
+      </c>
+      <c r="BT84">
+        <v>-2.956388691973823</v>
       </c>
     </row>
     <row r="85">
@@ -20279,13 +20775,19 @@
         <v>0</v>
       </c>
       <c r="BP85">
+        <v>142</v>
+      </c>
+      <c r="BQ85">
         <v>1.257294498362257</v>
       </c>
-      <c r="BQ85">
+      <c r="BR85">
         <v>0.6766936096248666</v>
       </c>
-      <c r="BR85">
-        <v>142</v>
+      <c r="BS85">
+        <v>0.03278169014084507</v>
+      </c>
+      <c r="BT85">
+        <v>-1.484368659065695</v>
       </c>
     </row>
     <row r="86">
@@ -20505,13 +21007,19 @@
         <v>0</v>
       </c>
       <c r="BP86">
+        <v>142</v>
+      </c>
+      <c r="BQ86">
         <v>0.6823256186678071</v>
       </c>
-      <c r="BQ86">
+      <c r="BR86">
         <v>0.3312247810207324</v>
       </c>
-      <c r="BR86">
-        <v>142</v>
+      <c r="BS86">
+        <v>0.01442957746478873</v>
+      </c>
+      <c r="BT86">
+        <v>-1.840746385981862</v>
       </c>
     </row>
     <row r="87">
@@ -20731,13 +21239,19 @@
         <v>0</v>
       </c>
       <c r="BP87">
+        <v>142</v>
+      </c>
+      <c r="BQ87">
         <v>-0.01954210772389994</v>
       </c>
-      <c r="BQ87">
+      <c r="BR87">
         <v>-0.4271283977995198</v>
       </c>
-      <c r="BR87">
-        <v>142</v>
+      <c r="BS87">
+        <v>0.001964788732394366</v>
+      </c>
+      <c r="BT87">
+        <v>-2.706684141109459</v>
       </c>
     </row>
     <row r="88">
@@ -20957,13 +21471,19 @@
         <v>0</v>
       </c>
       <c r="BP88">
+        <v>142</v>
+      </c>
+      <c r="BQ88">
         <v>0.8524799936368563</v>
       </c>
-      <c r="BQ88">
+      <c r="BR88">
         <v>0.4717316514800511</v>
       </c>
-      <c r="BR88">
-        <v>142</v>
+      <c r="BS88">
+        <v>0.02019718309859155</v>
+      </c>
+      <c r="BT88">
+        <v>-1.694709197387294</v>
       </c>
     </row>
     <row r="89">
@@ -21186,13 +21706,19 @@
         <v>0</v>
       </c>
       <c r="BP89">
+        <v>142</v>
+      </c>
+      <c r="BQ89">
         <v>0.4139699717480613</v>
       </c>
-      <c r="BQ89">
+      <c r="BR89">
         <v>0.07591176148277752</v>
       </c>
-      <c r="BR89">
-        <v>142</v>
+      <c r="BS89">
+        <v>0.00771830985915493</v>
+      </c>
+      <c r="BT89">
+        <v>-2.112477790234706</v>
       </c>
     </row>
     <row r="90">
@@ -21415,13 +21941,19 @@
         <v>0</v>
       </c>
       <c r="BP90">
+        <v>142</v>
+      </c>
+      <c r="BQ90">
         <v>-0.1944991418415998</v>
       </c>
-      <c r="BQ90">
+      <c r="BR90">
         <v>-0.2924298239020636</v>
       </c>
-      <c r="BR90">
-        <v>142</v>
+      <c r="BS90">
+        <v>0.002922535211267605</v>
+      </c>
+      <c r="BT90">
+        <v>-2.534240247670964</v>
       </c>
     </row>
     <row r="91">
@@ -21649,13 +22181,19 @@
         <v>0</v>
       </c>
       <c r="BP91">
+        <v>142</v>
+      </c>
+      <c r="BQ91">
         <v>0.6117233080073418</v>
       </c>
-      <c r="BQ91">
+      <c r="BR91">
         <v>0.250420002308894</v>
       </c>
-      <c r="BR91">
-        <v>142</v>
+      <c r="BS91">
+        <v>0.01186619718309859</v>
+      </c>
+      <c r="BT91">
+        <v>-1.925688439175699</v>
       </c>
     </row>
     <row r="92">
@@ -21878,13 +22416,19 @@
         <v>0</v>
       </c>
       <c r="BP92">
+        <v>142</v>
+      </c>
+      <c r="BQ92">
         <v>0.6919651027673603</v>
       </c>
-      <c r="BQ92">
+      <c r="BR92">
         <v>0.2805783703680763</v>
       </c>
-      <c r="BR92">
-        <v>142</v>
+      <c r="BS92">
+        <v>0.01276760563380282</v>
+      </c>
+      <c r="BT92">
+        <v>-1.893890540287548</v>
       </c>
     </row>
     <row r="93">
@@ -22107,13 +22651,19 @@
         <v>0</v>
       </c>
       <c r="BP93">
+        <v>142</v>
+      </c>
+      <c r="BQ93">
         <v>-0.2814983111327257</v>
       </c>
-      <c r="BQ93">
+      <c r="BR93">
         <v>-0.4306260903849541</v>
       </c>
-      <c r="BR93">
-        <v>142</v>
+      <c r="BS93">
+        <v>0.001943661971830986</v>
+      </c>
+      <c r="BT93">
+        <v>-2.711379262317839</v>
       </c>
     </row>
     <row r="94">
@@ -22336,13 +22886,19 @@
         <v>0</v>
       </c>
       <c r="BP94">
+        <v>142</v>
+      </c>
+      <c r="BQ94">
         <v>0.417969642214737</v>
       </c>
-      <c r="BQ94">
+      <c r="BR94">
         <v>0.006466042249231681</v>
       </c>
-      <c r="BR94">
-        <v>142</v>
+      <c r="BS94">
+        <v>0.006478873239436619</v>
+      </c>
+      <c r="BT94">
+        <v>-2.188500517037501</v>
       </c>
     </row>
     <row r="95">
@@ -22570,13 +23126,19 @@
         <v>0</v>
       </c>
       <c r="BP95">
+        <v>142</v>
+      </c>
+      <c r="BQ95">
         <v>0.4602963267574754</v>
       </c>
-      <c r="BQ95">
+      <c r="BR95">
         <v>0.009875633712160119</v>
       </c>
-      <c r="BR95">
-        <v>142</v>
+      <c r="BS95">
+        <v>0.006535211267605633</v>
+      </c>
+      <c r="BT95">
+        <v>-2.184740368164194</v>
       </c>
     </row>
     <row r="96">
@@ -22799,13 +23361,19 @@
         <v>0</v>
       </c>
       <c r="BP96">
+        <v>142</v>
+      </c>
+      <c r="BQ96">
         <v>-0.2448877336049289</v>
       </c>
-      <c r="BQ96">
+      <c r="BR96">
         <v>-0.721246399047171</v>
       </c>
-      <c r="BR96">
-        <v>142</v>
+      <c r="BS96">
+        <v>0.0006690140845070422</v>
+      </c>
+      <c r="BT96">
+        <v>-3.174564739094209</v>
       </c>
     </row>
   </sheetData>

--- a/Processed_data/All_Bag_Site_Info.xlsx
+++ b/Processed_data/All_Bag_Site_Info.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL99"/>
+  <dimension ref="A1:BM99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,6 +687,11 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
+          <t>biomass_g_ha_day</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>log10_biomass_day_all_cor</t>
         </is>
       </c>
@@ -899,6 +904,9 @@
         <v>0.004015700953748333</v>
       </c>
       <c r="BL2">
+        <v>267.7133969165556</v>
+      </c>
+      <c r="BM2">
         <v>-2.396238636244667</v>
       </c>
     </row>
@@ -1110,6 +1118,9 @@
         <v>0.006421428571428572</v>
       </c>
       <c r="BL3">
+        <v>428.0952380952381</v>
+      </c>
+      <c r="BM3">
         <v>-2.192368343945009</v>
       </c>
     </row>
@@ -1326,6 +1337,9 @@
         <v>0.005960994912379876</v>
       </c>
       <c r="BL4">
+        <v>397.3996608253251</v>
+      </c>
+      <c r="BM4">
         <v>-2.224681248834218</v>
       </c>
     </row>
@@ -1537,6 +1551,9 @@
         <v>0.003029135205879392</v>
       </c>
       <c r="BL5">
+        <v>201.9423470586262</v>
+      </c>
+      <c r="BM5">
         <v>-2.518681341438735</v>
       </c>
     </row>
@@ -1753,6 +1770,9 @@
         <v>0.008423774659945977</v>
       </c>
       <c r="BL6">
+        <v>561.5849773297318</v>
+      </c>
+      <c r="BM6">
         <v>-2.07449325925502</v>
       </c>
     </row>
@@ -1966,6 +1986,9 @@
         <v>0.004367175784038624</v>
       </c>
       <c r="BL7">
+        <v>291.1450522692416</v>
+      </c>
+      <c r="BM7">
         <v>-2.359799326855502</v>
       </c>
     </row>
@@ -2182,6 +2205,9 @@
         <v>0.005819699749869197</v>
       </c>
       <c r="BL8">
+        <v>387.9799833246132</v>
+      </c>
+      <c r="BM8">
         <v>-2.235099420906583</v>
       </c>
     </row>
@@ -2393,6 +2419,9 @@
         <v>0.01731851415720479</v>
       </c>
       <c r="BL9">
+        <v>1154.56761048032</v>
+      </c>
+      <c r="BM9">
         <v>-1.761489371037357</v>
       </c>
     </row>
@@ -2601,6 +2630,9 @@
         <v>0.004414780677773329</v>
       </c>
       <c r="BL10">
+        <v>294.3187118515553</v>
+      </c>
+      <c r="BM10">
         <v>-2.355090866899264</v>
       </c>
     </row>
@@ -2812,6 +2844,9 @@
         <v>0.002983250821682105</v>
       </c>
       <c r="BL11">
+        <v>198.8833881121403</v>
+      </c>
+      <c r="BM11">
         <v>-2.525310231085441</v>
       </c>
     </row>
@@ -3025,6 +3060,9 @@
         <v>0.01018950442851236</v>
       </c>
       <c r="BL12">
+        <v>679.3002952341573</v>
+      </c>
+      <c r="BM12">
         <v>-1.991846937602616</v>
       </c>
     </row>
@@ -3236,6 +3274,9 @@
         <v>0.01006643851243441</v>
       </c>
       <c r="BL13">
+        <v>671.0959008289605</v>
+      </c>
+      <c r="BM13">
         <v>-1.997124154866516</v>
       </c>
     </row>
@@ -3444,6 +3485,9 @@
         <v>0.004222410168287847</v>
       </c>
       <c r="BL14">
+        <v>281.4940112191898</v>
+      </c>
+      <c r="BM14">
         <v>-2.374439581267171</v>
       </c>
     </row>
@@ -3655,6 +3699,9 @@
         <v>0.01039653592375367</v>
       </c>
       <c r="BL15">
+        <v>693.1023949169111</v>
+      </c>
+      <c r="BM15">
         <v>-1.983111341451716</v>
       </c>
     </row>
@@ -3868,6 +3915,9 @@
         <v>0.004090890455913635</v>
       </c>
       <c r="BL16">
+        <v>272.7260303942423</v>
+      </c>
+      <c r="BM16">
         <v>-2.38818214969478</v>
       </c>
     </row>
@@ -4081,6 +4131,9 @@
         <v>0.02862722391142906</v>
       </c>
       <c r="BL17">
+        <v>1908.481594095271</v>
+      </c>
+      <c r="BM17">
         <v>-1.543220765090642</v>
       </c>
     </row>
@@ -4292,6 +4345,9 @@
         <v>0.003586719471447652</v>
       </c>
       <c r="BL18">
+        <v>239.1146314298435</v>
+      </c>
+      <c r="BM18">
         <v>-2.445302589526043</v>
       </c>
     </row>
@@ -4503,6 +4559,9 @@
         <v>0.003822561675771161</v>
       </c>
       <c r="BL19">
+        <v>254.8374450514108</v>
+      </c>
+      <c r="BM19">
         <v>-2.417645498660967</v>
       </c>
     </row>
@@ -4714,6 +4773,9 @@
         <v>0.01078128740283404</v>
       </c>
       <c r="BL20">
+        <v>718.7524935222693</v>
+      </c>
+      <c r="BM20">
         <v>-1.96732937657382</v>
       </c>
     </row>
@@ -4925,6 +4987,9 @@
         <v>0.001325448135092845</v>
       </c>
       <c r="BL21">
+        <v>88.36320900618971</v>
+      </c>
+      <c r="BM21">
         <v>-2.877637261581338</v>
       </c>
     </row>
@@ -5136,6 +5201,9 @@
         <v>0.006105623678196909</v>
       </c>
       <c r="BL22">
+        <v>407.0415785464606</v>
+      </c>
+      <c r="BM22">
         <v>-2.214269967072906</v>
       </c>
     </row>
@@ -5347,6 +5415,9 @@
         <v>0.002452781963903176</v>
       </c>
       <c r="BL23">
+        <v>163.5187975935451</v>
+      </c>
+      <c r="BM23">
         <v>-2.610341055985348</v>
       </c>
     </row>
@@ -5563,6 +5634,9 @@
         <v>0.007494142426516594</v>
       </c>
       <c r="BL24">
+        <v>499.6094951011063</v>
+      </c>
+      <c r="BM24">
         <v>-2.125278057377469</v>
       </c>
     </row>
@@ -5774,6 +5848,9 @@
         <v>0.004639933573370073</v>
       </c>
       <c r="BL25">
+        <v>309.3289048913383</v>
+      </c>
+      <c r="BM25">
         <v>-2.333488236885923</v>
       </c>
     </row>
@@ -5990,6 +6067,9 @@
         <v>0.005924800603375578</v>
       </c>
       <c r="BL26">
+        <v>394.9867068917052</v>
+      </c>
+      <c r="BM26">
         <v>-2.227326261066529</v>
       </c>
     </row>
@@ -6201,6 +6281,9 @@
         <v>0.004284558975705811</v>
       </c>
       <c r="BL27">
+        <v>285.6372650470541</v>
+      </c>
+      <c r="BM27">
         <v>-2.368093874855056</v>
       </c>
     </row>
@@ -6417,6 +6500,9 @@
         <v>0.008193985975544353</v>
       </c>
       <c r="BL28">
+        <v>546.2657317029569</v>
+      </c>
+      <c r="BM28">
         <v>-2.086504783701026</v>
       </c>
     </row>
@@ -6628,6 +6714,9 @@
         <v>0.00973333561594893</v>
       </c>
       <c r="BL29">
+        <v>648.8890410632621</v>
+      </c>
+      <c r="BM29">
         <v>-2.011738301422555</v>
       </c>
     </row>
@@ -6839,6 +6928,9 @@
         <v>0.009646496232133251</v>
       </c>
       <c r="BL30">
+        <v>643.0997488088834</v>
+      </c>
+      <c r="BM30">
         <v>-2.015630400994481</v>
       </c>
     </row>
@@ -7050,6 +7142,9 @@
         <v>0.006613920134983127</v>
       </c>
       <c r="BL31">
+        <v>440.9280089988752</v>
+      </c>
+      <c r="BM31">
         <v>-2.179541053623335</v>
       </c>
     </row>
@@ -7261,6 +7356,9 @@
         <v>0.02156896342354187</v>
       </c>
       <c r="BL32">
+        <v>1437.930894902792</v>
+      </c>
+      <c r="BM32">
         <v>-1.666170726026485</v>
       </c>
     </row>
@@ -7477,6 +7575,9 @@
         <v>0.004782032022410195</v>
       </c>
       <c r="BL33">
+        <v>318.8021348273463</v>
+      </c>
+      <c r="BM33">
         <v>-2.320387519999943</v>
       </c>
     </row>
@@ -7688,6 +7789,9 @@
         <v>0.002853939133551447</v>
       </c>
       <c r="BL34">
+        <v>190.2626089034298</v>
+      </c>
+      <c r="BM34">
         <v>-2.54455529339538</v>
       </c>
     </row>
@@ -7899,6 +8003,9 @@
         <v>0.008343666339822245</v>
       </c>
       <c r="BL35">
+        <v>556.2444226548164</v>
+      </c>
+      <c r="BM35">
         <v>-2.078643071512419</v>
       </c>
     </row>
@@ -8120,6 +8227,9 @@
         <v>0.02141718670653187</v>
       </c>
       <c r="BL36">
+        <v>1427.812447102124</v>
+      </c>
+      <c r="BM36">
         <v>-1.669237577298347</v>
       </c>
     </row>
@@ -8518,6 +8628,9 @@
         <v>0.003908087757208192</v>
       </c>
       <c r="BL38">
+        <v>260.5391838138795</v>
+      </c>
+      <c r="BM38">
         <v>-2.408035692639204</v>
       </c>
     </row>
@@ -8741,6 +8854,9 @@
         <v>0.002590814343257936</v>
       </c>
       <c r="BL39">
+        <v>172.7209562171958</v>
+      </c>
+      <c r="BM39">
         <v>-2.586563707271791</v>
       </c>
     </row>
@@ -8964,6 +9080,9 @@
         <v>0.008632315521628499</v>
       </c>
       <c r="BL40">
+        <v>575.4877014419</v>
+      </c>
+      <c r="BM40">
         <v>-2.063872694043652</v>
       </c>
     </row>
@@ -9185,6 +9304,9 @@
         <v>0.009660843643996731</v>
       </c>
       <c r="BL41">
+        <v>644.0562429331155</v>
+      </c>
+      <c r="BM41">
         <v>-2.014984946676194</v>
       </c>
     </row>
@@ -9401,6 +9523,9 @@
         <v>0.004792983865851854</v>
       </c>
       <c r="BL42">
+        <v>319.532257723457</v>
+      </c>
+      <c r="BM42">
         <v>-2.319394032928367</v>
       </c>
     </row>
@@ -9617,6 +9742,9 @@
         <v>0.002794083440823835</v>
       </c>
       <c r="BL43">
+        <v>186.2722293882557</v>
+      </c>
+      <c r="BM43">
         <v>-2.553760628519525</v>
       </c>
     </row>
@@ -9833,6 +9961,9 @@
         <v>0.005726828948661665</v>
       </c>
       <c r="BL44">
+        <v>381.7885965774444</v>
+      </c>
+      <c r="BM44">
         <v>-2.242085788383399</v>
       </c>
     </row>
@@ -10044,6 +10175,9 @@
         <v>0.004332746607096216</v>
       </c>
       <c r="BL45">
+        <v>288.8497738064144</v>
+      </c>
+      <c r="BM45">
         <v>-2.363236709155738</v>
       </c>
     </row>
@@ -10260,6 +10394,9 @@
         <v>0.007687916437675016</v>
       </c>
       <c r="BL46">
+        <v>512.5277625116678</v>
+      </c>
+      <c r="BM46">
         <v>-2.114191345793968</v>
       </c>
     </row>
@@ -10481,6 +10618,9 @@
         <v>0.02204790782699434</v>
       </c>
       <c r="BL47">
+        <v>1469.860521799623</v>
+      </c>
+      <c r="BM47">
         <v>-1.656632615370772</v>
       </c>
     </row>
@@ -10697,6 +10837,9 @@
         <v>0.02047988338992866</v>
       </c>
       <c r="BL48">
+        <v>1365.325559328577</v>
+      </c>
+      <c r="BM48">
         <v>-1.688672520511378</v>
       </c>
     </row>
@@ -10923,6 +11066,9 @@
         <v>0.01384840425531915</v>
       </c>
       <c r="BL49">
+        <v>923.2269503546102</v>
+      </c>
+      <c r="BM49">
         <v>-1.858600267251969</v>
       </c>
     </row>
@@ -11144,6 +11290,9 @@
         <v>0.007796288965858485</v>
       </c>
       <c r="BL50">
+        <v>519.752597723899</v>
+      </c>
+      <c r="BM50">
         <v>-2.10811207233122</v>
       </c>
     </row>
@@ -11355,6 +11504,9 @@
         <v>0.008886691327357164</v>
       </c>
       <c r="BL51">
+        <v>592.4460884904777</v>
+      </c>
+      <c r="BM51">
         <v>-2.051259904466997</v>
       </c>
     </row>
@@ -11576,6 +11728,9 @@
         <v>0.007296657593436077</v>
       </c>
       <c r="BL52">
+        <v>486.4438395624052</v>
+      </c>
+      <c r="BM52">
         <v>-2.136876033186874</v>
       </c>
     </row>
@@ -11792,6 +11947,9 @@
         <v>0.00727127764273976</v>
       </c>
       <c r="BL53">
+        <v>484.7518428493174</v>
+      </c>
+      <c r="BM53">
         <v>-2.138389272161563</v>
       </c>
     </row>
@@ -12008,6 +12166,9 @@
         <v>0.01205059079303746</v>
       </c>
       <c r="BL54">
+        <v>803.3727195358305</v>
+      </c>
+      <c r="BM54">
         <v>-1.918991660818034</v>
       </c>
     </row>
@@ -12219,6 +12380,9 @@
         <v>0.006493453252551304</v>
       </c>
       <c r="BL55">
+        <v>432.8968835034203</v>
+      </c>
+      <c r="BM55">
         <v>-2.18752428167803</v>
       </c>
     </row>
@@ -12440,6 +12604,9 @@
         <v>0.01228521267092696</v>
       </c>
       <c r="BL56">
+        <v>819.0141780617971</v>
+      </c>
+      <c r="BM56">
         <v>-1.91061732099012</v>
       </c>
     </row>
@@ -12653,6 +12820,9 @@
         <v>0.007541432641432642</v>
       </c>
       <c r="BL57">
+        <v>502.7621760955095</v>
+      </c>
+      <c r="BM57">
         <v>-2.122546143630673</v>
       </c>
     </row>
@@ -12866,6 +13036,9 @@
         <v>0.01050556831768293</v>
       </c>
       <c r="BL58">
+        <v>700.3712211788622</v>
+      </c>
+      <c r="BM58">
         <v>-1.978580448678539</v>
       </c>
     </row>
@@ -13079,6 +13252,9 @@
         <v>0.02302353775966846</v>
       </c>
       <c r="BL59">
+        <v>1534.902517311231</v>
+      </c>
+      <c r="BM59">
         <v>-1.637827942589215</v>
       </c>
     </row>
@@ -13294,6 +13470,9 @@
         <v>0.004023061979068747</v>
       </c>
       <c r="BL60">
+        <v>268.2041319379165</v>
+      </c>
+      <c r="BM60">
         <v>-2.395443276660604</v>
       </c>
     </row>
@@ -13520,6 +13699,9 @@
         <v>0.009362841722398218</v>
       </c>
       <c r="BL61">
+        <v>624.1894481598812</v>
+      </c>
+      <c r="BM61">
         <v>-2.028592318243764</v>
       </c>
     </row>
@@ -13731,6 +13913,9 @@
         <v>0.004613289760348585</v>
       </c>
       <c r="BL62">
+        <v>307.5526506899057</v>
+      </c>
+      <c r="BM62">
         <v>-2.335989266534517</v>
       </c>
     </row>
@@ -13957,6 +14142,9 @@
         <v>0.004916008105369809</v>
       </c>
       <c r="BL63">
+        <v>327.7338736913206</v>
+      </c>
+      <c r="BM63">
         <v>-2.308387409733004</v>
       </c>
     </row>
@@ -14178,6 +14366,9 @@
         <v>0.01715513000702741</v>
       </c>
       <c r="BL64">
+        <v>1143.675333801827</v>
+      </c>
+      <c r="BM64">
         <v>-1.765605986373726</v>
       </c>
     </row>
@@ -14399,6 +14590,9 @@
         <v>0.01052482269503546</v>
       </c>
       <c r="BL65">
+        <v>701.6548463356975</v>
+      </c>
+      <c r="BM65">
         <v>-1.977785211712372</v>
       </c>
     </row>
@@ -14615,6 +14809,9 @@
         <v>0.01930909633037293</v>
       </c>
       <c r="BL66">
+        <v>1287.273088691529</v>
+      </c>
+      <c r="BM66">
         <v>-1.714238050814905</v>
       </c>
     </row>
@@ -14841,6 +15038,9 @@
         <v>0.009377659944547326</v>
       </c>
       <c r="BL67">
+        <v>625.1773296364885</v>
+      </c>
+      <c r="BM67">
         <v>-2.027905519825394</v>
       </c>
     </row>
@@ -15057,6 +15257,9 @@
         <v>0.007778831700133536</v>
       </c>
       <c r="BL68">
+        <v>518.5887800089024</v>
+      </c>
+      <c r="BM68">
         <v>-2.109085624640822</v>
       </c>
     </row>
@@ -15268,6 +15471,9 @@
         <v>0.005075142511342889</v>
       </c>
       <c r="BL69">
+        <v>338.3428340895259</v>
+      </c>
+      <c r="BM69">
         <v>-2.294551758139706</v>
       </c>
     </row>
@@ -15476,6 +15682,9 @@
         <v>0.003927330938127854</v>
       </c>
       <c r="BL70">
+        <v>261.822062541857</v>
+      </c>
+      <c r="BM70">
         <v>-2.405902501187666</v>
       </c>
     </row>
@@ -15687,6 +15896,9 @@
         <v>0.003774897151453429</v>
       </c>
       <c r="BL71">
+        <v>251.6598100968953</v>
+      </c>
+      <c r="BM71">
         <v>-2.423094876396308</v>
       </c>
     </row>
@@ -15903,6 +16115,9 @@
         <v>0.009219701017873509</v>
       </c>
       <c r="BL72">
+        <v>614.6467345249006</v>
+      </c>
+      <c r="BM72">
         <v>-2.035283162286183</v>
       </c>
     </row>
@@ -16116,6 +16331,9 @@
         <v>0.006359756097560975</v>
       </c>
       <c r="BL73">
+        <v>423.9837398373984</v>
+      </c>
+      <c r="BM73">
         <v>-2.196559539621167</v>
       </c>
     </row>
@@ -16334,6 +16552,9 @@
         <v>0.02398280431711776</v>
       </c>
       <c r="BL74">
+        <v>1598.853621141184</v>
+      </c>
+      <c r="BM74">
         <v>-1.620100036072771</v>
       </c>
     </row>
@@ -16542,6 +16763,9 @@
         <v>0.02458961696661507</v>
       </c>
       <c r="BL75">
+        <v>1639.307797774338</v>
+      </c>
+      <c r="BM75">
         <v>-1.609248236230013</v>
       </c>
     </row>
@@ -16940,6 +17164,9 @@
         <v>0.009475486316804969</v>
       </c>
       <c r="BL77">
+        <v>631.699087786998</v>
+      </c>
+      <c r="BM77">
         <v>-2.023398491197899</v>
       </c>
     </row>
@@ -17161,6 +17388,9 @@
         <v>0.007068352610094013</v>
       </c>
       <c r="BL78">
+        <v>471.2235073396009</v>
+      </c>
+      <c r="BM78">
         <v>-2.150681793517514</v>
       </c>
     </row>
@@ -17387,6 +17617,9 @@
         <v>0.02365020932920923</v>
       </c>
       <c r="BL79">
+        <v>1576.680621947282</v>
+      </c>
+      <c r="BM79">
         <v>-1.626165010946544</v>
       </c>
     </row>
@@ -17600,6 +17833,9 @@
         <v>0.00978189670300509</v>
       </c>
       <c r="BL80">
+        <v>652.1264468670061</v>
+      </c>
+      <c r="BM80">
         <v>-2.009576927647609</v>
       </c>
     </row>
@@ -17816,6 +18052,9 @@
         <v>0.002396173973843117</v>
       </c>
       <c r="BL81">
+        <v>159.7449315895412</v>
+      </c>
+      <c r="BM81">
         <v>-2.620481653253873</v>
       </c>
     </row>
@@ -18027,6 +18266,9 @@
         <v>0.006993674698795181</v>
       </c>
       <c r="BL82">
+        <v>466.2449799196788</v>
+      </c>
+      <c r="BM82">
         <v>-2.155294572170297</v>
       </c>
     </row>
@@ -18238,6 +18480,9 @@
         <v>0.002956248304215249</v>
       </c>
       <c r="BL83">
+        <v>197.0832202810166</v>
+      </c>
+      <c r="BM83">
         <v>-2.529259091041216</v>
       </c>
     </row>
@@ -18464,6 +18709,9 @@
         <v>0.02651408450704225</v>
       </c>
       <c r="BL84">
+        <v>1767.605633802817</v>
+      </c>
+      <c r="BM84">
         <v>-1.576523363846337</v>
       </c>
     </row>
@@ -18680,6 +18928,9 @@
         <v>0.004077297705388747</v>
       </c>
       <c r="BL85">
+        <v>271.8198470259165</v>
+      </c>
+      <c r="BM85">
         <v>-2.389627577219095</v>
       </c>
     </row>
@@ -18896,6 +19147,9 @@
         <v>0.002382504159572821</v>
       </c>
       <c r="BL86">
+        <v>158.8336106381881</v>
+      </c>
+      <c r="BM86">
         <v>-2.622966332461746</v>
       </c>
     </row>
@@ -19117,6 +19371,9 @@
         <v>0.003140178190354247</v>
       </c>
       <c r="BL87">
+        <v>209.3452126902831</v>
+      </c>
+      <c r="BM87">
         <v>-2.503045707056766</v>
       </c>
     </row>
@@ -19325,6 +19582,9 @@
         <v>0.01471585180256638</v>
       </c>
       <c r="BL88">
+        <v>981.0567868377586</v>
+      </c>
+      <c r="BM88">
         <v>-1.832214594424203</v>
       </c>
     </row>
@@ -19533,6 +19793,9 @@
         <v>0.001926628909688005</v>
       </c>
       <c r="BL89">
+        <v>128.4419273125337</v>
+      </c>
+      <c r="BM89">
         <v>-2.715201927272227</v>
       </c>
     </row>
@@ -19741,6 +20004,9 @@
         <v>0.02056012845329597</v>
       </c>
       <c r="BL90">
+        <v>1370.675230219731</v>
+      </c>
+      <c r="BM90">
         <v>-1.686974176331268</v>
       </c>
     </row>
@@ -19954,6 +20220,9 @@
         <v>0.03222421710103755</v>
       </c>
       <c r="BL91">
+        <v>2148.28114006917</v>
+      </c>
+      <c r="BM91">
         <v>-1.491817625187269</v>
       </c>
     </row>
@@ -20165,6 +20434,9 @@
         <v>0.01283894856804105</v>
       </c>
       <c r="BL92">
+        <v>855.92990453607</v>
+      </c>
+      <c r="BM92">
         <v>-1.891470540892946</v>
       </c>
     </row>
@@ -20376,6 +20648,9 @@
         <v>0.005625443870334104</v>
       </c>
       <c r="BL93">
+        <v>375.029591355607</v>
+      </c>
+      <c r="BM93">
         <v>-2.249843204268796</v>
       </c>
     </row>
@@ -20587,6 +20862,9 @@
         <v>0.007971722857549275</v>
       </c>
       <c r="BL94">
+        <v>531.4481905032851</v>
+      </c>
+      <c r="BM94">
         <v>-2.098447808256704</v>
       </c>
     </row>
@@ -20803,6 +21081,9 @@
         <v>0.01143899922544764</v>
       </c>
       <c r="BL95">
+        <v>762.5999483631764</v>
+      </c>
+      <c r="BM95">
         <v>-1.941611969413418</v>
       </c>
     </row>
@@ -21014,6 +21295,9 @@
         <v>0.003889821784024335</v>
       </c>
       <c r="BL96">
+        <v>259.321452268289</v>
+      </c>
+      <c r="BM96">
         <v>-2.4100702958434</v>
       </c>
     </row>
@@ -21230,6 +21514,9 @@
         <v>0.006460030539047998</v>
       </c>
       <c r="BL97">
+        <v>430.6687026031999</v>
+      </c>
+      <c r="BM97">
         <v>-2.189765428923077</v>
       </c>
     </row>
@@ -21441,6 +21728,9 @@
         <v>0.006555161080941225</v>
       </c>
       <c r="BL98">
+        <v>437.010738729415</v>
+      </c>
+      <c r="BM98">
         <v>-2.183416631860338</v>
       </c>
     </row>
@@ -21652,6 +21942,9 @@
         <v>0.001337381130703473</v>
       </c>
       <c r="BL99">
+        <v>89.15874204689818</v>
+      </c>
+      <c r="BM99">
         <v>-2.873744808614188</v>
       </c>
     </row>

--- a/Processed_data/All_Bag_Site_Info.xlsx
+++ b/Processed_data/All_Bag_Site_Info.xlsx
@@ -2433,34 +2433,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10">
-        <v>27.57575</v>
+        <v>28.36175</v>
       </c>
       <c r="D10" s="2">
         <v>45359</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F10">
-        <v>1.002</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>27.282</v>
+        <v>27.18</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>combined with other transect | combined with other transect</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2475,50 +2475,53 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>y | y</t>
         </is>
       </c>
       <c r="P10">
-        <v>1090.202</v>
+        <v>1105.298</v>
+      </c>
+      <c r="Q10">
+        <v>1108.413</v>
       </c>
       <c r="R10">
-        <v>0.702</v>
+        <v>2.566</v>
       </c>
       <c r="U10">
-        <v>28.284</v>
+        <v>43.648</v>
       </c>
       <c r="V10">
-        <v>0.643</v>
+        <v>2.272</v>
       </c>
       <c r="W10">
-        <v>28.284</v>
+        <v>43.648</v>
       </c>
       <c r="X10">
-        <v>0.0227337010323858</v>
+        <v>0.05205278592375367</v>
       </c>
       <c r="Y10">
-        <v>0.643</v>
+        <v>2.272</v>
       </c>
       <c r="Z10">
-        <v>0.6268988562438127</v>
+        <v>1.476308101173021</v>
       </c>
       <c r="AA10">
-        <v>0.4005602240896359</v>
+        <v>1.622549019607843</v>
       </c>
       <c r="AB10">
-        <v>2.5485</v>
+        <v>1.9035</v>
       </c>
       <c r="AC10">
-        <v>0.2895</v>
+        <v>0.125</v>
       </c>
       <c r="AD10">
-        <v>77.90000000000001</v>
+        <v>106.1</v>
       </c>
       <c r="AE10">
-        <v>1.706</v>
+        <v>3.2763</v>
       </c>
       <c r="AF10">
-        <v>0.04369</v>
+        <v>0.03378</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
@@ -2568,34 +2571,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR10">
-        <v>24.4897959183673</v>
+        <v>27.5510204081633</v>
       </c>
       <c r="AS10">
-        <v>7.375</v>
+        <v>10.9285714285714</v>
       </c>
       <c r="AT10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>41</v>
+        <v>94.78</v>
       </c>
       <c r="AX10">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AY10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ10">
         <v>7</v>
       </c>
       <c r="BA10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB10" s="3">
         <v>45217</v>
@@ -2615,25 +2618,25 @@
         <v>142</v>
       </c>
       <c r="BG10">
-        <v>-0.1917890270757779</v>
+        <v>0.3564083270389812</v>
       </c>
       <c r="BH10">
-        <v>-0.2028025225162077</v>
+        <v>0.1691770029313403</v>
       </c>
       <c r="BI10">
-        <v>0.004528169014084507</v>
+        <v>0.016</v>
       </c>
       <c r="BJ10">
-        <v>-2.344077371458834</v>
+        <v>-1.795880017344075</v>
       </c>
       <c r="BK10">
-        <v>0.004414780677773329</v>
+        <v>0.01039653592375367</v>
       </c>
       <c r="BL10">
-        <v>294.3187118515553</v>
+        <v>693.1023949169111</v>
       </c>
       <c r="BM10">
-        <v>-2.355090866899264</v>
+        <v>-1.983111341451716</v>
       </c>
     </row>
     <row r="11">
@@ -2644,95 +2647,97 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11">
-        <v>27.57575</v>
+        <v>28.36175</v>
       </c>
       <c r="D11" s="2">
         <v>45359</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F11">
-        <v>1.011</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>27.696</v>
+        <v>14.474</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>minor</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11">
-        <v>1150.282</v>
-      </c>
-      <c r="Q11">
-        <v>1115.53</v>
+        <v>1140.722</v>
       </c>
       <c r="R11">
-        <v>0.492</v>
+        <v>0.902</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>few</t>
+        </is>
       </c>
       <c r="U11">
-        <v>28.707</v>
+        <v>43.648</v>
       </c>
       <c r="V11">
-        <v>0.441</v>
+        <v>0.894</v>
       </c>
       <c r="W11">
-        <v>28.707</v>
+        <v>43.648</v>
       </c>
       <c r="X11">
-        <v>0.01536210680321873</v>
+        <v>0.02048203812316716</v>
       </c>
       <c r="Y11">
-        <v>0.441</v>
+        <v>0.894</v>
       </c>
       <c r="Z11">
-        <v>0.4236216166788588</v>
+        <v>0.5809064447397362</v>
       </c>
       <c r="AA11">
-        <v>0.4005602240896359</v>
+        <v>1.622549019607843</v>
       </c>
       <c r="AB11">
-        <v>2.5485</v>
+        <v>1.9035</v>
       </c>
       <c r="AC11">
-        <v>0.2895</v>
+        <v>0.125</v>
       </c>
       <c r="AD11">
-        <v>77.90000000000001</v>
+        <v>106.1</v>
       </c>
       <c r="AE11">
-        <v>1.706</v>
+        <v>3.2763</v>
       </c>
       <c r="AF11">
-        <v>0.04369</v>
+        <v>0.03378</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
@@ -2782,34 +2787,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR11">
-        <v>24.4897959183673</v>
+        <v>27.5510204081633</v>
       </c>
       <c r="AS11">
-        <v>7.375</v>
+        <v>10.9285714285714</v>
       </c>
       <c r="AT11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU11">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AV11">
         <v>0</v>
       </c>
       <c r="AW11">
-        <v>41</v>
+        <v>94.78</v>
       </c>
       <c r="AX11">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AY11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ11">
         <v>7</v>
       </c>
       <c r="BA11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB11" s="3">
         <v>45217</v>
@@ -2829,25 +2834,25 @@
         <v>142</v>
       </c>
       <c r="BG11">
-        <v>-0.3555614105321614</v>
+        <v>-0.04866248120408232</v>
       </c>
       <c r="BH11">
-        <v>-0.3730218867023841</v>
+        <v>-0.2358938053117232</v>
       </c>
       <c r="BI11">
-        <v>0.003105633802816902</v>
+        <v>0.006295774647887324</v>
       </c>
       <c r="BJ11">
-        <v>-2.507849754915218</v>
+        <v>-2.200950825587139</v>
       </c>
       <c r="BK11">
-        <v>0.002983250821682105</v>
+        <v>0.004090890455913635</v>
       </c>
       <c r="BL11">
-        <v>198.8833881121403</v>
+        <v>272.7260303942423</v>
       </c>
       <c r="BM11">
-        <v>-2.525310231085441</v>
+        <v>-2.38818214969478</v>
       </c>
     </row>
     <row r="12">
@@ -2858,11 +2863,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12">
-        <v>27.57575</v>
+        <v>28.36175</v>
       </c>
       <c r="D12" s="2">
         <v>45359</v>
@@ -2873,14 +2878,14 @@
         </is>
       </c>
       <c r="F12">
-        <v>0.95</v>
+        <v>1.071</v>
       </c>
       <c r="G12">
-        <v>24.188</v>
+        <v>27.681</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2895,7 +2900,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>NA | topless</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2904,51 +2909,51 @@
         </is>
       </c>
       <c r="P12">
-        <v>1114.713</v>
+        <v>1137.214</v>
       </c>
       <c r="R12">
-        <v>1.269</v>
+        <v>4.205</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>few</t>
+          <t>some</t>
         </is>
       </c>
       <c r="U12">
-        <v>25.138</v>
+        <v>28.752</v>
       </c>
       <c r="V12">
-        <v>1.319</v>
+        <v>4.121</v>
       </c>
       <c r="W12">
-        <v>25.138</v>
+        <v>28.752</v>
       </c>
       <c r="X12">
-        <v>0.05247036359296683</v>
+        <v>0.1433291597106288</v>
       </c>
       <c r="Y12">
-        <v>1.319</v>
+        <v>4.121</v>
       </c>
       <c r="Z12">
-        <v>1.446909628848755</v>
+        <v>4.065065795422927</v>
       </c>
       <c r="AA12">
-        <v>0.4005602240896359</v>
+        <v>1.622549019607843</v>
       </c>
       <c r="AB12">
-        <v>2.5485</v>
+        <v>1.9035</v>
       </c>
       <c r="AC12">
-        <v>0.2895</v>
+        <v>0.125</v>
       </c>
       <c r="AD12">
-        <v>77.90000000000001</v>
+        <v>106.1</v>
       </c>
       <c r="AE12">
-        <v>1.706</v>
+        <v>3.2763</v>
       </c>
       <c r="AF12">
-        <v>0.04369</v>
+        <v>0.03378</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
@@ -2998,34 +3003,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR12">
-        <v>24.4897959183673</v>
+        <v>27.5510204081633</v>
       </c>
       <c r="AS12">
-        <v>7.375</v>
+        <v>10.9285714285714</v>
       </c>
       <c r="AT12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU12">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>41</v>
+        <v>94.78</v>
       </c>
       <c r="AX12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AY12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ12">
         <v>7</v>
       </c>
       <c r="BA12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB12" s="3">
         <v>45217</v>
@@ -3045,25 +3050,25 @@
         <v>142</v>
       </c>
       <c r="BG12">
-        <v>0.1202447955463654</v>
+        <v>0.6150026145245883</v>
       </c>
       <c r="BH12">
-        <v>0.1604414067804399</v>
+        <v>0.6090675792924147</v>
       </c>
       <c r="BI12">
-        <v>0.009288732394366199</v>
+        <v>0.02902112676056338</v>
       </c>
       <c r="BJ12">
-        <v>-2.032043548836691</v>
+        <v>-1.537285729858468</v>
       </c>
       <c r="BK12">
-        <v>0.01018950442851236</v>
+        <v>0.02862722391142906</v>
       </c>
       <c r="BL12">
-        <v>679.3002952341573</v>
+        <v>1908.481594095271</v>
       </c>
       <c r="BM12">
-        <v>-1.991846937602616</v>
+        <v>-1.543220765090642</v>
       </c>
     </row>
     <row r="13">
@@ -3074,34 +3079,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13">
-        <v>27.57575</v>
+        <v>28.36175</v>
       </c>
       <c r="D13" s="2">
         <v>45359</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F13">
-        <v>0.994</v>
+        <v>0.962</v>
       </c>
       <c r="G13">
-        <v>27.18</v>
+        <v>27.605</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>combined with other transect | combined with other transect</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3116,53 +3121,53 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>y | y</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="P13">
-        <v>1105.298</v>
+        <v>1149.892</v>
       </c>
       <c r="Q13">
-        <v>1108.413</v>
+        <v>1151.278</v>
       </c>
       <c r="R13">
-        <v>2.566</v>
+        <v>0.962</v>
       </c>
       <c r="U13">
-        <v>43.83</v>
+        <v>28.567</v>
       </c>
       <c r="V13">
-        <v>2.272</v>
+        <v>0.513</v>
       </c>
       <c r="W13">
-        <v>43.83</v>
+        <v>28.567</v>
       </c>
       <c r="X13">
-        <v>0.05183664156970112</v>
+        <v>0.01795778345643575</v>
       </c>
       <c r="Y13">
-        <v>2.272</v>
+        <v>0.513</v>
       </c>
       <c r="Z13">
-        <v>1.429434268765686</v>
+        <v>0.5093141649455666</v>
       </c>
       <c r="AA13">
-        <v>0.4005602240896359</v>
+        <v>1.622549019607843</v>
       </c>
       <c r="AB13">
-        <v>2.5485</v>
+        <v>1.9035</v>
       </c>
       <c r="AC13">
-        <v>0.2895</v>
+        <v>0.125</v>
       </c>
       <c r="AD13">
-        <v>77.90000000000001</v>
+        <v>106.1</v>
       </c>
       <c r="AE13">
-        <v>1.706</v>
+        <v>3.2763</v>
       </c>
       <c r="AF13">
-        <v>0.04369</v>
+        <v>0.03378</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
@@ -3212,34 +3217,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR13">
-        <v>24.4897959183673</v>
+        <v>27.5510204081633</v>
       </c>
       <c r="AS13">
-        <v>7.375</v>
+        <v>10.9285714285714</v>
       </c>
       <c r="AT13">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU13">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>41</v>
+        <v>94.78</v>
       </c>
       <c r="AX13">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AY13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ13">
         <v>7</v>
       </c>
       <c r="BA13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB13" s="3">
         <v>45217</v>
@@ -3259,25 +3264,25 @@
         <v>142</v>
       </c>
       <c r="BG13">
-        <v>0.3564083270389812</v>
+        <v>-0.2898826348881837</v>
       </c>
       <c r="BH13">
-        <v>0.1551641895165409</v>
+        <v>-0.2930142451429864</v>
       </c>
       <c r="BI13">
-        <v>0.016</v>
+        <v>0.003612676056338028</v>
       </c>
       <c r="BJ13">
-        <v>-1.795880017344075</v>
+        <v>-2.44217097927124</v>
       </c>
       <c r="BK13">
-        <v>0.01006643851243441</v>
+        <v>0.003586719471447652</v>
       </c>
       <c r="BL13">
-        <v>671.0959008289605</v>
+        <v>239.1146314298435</v>
       </c>
       <c r="BM13">
-        <v>-1.997124154866516</v>
+        <v>-2.445302589526043</v>
       </c>
     </row>
     <row r="14">
@@ -3288,92 +3293,95 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14">
-        <v>27.57575</v>
+        <v>28.36175</v>
       </c>
       <c r="D14" s="2">
         <v>45359</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>1.032</v>
       </c>
       <c r="G14">
-        <v>14.656</v>
+        <v>26.922</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | minor</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="P14">
-        <v>1105.474</v>
+        <v>1143.294</v>
+      </c>
+      <c r="Q14">
+        <v>1144.669</v>
       </c>
       <c r="R14">
-        <v>0.894</v>
+        <v>0.866</v>
       </c>
       <c r="U14">
-        <v>43.83</v>
+        <v>27.954</v>
       </c>
       <c r="V14">
-        <v>0.953</v>
+        <v>0.535</v>
       </c>
       <c r="W14">
-        <v>43.83</v>
+        <v>27.954</v>
       </c>
       <c r="X14">
-        <v>0.0217430983344741</v>
+        <v>0.01913858481791515</v>
       </c>
       <c r="Y14">
-        <v>0.953</v>
+        <v>0.535</v>
       </c>
       <c r="Z14">
-        <v>0.5995822438968742</v>
+        <v>0.5428037579595049</v>
       </c>
       <c r="AA14">
-        <v>0.4005602240896359</v>
+        <v>1.622549019607843</v>
       </c>
       <c r="AB14">
-        <v>2.5485</v>
+        <v>1.9035</v>
       </c>
       <c r="AC14">
-        <v>0.2895</v>
+        <v>0.125</v>
       </c>
       <c r="AD14">
-        <v>77.90000000000001</v>
+        <v>106.1</v>
       </c>
       <c r="AE14">
-        <v>1.706</v>
+        <v>3.2763</v>
       </c>
       <c r="AF14">
-        <v>0.04369</v>
+        <v>0.03378</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
@@ -3423,34 +3431,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR14">
-        <v>24.4897959183673</v>
+        <v>27.5510204081633</v>
       </c>
       <c r="AS14">
-        <v>7.375</v>
+        <v>10.9285714285714</v>
       </c>
       <c r="AT14">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AU14">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>41</v>
+        <v>94.78</v>
       </c>
       <c r="AX14">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AY14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ14">
         <v>7</v>
       </c>
       <c r="BA14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB14" s="3">
         <v>45217</v>
@@ -3470,25 +3478,25 @@
         <v>142</v>
       </c>
       <c r="BG14">
-        <v>-0.02090709936167361</v>
+        <v>-0.2716462179787715</v>
       </c>
       <c r="BH14">
-        <v>-0.222151236884114</v>
+        <v>-0.2653571542779111</v>
       </c>
       <c r="BI14">
-        <v>0.006711267605633803</v>
+        <v>0.003767605633802817</v>
       </c>
       <c r="BJ14">
-        <v>-2.17319544374473</v>
+        <v>-2.423934562361828</v>
       </c>
       <c r="BK14">
-        <v>0.004222410168287847</v>
+        <v>0.003822561675771161</v>
       </c>
       <c r="BL14">
-        <v>281.4940112191898</v>
+        <v>254.8374450514108</v>
       </c>
       <c r="BM14">
-        <v>-2.374439581267171</v>
+        <v>-2.417645498660967</v>
       </c>
     </row>
     <row r="15">
@@ -3499,34 +3507,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15">
-        <v>28.36175</v>
+        <v>27.57575</v>
       </c>
       <c r="D15" s="2">
         <v>45359</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F15">
-        <v>0.994</v>
+        <v>1.002</v>
       </c>
       <c r="G15">
-        <v>27.18</v>
+        <v>27.282</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>combined with other transect | combined with other transect</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3541,53 +3549,50 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>y | y</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="P15">
-        <v>1105.298</v>
-      </c>
-      <c r="Q15">
-        <v>1108.413</v>
+        <v>1090.202</v>
       </c>
       <c r="R15">
-        <v>2.566</v>
+        <v>0.702</v>
       </c>
       <c r="U15">
-        <v>43.648</v>
+        <v>28.284</v>
       </c>
       <c r="V15">
-        <v>2.272</v>
+        <v>0.643</v>
       </c>
       <c r="W15">
-        <v>43.648</v>
+        <v>28.284</v>
       </c>
       <c r="X15">
-        <v>0.05205278592375367</v>
+        <v>0.0227337010323858</v>
       </c>
       <c r="Y15">
-        <v>2.272</v>
+        <v>0.643</v>
       </c>
       <c r="Z15">
-        <v>1.476308101173021</v>
+        <v>0.6268988562438127</v>
       </c>
       <c r="AA15">
-        <v>1.622549019607843</v>
+        <v>0.4005602240896359</v>
       </c>
       <c r="AB15">
-        <v>1.9035</v>
+        <v>2.5485</v>
       </c>
       <c r="AC15">
-        <v>0.125</v>
+        <v>0.2895</v>
       </c>
       <c r="AD15">
-        <v>106.1</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AE15">
-        <v>3.2763</v>
+        <v>1.706</v>
       </c>
       <c r="AF15">
-        <v>0.03378</v>
+        <v>0.04369</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
@@ -3637,34 +3642,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR15">
-        <v>27.5510204081633</v>
+        <v>24.4897959183673</v>
       </c>
       <c r="AS15">
-        <v>10.9285714285714</v>
+        <v>7.375</v>
       </c>
       <c r="AT15">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AU15">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>94.78</v>
+        <v>41</v>
       </c>
       <c r="AX15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AY15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
         <v>7</v>
       </c>
       <c r="BA15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB15" s="3">
         <v>45217</v>
@@ -3684,25 +3689,25 @@
         <v>142</v>
       </c>
       <c r="BG15">
-        <v>0.3564083270389812</v>
+        <v>-0.1917890270757779</v>
       </c>
       <c r="BH15">
-        <v>0.1691770029313403</v>
+        <v>-0.2028025225162077</v>
       </c>
       <c r="BI15">
-        <v>0.016</v>
+        <v>0.004528169014084507</v>
       </c>
       <c r="BJ15">
-        <v>-1.795880017344075</v>
+        <v>-2.344077371458834</v>
       </c>
       <c r="BK15">
-        <v>0.01039653592375367</v>
+        <v>0.004414780677773329</v>
       </c>
       <c r="BL15">
-        <v>693.1023949169111</v>
+        <v>294.3187118515553</v>
       </c>
       <c r="BM15">
-        <v>-1.983111341451716</v>
+        <v>-2.355090866899264</v>
       </c>
     </row>
     <row r="16">
@@ -3713,97 +3718,95 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16">
-        <v>28.36175</v>
+        <v>27.57575</v>
       </c>
       <c r="D16" s="2">
         <v>45359</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>1.011</v>
       </c>
       <c r="G16">
-        <v>14.474</v>
+        <v>27.696</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>minor</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="P16">
-        <v>1140.722</v>
+        <v>1150.282</v>
+      </c>
+      <c r="Q16">
+        <v>1115.53</v>
       </c>
       <c r="R16">
-        <v>0.902</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>few</t>
-        </is>
+        <v>0.492</v>
       </c>
       <c r="U16">
-        <v>43.648</v>
+        <v>28.707</v>
       </c>
       <c r="V16">
-        <v>0.894</v>
+        <v>0.441</v>
       </c>
       <c r="W16">
-        <v>43.648</v>
+        <v>28.707</v>
       </c>
       <c r="X16">
-        <v>0.02048203812316716</v>
+        <v>0.01536210680321873</v>
       </c>
       <c r="Y16">
-        <v>0.894</v>
+        <v>0.441</v>
       </c>
       <c r="Z16">
-        <v>0.5809064447397362</v>
+        <v>0.4236216166788588</v>
       </c>
       <c r="AA16">
-        <v>1.622549019607843</v>
+        <v>0.4005602240896359</v>
       </c>
       <c r="AB16">
-        <v>1.9035</v>
+        <v>2.5485</v>
       </c>
       <c r="AC16">
-        <v>0.125</v>
+        <v>0.2895</v>
       </c>
       <c r="AD16">
-        <v>106.1</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AE16">
-        <v>3.2763</v>
+        <v>1.706</v>
       </c>
       <c r="AF16">
-        <v>0.03378</v>
+        <v>0.04369</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
@@ -3853,34 +3856,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR16">
-        <v>27.5510204081633</v>
+        <v>24.4897959183673</v>
       </c>
       <c r="AS16">
-        <v>10.9285714285714</v>
+        <v>7.375</v>
       </c>
       <c r="AT16">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AU16">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AV16">
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>94.78</v>
+        <v>41</v>
       </c>
       <c r="AX16">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AY16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ16">
         <v>7</v>
       </c>
       <c r="BA16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB16" s="3">
         <v>45217</v>
@@ -3900,25 +3903,25 @@
         <v>142</v>
       </c>
       <c r="BG16">
-        <v>-0.04866248120408232</v>
+        <v>-0.3555614105321614</v>
       </c>
       <c r="BH16">
-        <v>-0.2358938053117232</v>
+        <v>-0.3730218867023841</v>
       </c>
       <c r="BI16">
-        <v>0.006295774647887324</v>
+        <v>0.003105633802816902</v>
       </c>
       <c r="BJ16">
-        <v>-2.200950825587139</v>
+        <v>-2.507849754915218</v>
       </c>
       <c r="BK16">
-        <v>0.004090890455913635</v>
+        <v>0.002983250821682105</v>
       </c>
       <c r="BL16">
-        <v>272.7260303942423</v>
+        <v>198.8833881121403</v>
       </c>
       <c r="BM16">
-        <v>-2.38818214969478</v>
+        <v>-2.525310231085441</v>
       </c>
     </row>
     <row r="17">
@@ -3929,11 +3932,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17">
-        <v>28.36175</v>
+        <v>27.57575</v>
       </c>
       <c r="D17" s="2">
         <v>45359</v>
@@ -3944,14 +3947,14 @@
         </is>
       </c>
       <c r="F17">
-        <v>1.071</v>
+        <v>0.95</v>
       </c>
       <c r="G17">
-        <v>27.681</v>
+        <v>24.188</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3966,7 +3969,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | topless</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3975,51 +3978,51 @@
         </is>
       </c>
       <c r="P17">
-        <v>1137.214</v>
+        <v>1114.713</v>
       </c>
       <c r="R17">
-        <v>4.205</v>
+        <v>1.269</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>few</t>
         </is>
       </c>
       <c r="U17">
-        <v>28.752</v>
+        <v>25.138</v>
       </c>
       <c r="V17">
-        <v>4.121</v>
+        <v>1.319</v>
       </c>
       <c r="W17">
-        <v>28.752</v>
+        <v>25.138</v>
       </c>
       <c r="X17">
-        <v>0.1433291597106288</v>
+        <v>0.05247036359296683</v>
       </c>
       <c r="Y17">
-        <v>4.121</v>
+        <v>1.319</v>
       </c>
       <c r="Z17">
-        <v>4.065065795422927</v>
+        <v>1.446909628848755</v>
       </c>
       <c r="AA17">
-        <v>1.622549019607843</v>
+        <v>0.4005602240896359</v>
       </c>
       <c r="AB17">
-        <v>1.9035</v>
+        <v>2.5485</v>
       </c>
       <c r="AC17">
-        <v>0.125</v>
+        <v>0.2895</v>
       </c>
       <c r="AD17">
-        <v>106.1</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AE17">
-        <v>3.2763</v>
+        <v>1.706</v>
       </c>
       <c r="AF17">
-        <v>0.03378</v>
+        <v>0.04369</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
@@ -4069,34 +4072,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR17">
-        <v>27.5510204081633</v>
+        <v>24.4897959183673</v>
       </c>
       <c r="AS17">
-        <v>10.9285714285714</v>
+        <v>7.375</v>
       </c>
       <c r="AT17">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AU17">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>94.78</v>
+        <v>41</v>
       </c>
       <c r="AX17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AY17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ17">
         <v>7</v>
       </c>
       <c r="BA17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB17" s="3">
         <v>45217</v>
@@ -4116,25 +4119,25 @@
         <v>142</v>
       </c>
       <c r="BG17">
-        <v>0.6150026145245883</v>
+        <v>0.1202447955463654</v>
       </c>
       <c r="BH17">
-        <v>0.6090675792924147</v>
+        <v>0.1604414067804399</v>
       </c>
       <c r="BI17">
-        <v>0.02902112676056338</v>
+        <v>0.009288732394366199</v>
       </c>
       <c r="BJ17">
-        <v>-1.537285729858468</v>
+        <v>-2.032043548836691</v>
       </c>
       <c r="BK17">
-        <v>0.02862722391142906</v>
+        <v>0.01018950442851236</v>
       </c>
       <c r="BL17">
-        <v>1908.481594095271</v>
+        <v>679.3002952341573</v>
       </c>
       <c r="BM17">
-        <v>-1.543220765090642</v>
+        <v>-1.991846937602616</v>
       </c>
     </row>
     <row r="18">
@@ -4145,34 +4148,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18">
-        <v>28.36175</v>
+        <v>27.57575</v>
       </c>
       <c r="D18" s="2">
         <v>45359</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F18">
-        <v>0.962</v>
+        <v>0.994</v>
       </c>
       <c r="G18">
-        <v>27.605</v>
+        <v>27.18</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>combined with other transect | combined with other transect</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4187,53 +4190,53 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>y | y</t>
         </is>
       </c>
       <c r="P18">
-        <v>1149.892</v>
+        <v>1105.298</v>
       </c>
       <c r="Q18">
-        <v>1151.278</v>
+        <v>1108.413</v>
       </c>
       <c r="R18">
-        <v>0.962</v>
+        <v>2.566</v>
       </c>
       <c r="U18">
-        <v>28.567</v>
+        <v>43.83</v>
       </c>
       <c r="V18">
-        <v>0.513</v>
+        <v>2.272</v>
       </c>
       <c r="W18">
-        <v>28.567</v>
+        <v>43.83</v>
       </c>
       <c r="X18">
-        <v>0.01795778345643575</v>
+        <v>0.05183664156970112</v>
       </c>
       <c r="Y18">
-        <v>0.513</v>
+        <v>2.272</v>
       </c>
       <c r="Z18">
-        <v>0.5093141649455666</v>
+        <v>1.429434268765686</v>
       </c>
       <c r="AA18">
-        <v>1.622549019607843</v>
+        <v>0.4005602240896359</v>
       </c>
       <c r="AB18">
-        <v>1.9035</v>
+        <v>2.5485</v>
       </c>
       <c r="AC18">
-        <v>0.125</v>
+        <v>0.2895</v>
       </c>
       <c r="AD18">
-        <v>106.1</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AE18">
-        <v>3.2763</v>
+        <v>1.706</v>
       </c>
       <c r="AF18">
-        <v>0.03378</v>
+        <v>0.04369</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
@@ -4283,34 +4286,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR18">
-        <v>27.5510204081633</v>
+        <v>24.4897959183673</v>
       </c>
       <c r="AS18">
-        <v>10.9285714285714</v>
+        <v>7.375</v>
       </c>
       <c r="AT18">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AU18">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AV18">
         <v>0</v>
       </c>
       <c r="AW18">
-        <v>94.78</v>
+        <v>41</v>
       </c>
       <c r="AX18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AY18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ18">
         <v>7</v>
       </c>
       <c r="BA18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB18" s="3">
         <v>45217</v>
@@ -4330,25 +4333,25 @@
         <v>142</v>
       </c>
       <c r="BG18">
-        <v>-0.2898826348881837</v>
+        <v>0.3564083270389812</v>
       </c>
       <c r="BH18">
-        <v>-0.2930142451429864</v>
+        <v>0.1551641895165409</v>
       </c>
       <c r="BI18">
-        <v>0.003612676056338028</v>
+        <v>0.016</v>
       </c>
       <c r="BJ18">
-        <v>-2.44217097927124</v>
+        <v>-1.795880017344075</v>
       </c>
       <c r="BK18">
-        <v>0.003586719471447652</v>
+        <v>0.01006643851243441</v>
       </c>
       <c r="BL18">
-        <v>239.1146314298435</v>
+        <v>671.0959008289605</v>
       </c>
       <c r="BM18">
-        <v>-2.445302589526043</v>
+        <v>-1.997124154866516</v>
       </c>
     </row>
     <row r="19">
@@ -4359,95 +4362,92 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19">
-        <v>28.36175</v>
+        <v>27.57575</v>
       </c>
       <c r="D19" s="2">
         <v>45359</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F19">
-        <v>1.032</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>26.922</v>
+        <v>14.656</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>NA | minor</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P19">
-        <v>1143.294</v>
-      </c>
-      <c r="Q19">
-        <v>1144.669</v>
+        <v>1105.474</v>
       </c>
       <c r="R19">
-        <v>0.866</v>
+        <v>0.894</v>
       </c>
       <c r="U19">
-        <v>27.954</v>
+        <v>43.83</v>
       </c>
       <c r="V19">
-        <v>0.535</v>
+        <v>0.953</v>
       </c>
       <c r="W19">
-        <v>27.954</v>
+        <v>43.83</v>
       </c>
       <c r="X19">
-        <v>0.01913858481791515</v>
+        <v>0.0217430983344741</v>
       </c>
       <c r="Y19">
-        <v>0.535</v>
+        <v>0.953</v>
       </c>
       <c r="Z19">
-        <v>0.5428037579595049</v>
+        <v>0.5995822438968742</v>
       </c>
       <c r="AA19">
-        <v>1.622549019607843</v>
+        <v>0.4005602240896359</v>
       </c>
       <c r="AB19">
-        <v>1.9035</v>
+        <v>2.5485</v>
       </c>
       <c r="AC19">
-        <v>0.125</v>
+        <v>0.2895</v>
       </c>
       <c r="AD19">
-        <v>106.1</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AE19">
-        <v>3.2763</v>
+        <v>1.706</v>
       </c>
       <c r="AF19">
-        <v>0.03378</v>
+        <v>0.04369</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
@@ -4497,34 +4497,34 @@
         <v>53938.73</v>
       </c>
       <c r="AR19">
-        <v>27.5510204081633</v>
+        <v>24.4897959183673</v>
       </c>
       <c r="AS19">
-        <v>10.9285714285714</v>
+        <v>7.375</v>
       </c>
       <c r="AT19">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AU19">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AV19">
         <v>0</v>
       </c>
       <c r="AW19">
-        <v>94.78</v>
+        <v>41</v>
       </c>
       <c r="AX19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AY19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ19">
         <v>7</v>
       </c>
       <c r="BA19">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB19" s="3">
         <v>45217</v>
@@ -4544,25 +4544,25 @@
         <v>142</v>
       </c>
       <c r="BG19">
-        <v>-0.2716462179787715</v>
+        <v>-0.02090709936167361</v>
       </c>
       <c r="BH19">
-        <v>-0.2653571542779111</v>
+        <v>-0.222151236884114</v>
       </c>
       <c r="BI19">
-        <v>0.003767605633802817</v>
+        <v>0.006711267605633803</v>
       </c>
       <c r="BJ19">
-        <v>-2.423934562361828</v>
+        <v>-2.17319544374473</v>
       </c>
       <c r="BK19">
-        <v>0.003822561675771161</v>
+        <v>0.004222410168287847</v>
       </c>
       <c r="BL19">
-        <v>254.8374450514108</v>
+        <v>281.4940112191898</v>
       </c>
       <c r="BM19">
-        <v>-2.417645498660967</v>
+        <v>-2.374439581267171</v>
       </c>
     </row>
     <row r="20">
@@ -9975,29 +9975,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45">
-        <v>27.87125</v>
+        <v>27.9825</v>
       </c>
       <c r="D45" s="2">
         <v>45357</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45">
-        <v>27.24</v>
+        <v>28.13</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -10020,50 +10020,65 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P45">
-        <v>1114.772</v>
+        <v>1091.454</v>
       </c>
       <c r="Q45">
-        <v>1115.958</v>
+        <v>1094.773</v>
       </c>
       <c r="R45">
-        <v>0.986</v>
+        <v>3.385</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>some</t>
+        </is>
       </c>
       <c r="U45">
-        <v>28.24</v>
+        <v>29.12</v>
       </c>
       <c r="V45">
-        <v>0.619</v>
+        <v>2.032</v>
       </c>
       <c r="W45">
-        <v>28.24</v>
+        <v>29.12</v>
       </c>
       <c r="X45">
-        <v>0.02191926345609065</v>
+        <v>0.06978021978021978</v>
       </c>
       <c r="Y45">
-        <v>0.619</v>
+        <v>2.032</v>
       </c>
       <c r="Z45">
-        <v>0.6109172716005665</v>
+        <v>1.952625</v>
       </c>
       <c r="AA45">
-        <v>3.301820728291317</v>
+        <v>1.878851540616247</v>
       </c>
       <c r="AB45">
-        <v>3.5925</v>
+        <v>2.2245</v>
       </c>
       <c r="AC45">
-        <v>0.2235</v>
+        <v>0.2015</v>
       </c>
       <c r="AD45">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="AE45">
-        <v>3.0008</v>
+        <v>3.4627</v>
       </c>
       <c r="AF45">
-        <v>0.05969</v>
+        <v>0.0585</v>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
@@ -10113,34 +10128,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR45">
-        <v>14.2857142857143</v>
+        <v>35.7142857142857</v>
       </c>
       <c r="AS45">
-        <v>9.857142857142859</v>
+        <v>11.8285714285714</v>
       </c>
       <c r="AT45">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AU45">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AV45">
         <v>2</v>
       </c>
       <c r="AW45">
-        <v>62.5</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="AX45">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AY45">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AZ45">
         <v>19</v>
       </c>
       <c r="BA45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB45" s="3">
         <v>45216</v>
@@ -10160,25 +10175,25 @@
         <v>141</v>
       </c>
       <c r="BG45">
-        <v>-0.208309350979882</v>
+        <v>0.3079237036118816</v>
       </c>
       <c r="BH45">
-        <v>-0.214017596500358</v>
+        <v>0.2906188454034113</v>
       </c>
       <c r="BI45">
-        <v>0.004390070921985815</v>
+        <v>0.0144113475177305</v>
       </c>
       <c r="BJ45">
-        <v>-2.357528463635262</v>
+        <v>-1.841295409043498</v>
       </c>
       <c r="BK45">
-        <v>0.004332746607096216</v>
+        <v>0.01384840425531915</v>
       </c>
       <c r="BL45">
-        <v>288.8497738064144</v>
+        <v>923.2269503546102</v>
       </c>
       <c r="BM45">
-        <v>-2.363236709155738</v>
+        <v>-1.858600267251969</v>
       </c>
     </row>
     <row r="46">
@@ -10189,11 +10204,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46">
-        <v>27.87125</v>
+        <v>27.9825</v>
       </c>
       <c r="D46" s="2">
         <v>45357</v>
@@ -10204,14 +10219,14 @@
         </is>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="G46">
-        <v>26.1</v>
+        <v>26.94</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -10234,55 +10249,60 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P46">
-        <v>1110.547</v>
+        <v>1125.315</v>
       </c>
       <c r="Q46">
-        <v>1112.415</v>
+        <v>1126.702</v>
       </c>
       <c r="R46">
-        <v>1.289</v>
+        <v>1.371</v>
       </c>
       <c r="U46">
-        <v>27.1</v>
+        <v>27.95</v>
       </c>
       <c r="V46">
-        <v>1.054</v>
+        <v>1.098</v>
       </c>
       <c r="W46">
-        <v>27.1</v>
+        <v>27.95</v>
       </c>
       <c r="X46">
-        <v>0.0388929889298893</v>
+        <v>0.03928443649373881</v>
       </c>
       <c r="Y46">
-        <v>1.054</v>
+        <v>1.098</v>
       </c>
       <c r="Z46">
-        <v>1.083996217712177</v>
+        <v>1.099276744186046</v>
       </c>
       <c r="AA46">
-        <v>3.301820728291317</v>
+        <v>1.878851540616247</v>
       </c>
       <c r="AB46">
-        <v>3.5925</v>
+        <v>2.2245</v>
       </c>
       <c r="AC46">
-        <v>0.2235</v>
+        <v>0.2015</v>
       </c>
       <c r="AD46">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="AE46">
-        <v>3.0008</v>
+        <v>3.4627</v>
       </c>
       <c r="AF46">
-        <v>0.05969</v>
+        <v>0.0585</v>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
@@ -10332,34 +10352,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR46">
-        <v>14.2857142857143</v>
+        <v>35.7142857142857</v>
       </c>
       <c r="AS46">
-        <v>9.857142857142859</v>
+        <v>11.8285714285714</v>
       </c>
       <c r="AT46">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AU46">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AV46">
         <v>2</v>
       </c>
       <c r="AW46">
-        <v>62.5</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="AX46">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AY46">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AZ46">
         <v>19</v>
       </c>
       <c r="BA46">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB46" s="3">
         <v>45216</v>
@@ -10379,25 +10399,25 @@
         <v>141</v>
       </c>
       <c r="BG46">
-        <v>0.02284061087652782</v>
+        <v>0.04060234011407305</v>
       </c>
       <c r="BH46">
-        <v>0.03502776686141224</v>
+        <v>0.04110704032416013</v>
       </c>
       <c r="BI46">
-        <v>0.007475177304964539</v>
+        <v>0.007787234042553191</v>
       </c>
       <c r="BJ46">
-        <v>-2.126378501778852</v>
+        <v>-2.108616772541307</v>
       </c>
       <c r="BK46">
-        <v>0.007687916437675016</v>
+        <v>0.007796288965858485</v>
       </c>
       <c r="BL46">
-        <v>512.5277625116678</v>
+        <v>519.752597723899</v>
       </c>
       <c r="BM46">
-        <v>-2.114191345793968</v>
+        <v>-2.10811207233122</v>
       </c>
     </row>
     <row r="47">
@@ -10408,29 +10428,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47">
-        <v>27.87125</v>
+        <v>27.9825</v>
       </c>
       <c r="D47" s="2">
         <v>45357</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F47">
         <v>1.01</v>
       </c>
       <c r="G47">
-        <v>26.72</v>
+        <v>26.57</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10445,7 +10465,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>minor | NA</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -10453,60 +10473,50 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P47">
-        <v>1109.676</v>
+        <v>1150.339</v>
       </c>
       <c r="Q47">
-        <v>1115.031</v>
+        <v>1155.782</v>
       </c>
       <c r="R47">
-        <v>4.619</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
+        <v>2.984</v>
       </c>
       <c r="U47">
-        <v>27.73</v>
+        <v>27.58</v>
       </c>
       <c r="V47">
-        <v>3.093</v>
+        <v>1.235</v>
       </c>
       <c r="W47">
-        <v>27.73</v>
+        <v>27.58</v>
       </c>
       <c r="X47">
-        <v>0.1115398485394879</v>
+        <v>0.04477882523567802</v>
       </c>
       <c r="Y47">
-        <v>3.093</v>
+        <v>1.235</v>
       </c>
       <c r="Z47">
-        <v>3.108755003606202</v>
+        <v>1.25302347715736</v>
       </c>
       <c r="AA47">
-        <v>3.301820728291317</v>
+        <v>1.878851540616247</v>
       </c>
       <c r="AB47">
-        <v>3.5925</v>
+        <v>2.2245</v>
       </c>
       <c r="AC47">
-        <v>0.2235</v>
+        <v>0.2015</v>
       </c>
       <c r="AD47">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="AE47">
-        <v>3.0008</v>
+        <v>3.4627</v>
       </c>
       <c r="AF47">
-        <v>0.05969</v>
+        <v>0.0585</v>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
@@ -10556,34 +10566,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR47">
-        <v>14.2857142857143</v>
+        <v>35.7142857142857</v>
       </c>
       <c r="AS47">
-        <v>9.857142857142859</v>
+        <v>11.8285714285714</v>
       </c>
       <c r="AT47">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AU47">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AV47">
         <v>2</v>
       </c>
       <c r="AW47">
-        <v>62.5</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="AX47">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AY47">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AZ47">
         <v>19</v>
       </c>
       <c r="BA47">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB47" s="3">
         <v>45216</v>
@@ -10603,25 +10613,25 @@
         <v>141</v>
       </c>
       <c r="BG47">
-        <v>0.490379920003179</v>
+        <v>0.0916669575956845</v>
       </c>
       <c r="BH47">
-        <v>0.4925864972846075</v>
+        <v>0.09795920818838268</v>
       </c>
       <c r="BI47">
-        <v>0.02193617021276596</v>
+        <v>0.008758865248226949</v>
       </c>
       <c r="BJ47">
-        <v>-1.658839192652201</v>
+        <v>-2.057552155059696</v>
       </c>
       <c r="BK47">
-        <v>0.02204790782699434</v>
+        <v>0.008886691327357164</v>
       </c>
       <c r="BL47">
-        <v>1469.860521799623</v>
+        <v>592.4460884904777</v>
       </c>
       <c r="BM47">
-        <v>-1.656632615370772</v>
+        <v>-2.051259904466997</v>
       </c>
     </row>
     <row r="48">
@@ -10632,11 +10642,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48">
-        <v>27.87125</v>
+        <v>27.9825</v>
       </c>
       <c r="D48" s="2">
         <v>45357</v>
@@ -10647,24 +10657,24 @@
         </is>
       </c>
       <c r="F48">
-        <v>1.015</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>27.4</v>
+        <v>26.28</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>could be switched with sample 36 | could be switched with sample 36</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | y</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -10677,55 +10687,60 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P48">
-        <v>1137.642</v>
+        <v>1109.934</v>
       </c>
       <c r="Q48">
-        <v>1146.851</v>
+        <v>1111.492</v>
       </c>
       <c r="R48">
-        <v>4.221</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
+        <v>1.637</v>
       </c>
       <c r="U48">
-        <v>28.415</v>
+        <v>27.28</v>
       </c>
       <c r="V48">
-        <v>2.944</v>
+        <v>1.003</v>
       </c>
       <c r="W48">
-        <v>28.415</v>
+        <v>27.28</v>
       </c>
       <c r="X48">
-        <v>0.1036072496920641</v>
+        <v>0.03676686217008798</v>
       </c>
       <c r="Y48">
-        <v>2.944</v>
+        <v>1.003</v>
       </c>
       <c r="Z48">
-        <v>2.88766355797994</v>
+        <v>1.028828720674487</v>
       </c>
       <c r="AA48">
-        <v>3.301820728291317</v>
+        <v>1.878851540616247</v>
       </c>
       <c r="AB48">
-        <v>3.5925</v>
+        <v>2.2245</v>
       </c>
       <c r="AC48">
-        <v>0.2235</v>
+        <v>0.2015</v>
       </c>
       <c r="AD48">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="AE48">
-        <v>3.0008</v>
+        <v>3.4627</v>
       </c>
       <c r="AF48">
-        <v>0.05969</v>
+        <v>0.0585</v>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
@@ -10775,34 +10790,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR48">
-        <v>14.2857142857143</v>
+        <v>35.7142857142857</v>
       </c>
       <c r="AS48">
-        <v>9.857142857142859</v>
+        <v>11.8285714285714</v>
       </c>
       <c r="AT48">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AU48">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AV48">
         <v>2</v>
       </c>
       <c r="AW48">
-        <v>62.5</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="AX48">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AY48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AZ48">
         <v>19</v>
       </c>
       <c r="BA48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB48" s="3">
         <v>45216</v>
@@ -10822,25 +10837,25 @@
         <v>141</v>
       </c>
       <c r="BG48">
-        <v>0.4689378056654612</v>
+        <v>0.001300933020418168</v>
       </c>
       <c r="BH48">
-        <v>0.4605465921440023</v>
+        <v>0.01234307946850596</v>
       </c>
       <c r="BI48">
-        <v>0.02087943262411348</v>
+        <v>0.007113475177304965</v>
       </c>
       <c r="BJ48">
-        <v>-1.680281306989919</v>
+        <v>-2.147918179634962</v>
       </c>
       <c r="BK48">
-        <v>0.02047988338992866</v>
+        <v>0.007296657593436077</v>
       </c>
       <c r="BL48">
-        <v>1365.325559328577</v>
+        <v>486.4438395624052</v>
       </c>
       <c r="BM48">
-        <v>-1.688672520511378</v>
+        <v>-2.136876033186874</v>
       </c>
     </row>
     <row r="49">
@@ -10851,29 +10866,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49">
-        <v>27.9825</v>
+        <v>27.87125</v>
       </c>
       <c r="D49" s="2">
         <v>45357</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>28.13</v>
+        <v>27.24</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10896,65 +10911,50 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P49">
-        <v>1091.454</v>
+        <v>1114.772</v>
       </c>
       <c r="Q49">
-        <v>1094.773</v>
+        <v>1115.958</v>
       </c>
       <c r="R49">
-        <v>3.385</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
+        <v>0.986</v>
       </c>
       <c r="U49">
-        <v>29.12</v>
+        <v>28.24</v>
       </c>
       <c r="V49">
-        <v>2.032</v>
+        <v>0.619</v>
       </c>
       <c r="W49">
-        <v>29.12</v>
+        <v>28.24</v>
       </c>
       <c r="X49">
-        <v>0.06978021978021978</v>
+        <v>0.02191926345609065</v>
       </c>
       <c r="Y49">
-        <v>2.032</v>
+        <v>0.619</v>
       </c>
       <c r="Z49">
-        <v>1.952625</v>
+        <v>0.6109172716005665</v>
       </c>
       <c r="AA49">
-        <v>1.878851540616247</v>
+        <v>3.301820728291317</v>
       </c>
       <c r="AB49">
-        <v>2.2245</v>
+        <v>3.5925</v>
       </c>
       <c r="AC49">
-        <v>0.2015</v>
+        <v>0.2235</v>
       </c>
       <c r="AD49">
-        <v>58.7</v>
+        <v>61.6</v>
       </c>
       <c r="AE49">
-        <v>3.4627</v>
+        <v>3.0008</v>
       </c>
       <c r="AF49">
-        <v>0.0585</v>
+        <v>0.05969</v>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
@@ -11004,34 +11004,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR49">
-        <v>35.7142857142857</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="AS49">
-        <v>11.8285714285714</v>
+        <v>9.857142857142859</v>
       </c>
       <c r="AT49">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AU49">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AV49">
         <v>2</v>
       </c>
       <c r="AW49">
-        <v>91.54000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="AX49">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AY49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AZ49">
         <v>19</v>
       </c>
       <c r="BA49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB49" s="3">
         <v>45216</v>
@@ -11051,25 +11051,25 @@
         <v>141</v>
       </c>
       <c r="BG49">
-        <v>0.3079237036118816</v>
+        <v>-0.208309350979882</v>
       </c>
       <c r="BH49">
-        <v>0.2906188454034113</v>
+        <v>-0.214017596500358</v>
       </c>
       <c r="BI49">
-        <v>0.0144113475177305</v>
+        <v>0.004390070921985815</v>
       </c>
       <c r="BJ49">
-        <v>-1.841295409043498</v>
+        <v>-2.357528463635262</v>
       </c>
       <c r="BK49">
-        <v>0.01384840425531915</v>
+        <v>0.004332746607096216</v>
       </c>
       <c r="BL49">
-        <v>923.2269503546102</v>
+        <v>288.8497738064144</v>
       </c>
       <c r="BM49">
-        <v>-1.858600267251969</v>
+        <v>-2.363236709155738</v>
       </c>
     </row>
     <row r="50">
@@ -11080,11 +11080,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50">
-        <v>27.9825</v>
+        <v>27.87125</v>
       </c>
       <c r="D50" s="2">
         <v>45357</v>
@@ -11095,14 +11095,14 @@
         </is>
       </c>
       <c r="F50">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>26.94</v>
+        <v>26.1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11125,60 +11125,55 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P50">
-        <v>1125.315</v>
+        <v>1110.547</v>
       </c>
       <c r="Q50">
-        <v>1126.702</v>
+        <v>1112.415</v>
       </c>
       <c r="R50">
-        <v>1.371</v>
+        <v>1.289</v>
       </c>
       <c r="U50">
-        <v>27.95</v>
+        <v>27.1</v>
       </c>
       <c r="V50">
-        <v>1.098</v>
+        <v>1.054</v>
       </c>
       <c r="W50">
-        <v>27.95</v>
+        <v>27.1</v>
       </c>
       <c r="X50">
-        <v>0.03928443649373881</v>
+        <v>0.0388929889298893</v>
       </c>
       <c r="Y50">
-        <v>1.098</v>
+        <v>1.054</v>
       </c>
       <c r="Z50">
-        <v>1.099276744186046</v>
+        <v>1.083996217712177</v>
       </c>
       <c r="AA50">
-        <v>1.878851540616247</v>
+        <v>3.301820728291317</v>
       </c>
       <c r="AB50">
-        <v>2.2245</v>
+        <v>3.5925</v>
       </c>
       <c r="AC50">
-        <v>0.2015</v>
+        <v>0.2235</v>
       </c>
       <c r="AD50">
-        <v>58.7</v>
+        <v>61.6</v>
       </c>
       <c r="AE50">
-        <v>3.4627</v>
+        <v>3.0008</v>
       </c>
       <c r="AF50">
-        <v>0.0585</v>
+        <v>0.05969</v>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
@@ -11228,34 +11223,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR50">
-        <v>35.7142857142857</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="AS50">
-        <v>11.8285714285714</v>
+        <v>9.857142857142859</v>
       </c>
       <c r="AT50">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AU50">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AV50">
         <v>2</v>
       </c>
       <c r="AW50">
-        <v>91.54000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="AX50">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AY50">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AZ50">
         <v>19</v>
       </c>
       <c r="BA50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB50" s="3">
         <v>45216</v>
@@ -11275,25 +11270,25 @@
         <v>141</v>
       </c>
       <c r="BG50">
-        <v>0.04060234011407305</v>
+        <v>0.02284061087652782</v>
       </c>
       <c r="BH50">
-        <v>0.04110704032416013</v>
+        <v>0.03502776686141224</v>
       </c>
       <c r="BI50">
-        <v>0.007787234042553191</v>
+        <v>0.007475177304964539</v>
       </c>
       <c r="BJ50">
-        <v>-2.108616772541307</v>
+        <v>-2.126378501778852</v>
       </c>
       <c r="BK50">
-        <v>0.007796288965858485</v>
+        <v>0.007687916437675016</v>
       </c>
       <c r="BL50">
-        <v>519.752597723899</v>
+        <v>512.5277625116678</v>
       </c>
       <c r="BM50">
-        <v>-2.10811207233122</v>
+        <v>-2.114191345793968</v>
       </c>
     </row>
     <row r="51">
@@ -11304,29 +11299,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51">
-        <v>27.9825</v>
+        <v>27.87125</v>
       </c>
       <c r="D51" s="2">
         <v>45357</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F51">
         <v>1.01</v>
       </c>
       <c r="G51">
-        <v>26.57</v>
+        <v>26.72</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11341,7 +11336,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>minor | NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -11349,50 +11344,60 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P51">
-        <v>1150.339</v>
+        <v>1109.676</v>
       </c>
       <c r="Q51">
-        <v>1155.782</v>
+        <v>1115.031</v>
       </c>
       <c r="R51">
-        <v>2.984</v>
+        <v>4.619</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
       </c>
       <c r="U51">
-        <v>27.58</v>
+        <v>27.73</v>
       </c>
       <c r="V51">
-        <v>1.235</v>
+        <v>3.093</v>
       </c>
       <c r="W51">
-        <v>27.58</v>
+        <v>27.73</v>
       </c>
       <c r="X51">
-        <v>0.04477882523567802</v>
+        <v>0.1115398485394879</v>
       </c>
       <c r="Y51">
-        <v>1.235</v>
+        <v>3.093</v>
       </c>
       <c r="Z51">
-        <v>1.25302347715736</v>
+        <v>3.108755003606202</v>
       </c>
       <c r="AA51">
-        <v>1.878851540616247</v>
+        <v>3.301820728291317</v>
       </c>
       <c r="AB51">
-        <v>2.2245</v>
+        <v>3.5925</v>
       </c>
       <c r="AC51">
-        <v>0.2015</v>
+        <v>0.2235</v>
       </c>
       <c r="AD51">
-        <v>58.7</v>
+        <v>61.6</v>
       </c>
       <c r="AE51">
-        <v>3.4627</v>
+        <v>3.0008</v>
       </c>
       <c r="AF51">
-        <v>0.0585</v>
+        <v>0.05969</v>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
@@ -11442,34 +11447,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR51">
-        <v>35.7142857142857</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="AS51">
-        <v>11.8285714285714</v>
+        <v>9.857142857142859</v>
       </c>
       <c r="AT51">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AU51">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AV51">
         <v>2</v>
       </c>
       <c r="AW51">
-        <v>91.54000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="AX51">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AY51">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AZ51">
         <v>19</v>
       </c>
       <c r="BA51">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB51" s="3">
         <v>45216</v>
@@ -11489,25 +11494,25 @@
         <v>141</v>
       </c>
       <c r="BG51">
-        <v>0.0916669575956845</v>
+        <v>0.490379920003179</v>
       </c>
       <c r="BH51">
-        <v>0.09795920818838268</v>
+        <v>0.4925864972846075</v>
       </c>
       <c r="BI51">
-        <v>0.008758865248226949</v>
+        <v>0.02193617021276596</v>
       </c>
       <c r="BJ51">
-        <v>-2.057552155059696</v>
+        <v>-1.658839192652201</v>
       </c>
       <c r="BK51">
-        <v>0.008886691327357164</v>
+        <v>0.02204790782699434</v>
       </c>
       <c r="BL51">
-        <v>592.4460884904777</v>
+        <v>1469.860521799623</v>
       </c>
       <c r="BM51">
-        <v>-2.051259904466997</v>
+        <v>-1.656632615370772</v>
       </c>
     </row>
     <row r="52">
@@ -11518,11 +11523,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52">
-        <v>27.9825</v>
+        <v>27.87125</v>
       </c>
       <c r="D52" s="2">
         <v>45357</v>
@@ -11533,24 +11538,24 @@
         </is>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>1.015</v>
       </c>
       <c r="G52">
-        <v>26.28</v>
+        <v>27.4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>could be switched with sample 36 | could be switched with sample 36</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>NA | y</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -11563,60 +11568,55 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P52">
-        <v>1109.934</v>
+        <v>1137.642</v>
       </c>
       <c r="Q52">
-        <v>1111.492</v>
+        <v>1146.851</v>
       </c>
       <c r="R52">
-        <v>1.637</v>
+        <v>4.221</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
       </c>
       <c r="U52">
-        <v>27.28</v>
+        <v>28.415</v>
       </c>
       <c r="V52">
-        <v>1.003</v>
+        <v>2.944</v>
       </c>
       <c r="W52">
-        <v>27.28</v>
+        <v>28.415</v>
       </c>
       <c r="X52">
-        <v>0.03676686217008798</v>
+        <v>0.1036072496920641</v>
       </c>
       <c r="Y52">
-        <v>1.003</v>
+        <v>2.944</v>
       </c>
       <c r="Z52">
-        <v>1.028828720674487</v>
+        <v>2.88766355797994</v>
       </c>
       <c r="AA52">
-        <v>1.878851540616247</v>
+        <v>3.301820728291317</v>
       </c>
       <c r="AB52">
-        <v>2.2245</v>
+        <v>3.5925</v>
       </c>
       <c r="AC52">
-        <v>0.2015</v>
+        <v>0.2235</v>
       </c>
       <c r="AD52">
-        <v>58.7</v>
+        <v>61.6</v>
       </c>
       <c r="AE52">
-        <v>3.4627</v>
+        <v>3.0008</v>
       </c>
       <c r="AF52">
-        <v>0.0585</v>
+        <v>0.05969</v>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
@@ -11666,34 +11666,34 @@
         <v>17264.47</v>
       </c>
       <c r="AR52">
-        <v>35.7142857142857</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="AS52">
-        <v>11.8285714285714</v>
+        <v>9.857142857142859</v>
       </c>
       <c r="AT52">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AU52">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AV52">
         <v>2</v>
       </c>
       <c r="AW52">
-        <v>91.54000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="AX52">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AY52">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AZ52">
         <v>19</v>
       </c>
       <c r="BA52">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB52" s="3">
         <v>45216</v>
@@ -11713,25 +11713,25 @@
         <v>141</v>
       </c>
       <c r="BG52">
-        <v>0.001300933020418168</v>
+        <v>0.4689378056654612</v>
       </c>
       <c r="BH52">
-        <v>0.01234307946850596</v>
+        <v>0.4605465921440023</v>
       </c>
       <c r="BI52">
-        <v>0.007113475177304965</v>
+        <v>0.02087943262411348</v>
       </c>
       <c r="BJ52">
-        <v>-2.147918179634962</v>
+        <v>-1.680281306989919</v>
       </c>
       <c r="BK52">
-        <v>0.007296657593436077</v>
+        <v>0.02047988338992866</v>
       </c>
       <c r="BL52">
-        <v>486.4438395624052</v>
+        <v>1365.325559328577</v>
       </c>
       <c r="BM52">
-        <v>-2.136876033186874</v>
+        <v>-1.688672520511378</v>
       </c>
     </row>
     <row r="53">
@@ -11742,34 +11742,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53">
-        <v>27.13</v>
+        <v>29.18</v>
       </c>
       <c r="D53" s="2">
         <v>45359</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F53">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="G53">
-        <v>25.93</v>
+        <v>26.32</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>could be switched with sample 4 | could be switched with sample 4</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>NA | minor</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -11787,55 +11787,52 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P53">
-        <v>1137.05</v>
+        <v>1150.472</v>
       </c>
       <c r="Q53">
-        <v>1139.141</v>
+        <v>1151.973</v>
       </c>
       <c r="R53">
-        <v>1.462</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
+        <v>1.318</v>
       </c>
       <c r="U53">
-        <v>26.97</v>
+        <v>27.3</v>
       </c>
       <c r="V53">
-        <v>1.171</v>
+        <v>1.143</v>
       </c>
       <c r="W53">
-        <v>26.97</v>
+        <v>27.3</v>
       </c>
       <c r="X53">
-        <v>0.04341861327400816</v>
+        <v>0.04186813186813187</v>
       </c>
       <c r="Y53">
-        <v>1.171</v>
+        <v>1.143</v>
       </c>
       <c r="Z53">
-        <v>1.177946978123841</v>
+        <v>1.221712087912088</v>
       </c>
       <c r="AA53">
-        <v>0.4075630252100841</v>
+        <v>1.343837535014006</v>
       </c>
       <c r="AB53">
-        <v>10.5175</v>
+        <v>3.3145</v>
       </c>
       <c r="AC53">
-        <v>0.0775</v>
-      </c>
-      <c r="AD53">
-        <v>36.8</v>
+        <v>0.08949999999999998</v>
       </c>
       <c r="AE53">
-        <v>2.7508</v>
+        <v>2.895</v>
       </c>
       <c r="AF53">
-        <v>0.02699</v>
+        <v>0.02581</v>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
@@ -11885,34 +11882,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR53">
-        <v>44.8979591836735</v>
+        <v>39.7959183673469</v>
       </c>
       <c r="AS53">
-        <v>16.75</v>
+        <v>12.8974358974359</v>
       </c>
       <c r="AT53">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AU53">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AV53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW53">
-        <v>57.62</v>
+        <v>42.76</v>
       </c>
       <c r="AX53">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AY53">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ53">
         <v>48</v>
       </c>
       <c r="BA53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB53" s="3">
         <v>45197</v>
@@ -11932,25 +11929,25 @@
         <v>162</v>
       </c>
       <c r="BG53">
-        <v>0.06855689507236315</v>
+        <v>0.05804623039528174</v>
       </c>
       <c r="BH53">
-        <v>0.07112574238106799</v>
+        <v>0.08696887091195853</v>
       </c>
       <c r="BI53">
-        <v>0.007228395061728395</v>
+        <v>0.007055555555555555</v>
       </c>
       <c r="BJ53">
-        <v>-2.140958119470268</v>
+        <v>-2.151468784147349</v>
       </c>
       <c r="BK53">
-        <v>0.00727127764273976</v>
+        <v>0.007541432641432642</v>
       </c>
       <c r="BL53">
-        <v>484.7518428493174</v>
+        <v>502.7621760955095</v>
       </c>
       <c r="BM53">
-        <v>-2.138389272161563</v>
+        <v>-2.122546143630673</v>
       </c>
     </row>
     <row r="54">
@@ -11961,29 +11958,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54">
-        <v>27.13</v>
+        <v>29.18</v>
       </c>
       <c r="D54" s="2">
         <v>45359</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F54">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="G54">
-        <v>26.04</v>
+        <v>26.53</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12006,55 +12003,52 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P54">
-        <v>1109.911</v>
+        <v>1115.305</v>
       </c>
       <c r="Q54">
-        <v>1113.929</v>
+        <v>1118.379</v>
       </c>
       <c r="R54">
-        <v>3.889</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
+        <v>2.945</v>
       </c>
       <c r="U54">
-        <v>27.03</v>
+        <v>27.57</v>
       </c>
       <c r="V54">
-        <v>1.945</v>
+        <v>1.608</v>
       </c>
       <c r="W54">
-        <v>27.03</v>
+        <v>27.57</v>
       </c>
       <c r="X54">
-        <v>0.07195708472068073</v>
+        <v>0.05832426550598476</v>
       </c>
       <c r="Y54">
-        <v>1.945</v>
+        <v>1.608</v>
       </c>
       <c r="Z54">
-        <v>1.952195708472068</v>
+        <v>1.701902067464635</v>
       </c>
       <c r="AA54">
-        <v>0.4075630252100841</v>
+        <v>1.343837535014006</v>
       </c>
       <c r="AB54">
-        <v>10.5175</v>
+        <v>3.3145</v>
       </c>
       <c r="AC54">
-        <v>0.0775</v>
-      </c>
-      <c r="AD54">
-        <v>36.8</v>
+        <v>0.08949999999999998</v>
       </c>
       <c r="AE54">
-        <v>2.7508</v>
+        <v>2.895</v>
       </c>
       <c r="AF54">
-        <v>0.02699</v>
+        <v>0.02581</v>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
@@ -12104,34 +12098,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR54">
-        <v>44.8979591836735</v>
+        <v>39.7959183673469</v>
       </c>
       <c r="AS54">
-        <v>16.75</v>
+        <v>12.8974358974359</v>
       </c>
       <c r="AT54">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AU54">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AV54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW54">
-        <v>57.62</v>
+        <v>42.76</v>
       </c>
       <c r="AX54">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AY54">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ54">
         <v>48</v>
       </c>
       <c r="BA54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB54" s="3">
         <v>45197</v>
@@ -12151,25 +12145,25 @@
         <v>162</v>
       </c>
       <c r="BG54">
-        <v>0.2889196056617265</v>
+        <v>0.2062860444124324</v>
       </c>
       <c r="BH54">
-        <v>0.2905233537245972</v>
+        <v>0.2309345658640915</v>
       </c>
       <c r="BI54">
-        <v>0.01200617283950617</v>
+        <v>0.009925925925925925</v>
       </c>
       <c r="BJ54">
-        <v>-1.920595408880905</v>
+        <v>-2.003228970130198</v>
       </c>
       <c r="BK54">
-        <v>0.01205059079303746</v>
+        <v>0.01050556831768293</v>
       </c>
       <c r="BL54">
-        <v>803.3727195358305</v>
+        <v>700.3712211788622</v>
       </c>
       <c r="BM54">
-        <v>-1.918991660818034</v>
+        <v>-1.978580448678539</v>
       </c>
     </row>
     <row r="55">
@@ -12180,11 +12174,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55">
-        <v>27.13</v>
+        <v>29.18</v>
       </c>
       <c r="D55" s="2">
         <v>45359</v>
@@ -12198,11 +12192,11 @@
         <v>1.01</v>
       </c>
       <c r="G55">
-        <v>26.56</v>
+        <v>27.35</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -12217,7 +12211,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>minor | NA</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -12225,50 +12219,52 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P55">
-        <v>1114.863</v>
+        <v>1109.99</v>
       </c>
       <c r="Q55">
-        <v>1117.822</v>
+        <v>1114.391</v>
       </c>
       <c r="R55">
-        <v>1.456</v>
+        <v>4.667</v>
       </c>
       <c r="U55">
-        <v>27.57</v>
+        <v>28.36</v>
       </c>
       <c r="V55">
-        <v>1.069</v>
+        <v>3.625</v>
       </c>
       <c r="W55">
-        <v>27.57</v>
+        <v>28.36</v>
       </c>
       <c r="X55">
-        <v>0.0387740297424737</v>
+        <v>0.127820874471086</v>
       </c>
       <c r="Y55">
-        <v>1.069</v>
+        <v>3.625</v>
       </c>
       <c r="Z55">
-        <v>1.051939426913311</v>
+        <v>3.72981311706629</v>
       </c>
       <c r="AA55">
-        <v>0.4075630252100841</v>
+        <v>1.343837535014006</v>
       </c>
       <c r="AB55">
-        <v>10.5175</v>
+        <v>3.3145</v>
       </c>
       <c r="AC55">
-        <v>0.0775</v>
-      </c>
-      <c r="AD55">
-        <v>36.8</v>
+        <v>0.08949999999999998</v>
       </c>
       <c r="AE55">
-        <v>2.7508</v>
+        <v>2.895</v>
       </c>
       <c r="AF55">
-        <v>0.02699</v>
+        <v>0.02581</v>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
@@ -12318,34 +12314,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR55">
-        <v>44.8979591836735</v>
+        <v>39.7959183673469</v>
       </c>
       <c r="AS55">
-        <v>16.75</v>
+        <v>12.8974358974359</v>
       </c>
       <c r="AT55">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AU55">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AV55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW55">
-        <v>57.62</v>
+        <v>42.76</v>
       </c>
       <c r="AX55">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AY55">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ55">
         <v>48</v>
       </c>
       <c r="BA55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB55" s="3">
         <v>45197</v>
@@ -12365,25 +12361,25 @@
         <v>162</v>
       </c>
       <c r="BG55">
-        <v>0.028977705208778</v>
+        <v>0.5593080109070125</v>
       </c>
       <c r="BH55">
-        <v>0.02199073286460032</v>
+        <v>0.5716870719534164</v>
       </c>
       <c r="BI55">
-        <v>0.006598765432098765</v>
+        <v>0.02237654320987655</v>
       </c>
       <c r="BJ55">
-        <v>-2.180537309333853</v>
+        <v>-1.650207003635618</v>
       </c>
       <c r="BK55">
-        <v>0.006493453252551304</v>
+        <v>0.02302353775966846</v>
       </c>
       <c r="BL55">
-        <v>432.8968835034203</v>
+        <v>1534.902517311231</v>
       </c>
       <c r="BM55">
-        <v>-2.18752428167803</v>
+        <v>-1.637827942589215</v>
       </c>
     </row>
     <row r="56">
@@ -12394,11 +12390,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56">
-        <v>27.13</v>
+        <v>29.18</v>
       </c>
       <c r="D56" s="2">
         <v>45359</v>
@@ -12409,14 +12405,14 @@
         </is>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G56">
-        <v>25.95</v>
+        <v>32.5</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -12426,12 +12422,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>y | y</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>NA | minor</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -12439,60 +12435,54 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P56">
-        <v>1119.411</v>
-      </c>
-      <c r="Q56">
-        <v>1124.031</v>
+        <v>1119.883</v>
       </c>
       <c r="R56">
-        <v>3.656</v>
+        <v>0.832</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>didn’t dry first round</t>
+        </is>
       </c>
       <c r="U56">
-        <v>26.95</v>
+        <v>33.49</v>
       </c>
       <c r="V56">
-        <v>1.977</v>
+        <v>0.748</v>
       </c>
       <c r="W56">
-        <v>26.95</v>
+        <v>33.49</v>
       </c>
       <c r="X56">
-        <v>0.07335807050092764</v>
+        <v>0.02233502538071066</v>
       </c>
       <c r="Y56">
-        <v>1.977</v>
+        <v>0.748</v>
       </c>
       <c r="Z56">
-        <v>1.990204452690167</v>
+        <v>0.651736040609137</v>
       </c>
       <c r="AA56">
-        <v>0.4075630252100841</v>
+        <v>1.343837535014006</v>
       </c>
       <c r="AB56">
-        <v>10.5175</v>
+        <v>3.3145</v>
       </c>
       <c r="AC56">
-        <v>0.0775</v>
-      </c>
-      <c r="AD56">
-        <v>36.8</v>
+        <v>0.08949999999999998</v>
       </c>
       <c r="AE56">
-        <v>2.7508</v>
+        <v>2.895</v>
       </c>
       <c r="AF56">
-        <v>0.02699</v>
+        <v>0.02581</v>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
@@ -12542,34 +12532,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR56">
-        <v>44.8979591836735</v>
+        <v>39.7959183673469</v>
       </c>
       <c r="AS56">
-        <v>16.75</v>
+        <v>12.8974358974359</v>
       </c>
       <c r="AT56">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AU56">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AV56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW56">
-        <v>57.62</v>
+        <v>42.76</v>
       </c>
       <c r="AX56">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AY56">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ56">
         <v>48</v>
       </c>
       <c r="BA56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB56" s="3">
         <v>45197</v>
@@ -12589,25 +12579,25 @@
         <v>162</v>
       </c>
       <c r="BG56">
-        <v>0.2960066693136723</v>
+        <v>-0.1260984021355386</v>
       </c>
       <c r="BH56">
-        <v>0.2988976935525109</v>
+        <v>-0.1859282621179727</v>
       </c>
       <c r="BI56">
-        <v>0.0122037037037037</v>
+        <v>0.004617283950617284</v>
       </c>
       <c r="BJ56">
-        <v>-1.913508345228959</v>
+        <v>-2.33561341667817</v>
       </c>
       <c r="BK56">
-        <v>0.01228521267092696</v>
+        <v>0.004023061979068747</v>
       </c>
       <c r="BL56">
-        <v>819.0141780617971</v>
+        <v>268.2041319379165</v>
       </c>
       <c r="BM56">
-        <v>-1.91061732099012</v>
+        <v>-2.395443276660604</v>
       </c>
     </row>
     <row r="57">
@@ -12618,34 +12608,34 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57">
-        <v>29.18</v>
+        <v>27.13</v>
       </c>
       <c r="D57" s="2">
         <v>45359</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F57">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="G57">
-        <v>26.32</v>
+        <v>25.93</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>could be switched with sample 4 | could be switched with sample 4</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -12655,7 +12645,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | minor</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -12663,52 +12653,55 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P57">
-        <v>1150.472</v>
+        <v>1137.05</v>
       </c>
       <c r="Q57">
-        <v>1151.973</v>
+        <v>1139.141</v>
       </c>
       <c r="R57">
-        <v>1.318</v>
+        <v>1.462</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>some</t>
+        </is>
       </c>
       <c r="U57">
-        <v>27.3</v>
+        <v>26.97</v>
       </c>
       <c r="V57">
-        <v>1.143</v>
+        <v>1.171</v>
       </c>
       <c r="W57">
-        <v>27.3</v>
+        <v>26.97</v>
       </c>
       <c r="X57">
-        <v>0.04186813186813187</v>
+        <v>0.04341861327400816</v>
       </c>
       <c r="Y57">
-        <v>1.143</v>
+        <v>1.171</v>
       </c>
       <c r="Z57">
-        <v>1.221712087912088</v>
+        <v>1.177946978123841</v>
       </c>
       <c r="AA57">
-        <v>1.343837535014006</v>
+        <v>0.4075630252100841</v>
       </c>
       <c r="AB57">
-        <v>3.3145</v>
+        <v>10.5175</v>
       </c>
       <c r="AC57">
-        <v>0.08949999999999998</v>
+        <v>0.0775</v>
+      </c>
+      <c r="AD57">
+        <v>36.8</v>
       </c>
       <c r="AE57">
-        <v>2.895</v>
+        <v>2.7508</v>
       </c>
       <c r="AF57">
-        <v>0.02581</v>
+        <v>0.02699</v>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
@@ -12758,34 +12751,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR57">
-        <v>39.7959183673469</v>
+        <v>44.8979591836735</v>
       </c>
       <c r="AS57">
-        <v>12.8974358974359</v>
+        <v>16.75</v>
       </c>
       <c r="AT57">
+        <v>64</v>
+      </c>
+      <c r="AU57">
         <v>32</v>
       </c>
-      <c r="AU57">
-        <v>16</v>
-      </c>
       <c r="AV57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW57">
-        <v>42.76</v>
+        <v>57.62</v>
       </c>
       <c r="AX57">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AY57">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ57">
         <v>48</v>
       </c>
       <c r="BA57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="3">
         <v>45197</v>
@@ -12805,25 +12798,25 @@
         <v>162</v>
       </c>
       <c r="BG57">
-        <v>0.05804623039528174</v>
+        <v>0.06855689507236315</v>
       </c>
       <c r="BH57">
-        <v>0.08696887091195853</v>
+        <v>0.07112574238106799</v>
       </c>
       <c r="BI57">
-        <v>0.007055555555555555</v>
+        <v>0.007228395061728395</v>
       </c>
       <c r="BJ57">
-        <v>-2.151468784147349</v>
+        <v>-2.140958119470268</v>
       </c>
       <c r="BK57">
-        <v>0.007541432641432642</v>
+        <v>0.00727127764273976</v>
       </c>
       <c r="BL57">
-        <v>502.7621760955095</v>
+        <v>484.7518428493174</v>
       </c>
       <c r="BM57">
-        <v>-2.122546143630673</v>
+        <v>-2.138389272161563</v>
       </c>
     </row>
     <row r="58">
@@ -12834,29 +12827,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58">
-        <v>29.18</v>
+        <v>27.13</v>
       </c>
       <c r="D58" s="2">
         <v>45359</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F58">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="G58">
-        <v>26.53</v>
+        <v>26.04</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12879,52 +12872,55 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P58">
-        <v>1115.305</v>
+        <v>1109.911</v>
       </c>
       <c r="Q58">
-        <v>1118.379</v>
+        <v>1113.929</v>
       </c>
       <c r="R58">
-        <v>2.945</v>
+        <v>3.889</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>some</t>
+        </is>
       </c>
       <c r="U58">
-        <v>27.57</v>
+        <v>27.03</v>
       </c>
       <c r="V58">
-        <v>1.608</v>
+        <v>1.945</v>
       </c>
       <c r="W58">
-        <v>27.57</v>
+        <v>27.03</v>
       </c>
       <c r="X58">
-        <v>0.05832426550598476</v>
+        <v>0.07195708472068073</v>
       </c>
       <c r="Y58">
-        <v>1.608</v>
+        <v>1.945</v>
       </c>
       <c r="Z58">
-        <v>1.701902067464635</v>
+        <v>1.952195708472068</v>
       </c>
       <c r="AA58">
-        <v>1.343837535014006</v>
+        <v>0.4075630252100841</v>
       </c>
       <c r="AB58">
-        <v>3.3145</v>
+        <v>10.5175</v>
       </c>
       <c r="AC58">
-        <v>0.08949999999999998</v>
+        <v>0.0775</v>
+      </c>
+      <c r="AD58">
+        <v>36.8</v>
       </c>
       <c r="AE58">
-        <v>2.895</v>
+        <v>2.7508</v>
       </c>
       <c r="AF58">
-        <v>0.02581</v>
+        <v>0.02699</v>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
@@ -12974,34 +12970,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR58">
-        <v>39.7959183673469</v>
+        <v>44.8979591836735</v>
       </c>
       <c r="AS58">
-        <v>12.8974358974359</v>
+        <v>16.75</v>
       </c>
       <c r="AT58">
+        <v>64</v>
+      </c>
+      <c r="AU58">
         <v>32</v>
       </c>
-      <c r="AU58">
-        <v>16</v>
-      </c>
       <c r="AV58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW58">
-        <v>42.76</v>
+        <v>57.62</v>
       </c>
       <c r="AX58">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AY58">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ58">
         <v>48</v>
       </c>
       <c r="BA58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="3">
         <v>45197</v>
@@ -13021,25 +13017,25 @@
         <v>162</v>
       </c>
       <c r="BG58">
-        <v>0.2062860444124324</v>
+        <v>0.2889196056617265</v>
       </c>
       <c r="BH58">
-        <v>0.2309345658640915</v>
+        <v>0.2905233537245972</v>
       </c>
       <c r="BI58">
-        <v>0.009925925925925925</v>
+        <v>0.01200617283950617</v>
       </c>
       <c r="BJ58">
-        <v>-2.003228970130198</v>
+        <v>-1.920595408880905</v>
       </c>
       <c r="BK58">
-        <v>0.01050556831768293</v>
+        <v>0.01205059079303746</v>
       </c>
       <c r="BL58">
-        <v>700.3712211788622</v>
+        <v>803.3727195358305</v>
       </c>
       <c r="BM58">
-        <v>-1.978580448678539</v>
+        <v>-1.918991660818034</v>
       </c>
     </row>
     <row r="59">
@@ -13050,11 +13046,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59">
-        <v>29.18</v>
+        <v>27.13</v>
       </c>
       <c r="D59" s="2">
         <v>45359</v>
@@ -13068,11 +13064,11 @@
         <v>1.01</v>
       </c>
       <c r="G59">
-        <v>27.35</v>
+        <v>26.56</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -13087,7 +13083,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>minor | NA</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -13095,52 +13091,50 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P59">
-        <v>1109.99</v>
+        <v>1114.863</v>
       </c>
       <c r="Q59">
-        <v>1114.391</v>
+        <v>1117.822</v>
       </c>
       <c r="R59">
-        <v>4.667</v>
+        <v>1.456</v>
       </c>
       <c r="U59">
-        <v>28.36</v>
+        <v>27.57</v>
       </c>
       <c r="V59">
-        <v>3.625</v>
+        <v>1.069</v>
       </c>
       <c r="W59">
-        <v>28.36</v>
+        <v>27.57</v>
       </c>
       <c r="X59">
-        <v>0.127820874471086</v>
+        <v>0.0387740297424737</v>
       </c>
       <c r="Y59">
-        <v>3.625</v>
+        <v>1.069</v>
       </c>
       <c r="Z59">
-        <v>3.72981311706629</v>
+        <v>1.051939426913311</v>
       </c>
       <c r="AA59">
-        <v>1.343837535014006</v>
+        <v>0.4075630252100841</v>
       </c>
       <c r="AB59">
-        <v>3.3145</v>
+        <v>10.5175</v>
       </c>
       <c r="AC59">
-        <v>0.08949999999999998</v>
+        <v>0.0775</v>
+      </c>
+      <c r="AD59">
+        <v>36.8</v>
       </c>
       <c r="AE59">
-        <v>2.895</v>
+        <v>2.7508</v>
       </c>
       <c r="AF59">
-        <v>0.02581</v>
+        <v>0.02699</v>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
@@ -13190,34 +13184,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR59">
-        <v>39.7959183673469</v>
+        <v>44.8979591836735</v>
       </c>
       <c r="AS59">
-        <v>12.8974358974359</v>
+        <v>16.75</v>
       </c>
       <c r="AT59">
+        <v>64</v>
+      </c>
+      <c r="AU59">
         <v>32</v>
       </c>
-      <c r="AU59">
-        <v>16</v>
-      </c>
       <c r="AV59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW59">
-        <v>42.76</v>
+        <v>57.62</v>
       </c>
       <c r="AX59">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AY59">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ59">
         <v>48</v>
       </c>
       <c r="BA59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="3">
         <v>45197</v>
@@ -13237,25 +13231,25 @@
         <v>162</v>
       </c>
       <c r="BG59">
-        <v>0.5593080109070125</v>
+        <v>0.028977705208778</v>
       </c>
       <c r="BH59">
-        <v>0.5716870719534164</v>
+        <v>0.02199073286460032</v>
       </c>
       <c r="BI59">
-        <v>0.02237654320987655</v>
+        <v>0.006598765432098765</v>
       </c>
       <c r="BJ59">
-        <v>-1.650207003635618</v>
+        <v>-2.180537309333853</v>
       </c>
       <c r="BK59">
-        <v>0.02302353775966846</v>
+        <v>0.006493453252551304</v>
       </c>
       <c r="BL59">
-        <v>1534.902517311231</v>
+        <v>432.8968835034203</v>
       </c>
       <c r="BM59">
-        <v>-1.637827942589215</v>
+        <v>-2.18752428167803</v>
       </c>
     </row>
     <row r="60">
@@ -13266,11 +13260,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60">
-        <v>29.18</v>
+        <v>27.13</v>
       </c>
       <c r="D60" s="2">
         <v>45359</v>
@@ -13281,14 +13275,14 @@
         </is>
       </c>
       <c r="F60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>32.5</v>
+        <v>25.95</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -13298,12 +13292,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>y | y</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | minor</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -13311,54 +13305,60 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
       <c r="P60">
-        <v>1119.883</v>
+        <v>1119.411</v>
+      </c>
+      <c r="Q60">
+        <v>1124.031</v>
       </c>
       <c r="R60">
-        <v>0.832</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>didn’t dry first round</t>
-        </is>
+        <v>3.656</v>
       </c>
       <c r="U60">
-        <v>33.49</v>
+        <v>26.95</v>
       </c>
       <c r="V60">
-        <v>0.748</v>
+        <v>1.977</v>
       </c>
       <c r="W60">
-        <v>33.49</v>
+        <v>26.95</v>
       </c>
       <c r="X60">
-        <v>0.02233502538071066</v>
+        <v>0.07335807050092764</v>
       </c>
       <c r="Y60">
-        <v>0.748</v>
+        <v>1.977</v>
       </c>
       <c r="Z60">
-        <v>0.651736040609137</v>
+        <v>1.990204452690167</v>
       </c>
       <c r="AA60">
-        <v>1.343837535014006</v>
+        <v>0.4075630252100841</v>
       </c>
       <c r="AB60">
-        <v>3.3145</v>
+        <v>10.5175</v>
       </c>
       <c r="AC60">
-        <v>0.08949999999999998</v>
+        <v>0.0775</v>
+      </c>
+      <c r="AD60">
+        <v>36.8</v>
       </c>
       <c r="AE60">
-        <v>2.895</v>
+        <v>2.7508</v>
       </c>
       <c r="AF60">
-        <v>0.02581</v>
+        <v>0.02699</v>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
@@ -13408,34 +13408,34 @@
         <v>93095.19</v>
       </c>
       <c r="AR60">
-        <v>39.7959183673469</v>
+        <v>44.8979591836735</v>
       </c>
       <c r="AS60">
-        <v>12.8974358974359</v>
+        <v>16.75</v>
       </c>
       <c r="AT60">
+        <v>64</v>
+      </c>
+      <c r="AU60">
         <v>32</v>
       </c>
-      <c r="AU60">
-        <v>16</v>
-      </c>
       <c r="AV60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW60">
-        <v>42.76</v>
+        <v>57.62</v>
       </c>
       <c r="AX60">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AY60">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ60">
         <v>48</v>
       </c>
       <c r="BA60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="3">
         <v>45197</v>
@@ -13455,25 +13455,25 @@
         <v>162</v>
       </c>
       <c r="BG60">
-        <v>-0.1260984021355386</v>
+        <v>0.2960066693136723</v>
       </c>
       <c r="BH60">
-        <v>-0.1859282621179727</v>
+        <v>0.2988976935525109</v>
       </c>
       <c r="BI60">
-        <v>0.004617283950617284</v>
+        <v>0.0122037037037037</v>
       </c>
       <c r="BJ60">
-        <v>-2.33561341667817</v>
+        <v>-1.913508345228959</v>
       </c>
       <c r="BK60">
-        <v>0.004023061979068747</v>
+        <v>0.01228521267092696</v>
       </c>
       <c r="BL60">
-        <v>268.2041319379165</v>
+        <v>819.0141780617971</v>
       </c>
       <c r="BM60">
-        <v>-2.395443276660604</v>
+        <v>-1.91061732099012</v>
       </c>
     </row>
     <row r="61">
@@ -15052,29 +15052,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68">
-        <v>27.50466666666667</v>
+        <v>27.6395</v>
       </c>
       <c r="D68" s="2">
         <v>45360</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F68">
-        <v>1.03</v>
+        <v>1.046</v>
       </c>
       <c r="G68">
-        <v>28.221</v>
+        <v>27.025</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -15098,54 +15098,54 @@
         </is>
       </c>
       <c r="P68">
-        <v>1109.659</v>
+        <v>1105.228</v>
       </c>
       <c r="Q68">
-        <v>1114.438</v>
+        <v>1107.045</v>
       </c>
       <c r="R68">
-        <v>2.981</v>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>dirty sample, sand knocked clean</t>
+        <v>1.525</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>few</t>
         </is>
       </c>
       <c r="U68">
-        <v>29.251</v>
+        <v>28.071</v>
       </c>
       <c r="V68">
-        <v>1.183</v>
+        <v>1.339</v>
       </c>
       <c r="W68">
-        <v>29.251</v>
+        <v>28.071</v>
       </c>
       <c r="X68">
-        <v>0.04044306177566579</v>
+        <v>0.04770047379858217</v>
       </c>
       <c r="Y68">
-        <v>1.183</v>
+        <v>1.339</v>
       </c>
       <c r="Z68">
-        <v>1.112372933119096</v>
+        <v>1.318417245555912</v>
       </c>
       <c r="AA68">
-        <v>1.938375350140056</v>
+        <v>1.69467787114846</v>
       </c>
       <c r="AB68">
-        <v>9.228</v>
+        <v>4.186</v>
       </c>
       <c r="AC68">
-        <v>0.204</v>
+        <v>0.1855</v>
       </c>
       <c r="AD68">
-        <v>101</v>
+        <v>76.5</v>
       </c>
       <c r="AE68">
-        <v>2.2253</v>
+        <v>3.3293</v>
       </c>
       <c r="AF68">
-        <v>0.02246</v>
+        <v>0.03071</v>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
@@ -15195,34 +15195,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR68">
-        <v>31.6326530612245</v>
+        <v>36.734693877551</v>
       </c>
       <c r="AS68">
-        <v>12.2258064516129</v>
+        <v>14.2777777777778</v>
       </c>
       <c r="AT68">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AU68">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AV68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW68">
-        <v>90.98</v>
+        <v>59.46</v>
       </c>
       <c r="AX68">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AY68">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AZ68">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="BA68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB68" s="3">
         <v>45217</v>
@@ -15242,25 +15242,25 @@
         <v>143</v>
       </c>
       <c r="BG68">
-        <v>0.07298474462793039</v>
+        <v>0.126780577012009</v>
       </c>
       <c r="BH68">
-        <v>0.0462504128242394</v>
+        <v>0.120052875178879</v>
       </c>
       <c r="BI68">
-        <v>0.008272727272727274</v>
+        <v>0.009363636363636364</v>
       </c>
       <c r="BJ68">
-        <v>-2.082351292837131</v>
+        <v>-2.028555460453053</v>
       </c>
       <c r="BK68">
-        <v>0.007778831700133536</v>
+        <v>0.009219701017873509</v>
       </c>
       <c r="BL68">
-        <v>518.5887800089024</v>
+        <v>614.6467345249006</v>
       </c>
       <c r="BM68">
-        <v>-2.109085624640822</v>
+        <v>-2.035283162286183</v>
       </c>
     </row>
     <row r="69">
@@ -15271,29 +15271,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69">
-        <v>27.50466666666667</v>
+        <v>27.6395</v>
       </c>
       <c r="D69" s="2">
         <v>45360</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="F69">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="G69">
-        <v>24.432</v>
+        <v>25.036</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>93</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | major</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -15316,50 +15316,52 @@
           <t>NA | NA</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="P69">
-        <v>1150.233</v>
-      </c>
-      <c r="Q69">
-        <v>1151.273</v>
+        <v>1109.628</v>
       </c>
       <c r="R69">
-        <v>0.9389999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="U69">
-        <v>25.392</v>
+        <v>26.076</v>
       </c>
       <c r="V69">
-        <v>0.6699999999999999</v>
+        <v>0.858</v>
       </c>
       <c r="W69">
-        <v>25.392</v>
+        <v>26.076</v>
       </c>
       <c r="X69">
-        <v>0.0263862633900441</v>
+        <v>0.03290381960423377</v>
       </c>
       <c r="Y69">
-        <v>0.6699999999999999</v>
+        <v>0.858</v>
       </c>
       <c r="Z69">
-        <v>0.7257453791220331</v>
+        <v>0.9094451219512194</v>
       </c>
       <c r="AA69">
-        <v>1.938375350140056</v>
+        <v>1.69467787114846</v>
       </c>
       <c r="AB69">
-        <v>9.228</v>
+        <v>4.186</v>
       </c>
       <c r="AC69">
-        <v>0.204</v>
+        <v>0.1855</v>
       </c>
       <c r="AD69">
-        <v>101</v>
+        <v>76.5</v>
       </c>
       <c r="AE69">
-        <v>2.2253</v>
+        <v>3.3293</v>
       </c>
       <c r="AF69">
-        <v>0.02246</v>
+        <v>0.03071</v>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
@@ -15409,34 +15411,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR69">
-        <v>31.6326530612245</v>
+        <v>36.734693877551</v>
       </c>
       <c r="AS69">
-        <v>12.2258064516129</v>
+        <v>14.2777777777778</v>
       </c>
       <c r="AT69">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AU69">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AV69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW69">
-        <v>90.98</v>
+        <v>59.46</v>
       </c>
       <c r="AX69">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AY69">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AZ69">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="BA69">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB69" s="3">
         <v>45217</v>
@@ -15456,25 +15458,25 @@
         <v>143</v>
       </c>
       <c r="BG69">
-        <v>-0.1739251972991736</v>
+        <v>-0.06651271215129456</v>
       </c>
       <c r="BH69">
-        <v>-0.139215720674644</v>
+        <v>-0.04122350215610526</v>
       </c>
       <c r="BI69">
-        <v>0.004685314685314685</v>
+        <v>0.006</v>
       </c>
       <c r="BJ69">
-        <v>-2.329261234764235</v>
+        <v>-2.221848749616356</v>
       </c>
       <c r="BK69">
-        <v>0.005075142511342889</v>
+        <v>0.006359756097560975</v>
       </c>
       <c r="BL69">
-        <v>338.3428340895259</v>
+        <v>423.9837398373984</v>
       </c>
       <c r="BM69">
-        <v>-2.294551758139706</v>
+        <v>-2.196559539621167</v>
       </c>
     </row>
     <row r="70">
@@ -15485,34 +15487,34 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70">
-        <v>27.50466666666667</v>
+        <v>27.6395</v>
       </c>
       <c r="D70" s="2">
         <v>45360</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F70">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="G70">
-        <v>12.545</v>
+        <v>26.218</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>NA | out of ground</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -15527,50 +15529,60 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>NA | y</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="P70">
-        <v>1137.613</v>
+        <v>1119.39</v>
       </c>
       <c r="R70">
-        <v>0.355</v>
+        <v>5.766</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>sand/particles in sample, slide made</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>sample weight too high</t>
+        </is>
       </c>
       <c r="U70">
-        <v>13.615</v>
+        <v>27.208</v>
       </c>
       <c r="V70">
-        <v>0.278</v>
+        <v>3.376</v>
       </c>
       <c r="W70">
-        <v>29.94930394842087</v>
+        <v>27.208</v>
       </c>
       <c r="X70">
-        <v>0.0204186558942343</v>
+        <v>0.1240811526021759</v>
       </c>
       <c r="Y70">
-        <v>0.6115245315946385</v>
+        <v>3.376</v>
       </c>
       <c r="Z70">
-        <v>0.5616083241522831</v>
+        <v>3.429541017347839</v>
       </c>
       <c r="AA70">
-        <v>1.938375350140056</v>
+        <v>1.69467787114846</v>
       </c>
       <c r="AB70">
-        <v>9.228</v>
+        <v>4.186</v>
       </c>
       <c r="AC70">
-        <v>0.204</v>
+        <v>0.1855</v>
       </c>
       <c r="AD70">
-        <v>101</v>
+        <v>76.5</v>
       </c>
       <c r="AE70">
-        <v>2.2253</v>
+        <v>3.3293</v>
       </c>
       <c r="AF70">
-        <v>0.02246</v>
+        <v>0.03071</v>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
@@ -15620,34 +15632,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR70">
-        <v>31.6326530612245</v>
+        <v>36.734693877551</v>
       </c>
       <c r="AS70">
-        <v>12.2258064516129</v>
+        <v>14.2777777777778</v>
       </c>
       <c r="AT70">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AU70">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AV70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW70">
-        <v>90.98</v>
+        <v>59.46</v>
       </c>
       <c r="AX70">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AY70">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AZ70">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="BA70">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB70" s="3">
         <v>45217</v>
@@ -15667,25 +15679,25 @@
         <v>143</v>
       </c>
       <c r="BG70">
-        <v>-0.2135861163505296</v>
+        <v>0.5284024379536175</v>
       </c>
       <c r="BH70">
-        <v>-0.2505664637226044</v>
+        <v>0.5352360013922904</v>
       </c>
       <c r="BI70">
-        <v>0.004276395325836633</v>
+        <v>0.02360839160839161</v>
       </c>
       <c r="BJ70">
-        <v>-2.368922153815591</v>
+        <v>-1.626933599511444</v>
       </c>
       <c r="BK70">
-        <v>0.003927330938127854</v>
+        <v>0.02398280431711776</v>
       </c>
       <c r="BL70">
-        <v>261.822062541857</v>
+        <v>1598.853621141184</v>
       </c>
       <c r="BM70">
-        <v>-2.405902501187666</v>
+        <v>-1.620100036072771</v>
       </c>
     </row>
     <row r="71">
@@ -15696,29 +15708,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71">
-        <v>27.50466666666667</v>
+        <v>27.6395</v>
       </c>
       <c r="D71" s="2">
         <v>45360</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="F71">
-        <v>1.038</v>
+        <v>0.987</v>
       </c>
       <c r="G71">
-        <v>26.833</v>
+        <v>24.85</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>94</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -15733,7 +15745,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>NA | topless</t>
+          <t>NA | moderate</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -15742,49 +15754,46 @@
         </is>
       </c>
       <c r="P71">
-        <v>1113.177</v>
-      </c>
-      <c r="Q71">
-        <v>1114.961</v>
+        <v>1110.349</v>
       </c>
       <c r="R71">
-        <v>0.968</v>
+        <v>3.309</v>
       </c>
       <c r="U71">
-        <v>27.871</v>
+        <v>25.837</v>
       </c>
       <c r="V71">
-        <v>0.5469999999999999</v>
+        <v>3.287</v>
       </c>
       <c r="W71">
-        <v>27.871</v>
+        <v>25.837</v>
       </c>
       <c r="X71">
-        <v>0.01962613469197374</v>
+        <v>0.1272206525525409</v>
       </c>
       <c r="Y71">
-        <v>0.5469999999999999</v>
+        <v>3.286999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.5398102926578403</v>
+        <v>3.516315226225954</v>
       </c>
       <c r="AA71">
-        <v>1.938375350140056</v>
+        <v>1.69467787114846</v>
       </c>
       <c r="AB71">
-        <v>9.228</v>
+        <v>4.186</v>
       </c>
       <c r="AC71">
-        <v>0.204</v>
+        <v>0.1855</v>
       </c>
       <c r="AD71">
-        <v>101</v>
+        <v>76.5</v>
       </c>
       <c r="AE71">
-        <v>2.2253</v>
+        <v>3.3293</v>
       </c>
       <c r="AF71">
-        <v>0.02246</v>
+        <v>0.03071</v>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
@@ -15834,34 +15843,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR71">
-        <v>31.6326530612245</v>
+        <v>36.734693877551</v>
       </c>
       <c r="AS71">
-        <v>12.2258064516129</v>
+        <v>14.2777777777778</v>
       </c>
       <c r="AT71">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AU71">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AV71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW71">
-        <v>90.98</v>
+        <v>59.46</v>
       </c>
       <c r="AX71">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AY71">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AZ71">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="BA71">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB71" s="3">
         <v>45217</v>
@@ -15881,25 +15890,25 @@
         <v>143</v>
       </c>
       <c r="BG71">
-        <v>-0.2620126736665693</v>
+        <v>0.5167997040816243</v>
       </c>
       <c r="BH71">
-        <v>-0.2677588389312466</v>
+        <v>0.5460878012350491</v>
       </c>
       <c r="BI71">
-        <v>0.003825174825174824</v>
+        <v>0.02298601398601398</v>
       </c>
       <c r="BJ71">
-        <v>-2.417348711131631</v>
+        <v>-1.638536333383438</v>
       </c>
       <c r="BK71">
-        <v>0.003774897151453429</v>
+        <v>0.02458961696661507</v>
       </c>
       <c r="BL71">
-        <v>251.6598100968953</v>
+        <v>1639.307797774338</v>
       </c>
       <c r="BM71">
-        <v>-2.423094876396308</v>
+        <v>-1.609248236230013</v>
       </c>
     </row>
     <row r="72">
@@ -15910,29 +15919,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72">
-        <v>27.6395</v>
+        <v>27.50466666666667</v>
       </c>
       <c r="D72" s="2">
         <v>45360</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F72">
-        <v>1.046</v>
+        <v>1.03</v>
       </c>
       <c r="G72">
-        <v>27.025</v>
+        <v>28.221</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -15956,54 +15965,54 @@
         </is>
       </c>
       <c r="P72">
-        <v>1105.228</v>
+        <v>1109.659</v>
       </c>
       <c r="Q72">
-        <v>1107.045</v>
+        <v>1114.438</v>
       </c>
       <c r="R72">
-        <v>1.525</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>few</t>
+        <v>2.981</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>dirty sample, sand knocked clean</t>
         </is>
       </c>
       <c r="U72">
-        <v>28.071</v>
+        <v>29.251</v>
       </c>
       <c r="V72">
-        <v>1.339</v>
+        <v>1.183</v>
       </c>
       <c r="W72">
-        <v>28.071</v>
+        <v>29.251</v>
       </c>
       <c r="X72">
-        <v>0.04770047379858217</v>
+        <v>0.04044306177566579</v>
       </c>
       <c r="Y72">
-        <v>1.339</v>
+        <v>1.183</v>
       </c>
       <c r="Z72">
-        <v>1.318417245555912</v>
+        <v>1.112372933119096</v>
       </c>
       <c r="AA72">
-        <v>1.69467787114846</v>
+        <v>1.938375350140056</v>
       </c>
       <c r="AB72">
-        <v>4.186</v>
+        <v>9.228</v>
       </c>
       <c r="AC72">
-        <v>0.1855</v>
+        <v>0.204</v>
       </c>
       <c r="AD72">
-        <v>76.5</v>
+        <v>101</v>
       </c>
       <c r="AE72">
-        <v>3.3293</v>
+        <v>2.2253</v>
       </c>
       <c r="AF72">
-        <v>0.03071</v>
+        <v>0.02246</v>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
@@ -16053,34 +16062,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR72">
-        <v>36.734693877551</v>
+        <v>31.6326530612245</v>
       </c>
       <c r="AS72">
-        <v>14.2777777777778</v>
+        <v>12.2258064516129</v>
       </c>
       <c r="AT72">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AU72">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AV72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW72">
-        <v>59.46</v>
+        <v>90.98</v>
       </c>
       <c r="AX72">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AY72">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AZ72">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="BA72">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB72" s="3">
         <v>45217</v>
@@ -16100,25 +16109,25 @@
         <v>143</v>
       </c>
       <c r="BG72">
-        <v>0.126780577012009</v>
+        <v>0.07298474462793039</v>
       </c>
       <c r="BH72">
-        <v>0.120052875178879</v>
+        <v>0.0462504128242394</v>
       </c>
       <c r="BI72">
-        <v>0.009363636363636364</v>
+        <v>0.008272727272727274</v>
       </c>
       <c r="BJ72">
-        <v>-2.028555460453053</v>
+        <v>-2.082351292837131</v>
       </c>
       <c r="BK72">
-        <v>0.009219701017873509</v>
+        <v>0.007778831700133536</v>
       </c>
       <c r="BL72">
-        <v>614.6467345249006</v>
+        <v>518.5887800089024</v>
       </c>
       <c r="BM72">
-        <v>-2.035283162286183</v>
+        <v>-2.109085624640822</v>
       </c>
     </row>
     <row r="73">
@@ -16129,29 +16138,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73">
-        <v>27.6395</v>
+        <v>27.50466666666667</v>
       </c>
       <c r="D73" s="2">
         <v>45360</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F73">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="G73">
-        <v>25.036</v>
+        <v>24.432</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -16166,7 +16175,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NA | major</t>
+          <t>NA | NA</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -16174,52 +16183,50 @@
           <t>NA | NA</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
       <c r="P73">
-        <v>1109.628</v>
+        <v>1150.233</v>
+      </c>
+      <c r="Q73">
+        <v>1151.273</v>
       </c>
       <c r="R73">
-        <v>0.838</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="U73">
-        <v>26.076</v>
+        <v>25.392</v>
       </c>
       <c r="V73">
-        <v>0.858</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="W73">
-        <v>26.076</v>
+        <v>25.392</v>
       </c>
       <c r="X73">
-        <v>0.03290381960423377</v>
+        <v>0.0263862633900441</v>
       </c>
       <c r="Y73">
-        <v>0.858</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.9094451219512194</v>
+        <v>0.7257453791220331</v>
       </c>
       <c r="AA73">
-        <v>1.69467787114846</v>
+        <v>1.938375350140056</v>
       </c>
       <c r="AB73">
-        <v>4.186</v>
+        <v>9.228</v>
       </c>
       <c r="AC73">
-        <v>0.1855</v>
+        <v>0.204</v>
       </c>
       <c r="AD73">
-        <v>76.5</v>
+        <v>101</v>
       </c>
       <c r="AE73">
-        <v>3.3293</v>
+        <v>2.2253</v>
       </c>
       <c r="AF73">
-        <v>0.03071</v>
+        <v>0.02246</v>
       </c>
       <c r="AG73" t="inlineStr">
         <is>
@@ -16269,34 +16276,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR73">
-        <v>36.734693877551</v>
+        <v>31.6326530612245</v>
       </c>
       <c r="AS73">
-        <v>14.2777777777778</v>
+        <v>12.2258064516129</v>
       </c>
       <c r="AT73">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AU73">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AV73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW73">
-        <v>59.46</v>
+        <v>90.98</v>
       </c>
       <c r="AX73">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AY73">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AZ73">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="BA73">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB73" s="3">
         <v>45217</v>
@@ -16316,25 +16323,25 @@
         <v>143</v>
       </c>
       <c r="BG73">
-        <v>-0.06651271215129456</v>
+        <v>-0.1739251972991736</v>
       </c>
       <c r="BH73">
-        <v>-0.04122350215610526</v>
+        <v>-0.139215720674644</v>
       </c>
       <c r="BI73">
-        <v>0.006</v>
+        <v>0.004685314685314685</v>
       </c>
       <c r="BJ73">
-        <v>-2.221848749616356</v>
+        <v>-2.329261234764235</v>
       </c>
       <c r="BK73">
-        <v>0.006359756097560975</v>
+        <v>0.005075142511342889</v>
       </c>
       <c r="BL73">
-        <v>423.9837398373984</v>
+        <v>338.3428340895259</v>
       </c>
       <c r="BM73">
-        <v>-2.196559539621167</v>
+        <v>-2.294551758139706</v>
       </c>
     </row>
     <row r="74">
@@ -16345,34 +16352,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74">
-        <v>27.6395</v>
+        <v>27.50466666666667</v>
       </c>
       <c r="D74" s="2">
         <v>45360</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F74">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="G74">
-        <v>26.218</v>
+        <v>12.545</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>89</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | out of ground</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -16387,60 +16394,50 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>NA | NA</t>
+          <t>NA | y</t>
         </is>
       </c>
       <c r="P74">
-        <v>1119.39</v>
+        <v>1137.613</v>
       </c>
       <c r="R74">
-        <v>5.766</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>sand/particles in sample, slide made</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>sample weight too high</t>
-        </is>
+        <v>0.355</v>
       </c>
       <c r="U74">
-        <v>27.208</v>
+        <v>13.615</v>
       </c>
       <c r="V74">
-        <v>3.376</v>
+        <v>0.278</v>
       </c>
       <c r="W74">
-        <v>27.208</v>
+        <v>29.94930394842087</v>
       </c>
       <c r="X74">
-        <v>0.1240811526021759</v>
+        <v>0.0204186558942343</v>
       </c>
       <c r="Y74">
-        <v>3.376</v>
+        <v>0.6115245315946385</v>
       </c>
       <c r="Z74">
-        <v>3.429541017347839</v>
+        <v>0.5616083241522831</v>
       </c>
       <c r="AA74">
-        <v>1.69467787114846</v>
+        <v>1.938375350140056</v>
       </c>
       <c r="AB74">
-        <v>4.186</v>
+        <v>9.228</v>
       </c>
       <c r="AC74">
-        <v>0.1855</v>
+        <v>0.204</v>
       </c>
       <c r="AD74">
-        <v>76.5</v>
+        <v>101</v>
       </c>
       <c r="AE74">
-        <v>3.3293</v>
+        <v>2.2253</v>
       </c>
       <c r="AF74">
-        <v>0.03071</v>
+        <v>0.02246</v>
       </c>
       <c r="AG74" t="inlineStr">
         <is>
@@ -16490,34 +16487,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR74">
-        <v>36.734693877551</v>
+        <v>31.6326530612245</v>
       </c>
       <c r="AS74">
-        <v>14.2777777777778</v>
+        <v>12.2258064516129</v>
       </c>
       <c r="AT74">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AU74">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AV74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW74">
-        <v>59.46</v>
+        <v>90.98</v>
       </c>
       <c r="AX74">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AY74">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AZ74">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="BA74">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB74" s="3">
         <v>45217</v>
@@ -16537,25 +16534,25 @@
         <v>143</v>
       </c>
       <c r="BG74">
-        <v>0.5284024379536175</v>
+        <v>-0.2135861163505296</v>
       </c>
       <c r="BH74">
-        <v>0.5352360013922904</v>
+        <v>-0.2505664637226044</v>
       </c>
       <c r="BI74">
-        <v>0.02360839160839161</v>
+        <v>0.004276395325836633</v>
       </c>
       <c r="BJ74">
-        <v>-1.626933599511444</v>
+        <v>-2.368922153815591</v>
       </c>
       <c r="BK74">
-        <v>0.02398280431711776</v>
+        <v>0.003927330938127854</v>
       </c>
       <c r="BL74">
-        <v>1598.853621141184</v>
+        <v>261.822062541857</v>
       </c>
       <c r="BM74">
-        <v>-1.620100036072771</v>
+        <v>-2.405902501187666</v>
       </c>
     </row>
     <row r="75">
@@ -16566,29 +16563,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75">
-        <v>27.6395</v>
+        <v>27.50466666666667</v>
       </c>
       <c r="D75" s="2">
         <v>45360</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F75">
-        <v>0.987</v>
+        <v>1.038</v>
       </c>
       <c r="G75">
-        <v>24.85</v>
+        <v>26.833</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -16603,7 +16600,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>NA | moderate</t>
+          <t>NA | topless</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -16612,46 +16609,49 @@
         </is>
       </c>
       <c r="P75">
-        <v>1110.349</v>
+        <v>1113.177</v>
+      </c>
+      <c r="Q75">
+        <v>1114.961</v>
       </c>
       <c r="R75">
-        <v>3.309</v>
+        <v>0.968</v>
       </c>
       <c r="U75">
-        <v>25.837</v>
+        <v>27.871</v>
       </c>
       <c r="V75">
-        <v>3.287</v>
+        <v>0.5469999999999999</v>
       </c>
       <c r="W75">
-        <v>25.837</v>
+        <v>27.871</v>
       </c>
       <c r="X75">
-        <v>0.1272206525525409</v>
+        <v>0.01962613469197374</v>
       </c>
       <c r="Y75">
-        <v>3.286999999999999</v>
+        <v>0.5469999999999999</v>
       </c>
       <c r="Z75">
-        <v>3.516315226225954</v>
+        <v>0.5398102926578403</v>
       </c>
       <c r="AA75">
-        <v>1.69467787114846</v>
+        <v>1.938375350140056</v>
       </c>
       <c r="AB75">
-        <v>4.186</v>
+        <v>9.228</v>
       </c>
       <c r="AC75">
-        <v>0.1855</v>
+        <v>0.204</v>
       </c>
       <c r="AD75">
-        <v>76.5</v>
+        <v>101</v>
       </c>
       <c r="AE75">
-        <v>3.3293</v>
+        <v>2.2253</v>
       </c>
       <c r="AF75">
-        <v>0.03071</v>
+        <v>0.02246</v>
       </c>
       <c r="AG75" t="inlineStr">
         <is>
@@ -16701,34 +16701,34 @@
         <v>58212.91</v>
       </c>
       <c r="AR75">
-        <v>36.734693877551</v>
+        <v>31.6326530612245</v>
       </c>
       <c r="AS75">
-        <v>14.2777777777778</v>
+        <v>12.2258064516129</v>
       </c>
       <c r="AT75">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AU75">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AV75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW75">
-        <v>59.46</v>
+        <v>90.98</v>
       </c>
       <c r="AX75">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AY75">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AZ75">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="BA75">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB75" s="3">
         <v>45217</v>
@@ -16748,25 +16748,25 @@
         <v>143</v>
       </c>
       <c r="BG75">
-        <v>0.5167997040816243</v>
+        <v>-0.2620126736665693</v>
       </c>
       <c r="BH75">
-        <v>0.5460878012350491</v>
+        <v>-0.2677588389312466</v>
       </c>
       <c r="BI75">
-        <v>0.02298601398601398</v>
+        <v>0.003825174825174824</v>
       </c>
       <c r="BJ75">
-        <v>-1.638536333383438</v>
+        <v>-2.417348711131631</v>
       </c>
       <c r="BK75">
-        <v>0.02458961696661507</v>
+        <v>0.003774897151453429</v>
       </c>
       <c r="BL75">
-        <v>1639.307797774338</v>
+        <v>251.6598100968953</v>
       </c>
       <c r="BM75">
-        <v>-1.609248236230013</v>
+        <v>-2.423094876396308</v>
       </c>
     </row>
     <row r="76">
